--- a/database/sofi/F2 Sofi Database Notel per Apr9.xlsx
+++ b/database/sofi/F2 Sofi Database Notel per Apr9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ucup_d\yabuki\database\sofi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1119B3D-F0F5-D842-A565-C1CB62FFE19D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F402E2-E48D-441A-A4D5-AD1D9C604583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="12660" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="507">
   <si>
     <t>Keterangan</t>
   </si>
@@ -1893,20 +1893,20 @@
   </sheetPr>
   <dimension ref="A1:G959"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B75" sqref="A75:XFD75"/>
+    <sheetView tabSelected="1" topLeftCell="A259" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D277" sqref="D277"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="7.14453125" style="7" customWidth="1"/>
-    <col min="3" max="4" width="20.08984375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="29.66796875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="18.47265625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="20.08984375" style="7" customWidth="1"/>
+    <col min="1" max="2" width="7.140625" style="7" customWidth="1"/>
+    <col min="3" max="4" width="20.140625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1946,7 +1946,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1962,7 +1962,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>6</v>
       </c>
@@ -1978,7 +1978,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>7</v>
       </c>
@@ -1995,7 +1995,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>8</v>
       </c>
@@ -2011,7 +2011,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>9</v>
       </c>
@@ -2028,7 +2028,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>10</v>
       </c>
@@ -2044,7 +2044,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>11</v>
       </c>
@@ -2061,7 +2061,7 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>12</v>
       </c>
@@ -2077,7 +2077,7 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>13</v>
       </c>
@@ -2094,7 +2094,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>14</v>
       </c>
@@ -2110,7 +2110,7 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>15</v>
       </c>
@@ -2127,7 +2127,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>16</v>
       </c>
@@ -2143,7 +2143,7 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>17</v>
       </c>
@@ -2160,7 +2160,7 @@
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>18</v>
       </c>
@@ -2176,7 +2176,7 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>19</v>
       </c>
@@ -2193,7 +2193,7 @@
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>20</v>
       </c>
@@ -2209,7 +2209,7 @@
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>21</v>
       </c>
@@ -2226,7 +2226,7 @@
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>22</v>
       </c>
@@ -2242,7 +2242,7 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>23</v>
       </c>
@@ -2259,7 +2259,7 @@
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>24</v>
       </c>
@@ -2275,7 +2275,7 @@
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>25</v>
       </c>
@@ -2292,7 +2292,7 @@
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>27</v>
       </c>
@@ -2309,7 +2309,7 @@
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>30</v>
       </c>
@@ -2325,7 +2325,7 @@
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>32</v>
       </c>
@@ -2341,7 +2341,7 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>34</v>
       </c>
@@ -2357,7 +2357,7 @@
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>36</v>
       </c>
@@ -2373,7 +2373,7 @@
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>40</v>
       </c>
@@ -2389,7 +2389,7 @@
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>42</v>
       </c>
@@ -2405,7 +2405,7 @@
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>45</v>
       </c>
@@ -2422,7 +2422,7 @@
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>46</v>
       </c>
@@ -2438,7 +2438,7 @@
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
     </row>
-    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>48</v>
       </c>
@@ -2454,7 +2454,7 @@
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
     </row>
-    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>49</v>
       </c>
@@ -2471,7 +2471,7 @@
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
     </row>
-    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>51</v>
       </c>
@@ -2488,7 +2488,7 @@
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
     </row>
-    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>52</v>
       </c>
@@ -2504,7 +2504,7 @@
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
     </row>
-    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>54</v>
       </c>
@@ -2520,7 +2520,7 @@
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
     </row>
-    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>55</v>
       </c>
@@ -2537,7 +2537,7 @@
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
     </row>
-    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>56</v>
       </c>
@@ -2553,7 +2553,7 @@
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
     </row>
-    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>57</v>
       </c>
@@ -2570,7 +2570,7 @@
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
     </row>
-    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>60</v>
       </c>
@@ -2586,7 +2586,7 @@
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
     </row>
-    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>61</v>
       </c>
@@ -2603,7 +2603,7 @@
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
     </row>
-    <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>65</v>
       </c>
@@ -2620,7 +2620,7 @@
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
     </row>
-    <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>68</v>
       </c>
@@ -2636,7 +2636,7 @@
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
     </row>
-    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>71</v>
       </c>
@@ -2653,7 +2653,7 @@
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
     </row>
-    <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>72</v>
       </c>
@@ -2669,7 +2669,7 @@
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
     </row>
-    <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>73</v>
       </c>
@@ -2686,7 +2686,7 @@
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
     </row>
-    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>75</v>
       </c>
@@ -2703,7 +2703,7 @@
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
     </row>
-    <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>76</v>
       </c>
@@ -2719,7 +2719,7 @@
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
     </row>
-    <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>77</v>
       </c>
@@ -2736,7 +2736,7 @@
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
     </row>
-    <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>79</v>
       </c>
@@ -2753,7 +2753,7 @@
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
     </row>
-    <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>81</v>
       </c>
@@ -2770,7 +2770,7 @@
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
     </row>
-    <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>82</v>
       </c>
@@ -2786,7 +2786,7 @@
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
     </row>
-    <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>85</v>
       </c>
@@ -2803,7 +2803,7 @@
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
     </row>
-    <row r="55" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>86</v>
       </c>
@@ -2819,7 +2819,7 @@
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
     </row>
-    <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>87</v>
       </c>
@@ -2836,7 +2836,7 @@
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
     </row>
-    <row r="57" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>89</v>
       </c>
@@ -2853,7 +2853,7 @@
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
     </row>
-    <row r="58" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>90</v>
       </c>
@@ -2869,7 +2869,7 @@
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
     </row>
-    <row r="59" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>92</v>
       </c>
@@ -2885,7 +2885,7 @@
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
     </row>
-    <row r="60" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>95</v>
       </c>
@@ -2902,7 +2902,7 @@
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
     </row>
-    <row r="61" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>97</v>
       </c>
@@ -2919,7 +2919,7 @@
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
     </row>
-    <row r="62" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>98</v>
       </c>
@@ -2935,7 +2935,7 @@
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
     </row>
-    <row r="63" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>99</v>
       </c>
@@ -2952,7 +2952,7 @@
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
     </row>
-    <row r="64" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>100</v>
       </c>
@@ -2968,7 +2968,7 @@
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
     </row>
-    <row r="65" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>101</v>
       </c>
@@ -2985,7 +2985,7 @@
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
     </row>
-    <row r="66" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>102</v>
       </c>
@@ -3001,7 +3001,7 @@
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
     </row>
-    <row r="67" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>103</v>
       </c>
@@ -3018,7 +3018,7 @@
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
     </row>
-    <row r="68" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>104</v>
       </c>
@@ -3034,7 +3034,7 @@
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
     </row>
-    <row r="69" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>105</v>
       </c>
@@ -3051,7 +3051,7 @@
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
     </row>
-    <row r="70" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>106</v>
       </c>
@@ -3067,7 +3067,7 @@
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
     </row>
-    <row r="71" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>107</v>
       </c>
@@ -3084,7 +3084,7 @@
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
     </row>
-    <row r="72" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>108</v>
       </c>
@@ -3100,7 +3100,7 @@
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
     </row>
-    <row r="73" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>109</v>
       </c>
@@ -3117,7 +3117,7 @@
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
     </row>
-    <row r="74" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>111</v>
       </c>
@@ -3134,7 +3134,7 @@
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
     </row>
-    <row r="75" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>115</v>
       </c>
@@ -3151,7 +3151,7 @@
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
     </row>
-    <row r="76" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>116</v>
       </c>
@@ -3167,7 +3167,7 @@
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
     </row>
-    <row r="77" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>117</v>
       </c>
@@ -3184,7 +3184,7 @@
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
     </row>
-    <row r="78" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>118</v>
       </c>
@@ -3200,7 +3200,7 @@
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
     </row>
-    <row r="79" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>119</v>
       </c>
@@ -3217,7 +3217,7 @@
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
     </row>
-    <row r="80" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>120</v>
       </c>
@@ -3233,7 +3233,7 @@
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
     </row>
-    <row r="81" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>121</v>
       </c>
@@ -3250,7 +3250,7 @@
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
     </row>
-    <row r="82" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>122</v>
       </c>
@@ -3266,7 +3266,7 @@
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
     </row>
-    <row r="83" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>123</v>
       </c>
@@ -3283,7 +3283,7 @@
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
     </row>
-    <row r="84" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>124</v>
       </c>
@@ -3299,7 +3299,7 @@
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
     </row>
-    <row r="85" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>125</v>
       </c>
@@ -3316,7 +3316,7 @@
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
     </row>
-    <row r="86" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>126</v>
       </c>
@@ -3332,7 +3332,7 @@
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
     </row>
-    <row r="87" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>127</v>
       </c>
@@ -3349,7 +3349,7 @@
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
     </row>
-    <row r="88" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>128</v>
       </c>
@@ -3365,7 +3365,7 @@
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
     </row>
-    <row r="89" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>129</v>
       </c>
@@ -3382,7 +3382,7 @@
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
     </row>
-    <row r="90" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>130</v>
       </c>
@@ -3398,7 +3398,7 @@
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
     </row>
-    <row r="91" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>131</v>
       </c>
@@ -3415,7 +3415,7 @@
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
     </row>
-    <row r="92" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>132</v>
       </c>
@@ -3431,7 +3431,7 @@
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
     </row>
-    <row r="93" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>133</v>
       </c>
@@ -3448,7 +3448,7 @@
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
     </row>
-    <row r="94" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>134</v>
       </c>
@@ -3464,7 +3464,7 @@
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
     </row>
-    <row r="95" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>135</v>
       </c>
@@ -3481,7 +3481,7 @@
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
     </row>
-    <row r="96" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>136</v>
       </c>
@@ -3497,7 +3497,7 @@
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
     </row>
-    <row r="97" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>137</v>
       </c>
@@ -3514,7 +3514,7 @@
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
     </row>
-    <row r="98" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>138</v>
       </c>
@@ -3530,7 +3530,7 @@
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
     </row>
-    <row r="99" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>139</v>
       </c>
@@ -3547,7 +3547,7 @@
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
     </row>
-    <row r="100" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
         <v>140</v>
       </c>
@@ -3563,7 +3563,7 @@
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
     </row>
-    <row r="101" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>141</v>
       </c>
@@ -3580,7 +3580,7 @@
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
     </row>
-    <row r="102" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
         <v>142</v>
       </c>
@@ -3596,7 +3596,7 @@
       <c r="E102" s="6"/>
       <c r="F102" s="6"/>
     </row>
-    <row r="103" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
         <v>143</v>
       </c>
@@ -3613,7 +3613,7 @@
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
     </row>
-    <row r="104" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
         <v>144</v>
       </c>
@@ -3629,7 +3629,7 @@
       <c r="E104" s="6"/>
       <c r="F104" s="6"/>
     </row>
-    <row r="105" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
         <v>145</v>
       </c>
@@ -3646,7 +3646,7 @@
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
     </row>
-    <row r="106" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
         <v>146</v>
       </c>
@@ -3662,7 +3662,7 @@
       <c r="E106" s="6"/>
       <c r="F106" s="6"/>
     </row>
-    <row r="107" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
         <v>147</v>
       </c>
@@ -3679,7 +3679,7 @@
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
     </row>
-    <row r="108" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
         <v>148</v>
       </c>
@@ -3695,7 +3695,7 @@
       <c r="E108" s="6"/>
       <c r="F108" s="6"/>
     </row>
-    <row r="109" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
         <v>149</v>
       </c>
@@ -3712,7 +3712,7 @@
       <c r="F109" s="6"/>
       <c r="G109" s="6"/>
     </row>
-    <row r="110" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
         <v>150</v>
       </c>
@@ -3728,7 +3728,7 @@
       <c r="E110" s="6"/>
       <c r="F110" s="6"/>
     </row>
-    <row r="111" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
         <v>151</v>
       </c>
@@ -3745,7 +3745,7 @@
       <c r="F111" s="6"/>
       <c r="G111" s="6"/>
     </row>
-    <row r="112" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
         <v>152</v>
       </c>
@@ -3761,7 +3761,7 @@
       <c r="E112" s="6"/>
       <c r="F112" s="6"/>
     </row>
-    <row r="113" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
         <v>153</v>
       </c>
@@ -3778,7 +3778,7 @@
       <c r="F113" s="6"/>
       <c r="G113" s="6"/>
     </row>
-    <row r="114" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
         <v>154</v>
       </c>
@@ -3794,7 +3794,7 @@
       <c r="E114" s="6"/>
       <c r="F114" s="6"/>
     </row>
-    <row r="115" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
         <v>155</v>
       </c>
@@ -3811,7 +3811,7 @@
       <c r="F115" s="6"/>
       <c r="G115" s="6"/>
     </row>
-    <row r="116" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
         <v>156</v>
       </c>
@@ -3827,7 +3827,7 @@
       <c r="E116" s="6"/>
       <c r="F116" s="6"/>
     </row>
-    <row r="117" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
         <v>157</v>
       </c>
@@ -3844,7 +3844,7 @@
       <c r="F117" s="6"/>
       <c r="G117" s="6"/>
     </row>
-    <row r="118" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
         <v>158</v>
       </c>
@@ -3860,7 +3860,7 @@
       <c r="E118" s="6"/>
       <c r="F118" s="6"/>
     </row>
-    <row r="119" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
         <v>159</v>
       </c>
@@ -3877,7 +3877,7 @@
       <c r="F119" s="6"/>
       <c r="G119" s="6"/>
     </row>
-    <row r="120" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
         <v>160</v>
       </c>
@@ -3893,7 +3893,7 @@
       <c r="E120" s="6"/>
       <c r="F120" s="6"/>
     </row>
-    <row r="121" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
         <v>161</v>
       </c>
@@ -3910,7 +3910,7 @@
       <c r="F121" s="6"/>
       <c r="G121" s="6"/>
     </row>
-    <row r="122" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
         <v>162</v>
       </c>
@@ -3926,7 +3926,7 @@
       <c r="E122" s="6"/>
       <c r="F122" s="6"/>
     </row>
-    <row r="123" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
         <v>163</v>
       </c>
@@ -3943,7 +3943,7 @@
       <c r="F123" s="6"/>
       <c r="G123" s="6"/>
     </row>
-    <row r="124" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
         <v>164</v>
       </c>
@@ -3959,7 +3959,7 @@
       <c r="E124" s="6"/>
       <c r="F124" s="6"/>
     </row>
-    <row r="125" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
         <v>165</v>
       </c>
@@ -3976,7 +3976,7 @@
       <c r="F125" s="6"/>
       <c r="G125" s="6"/>
     </row>
-    <row r="126" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
         <v>166</v>
       </c>
@@ -3992,7 +3992,7 @@
       <c r="E126" s="6"/>
       <c r="F126" s="6"/>
     </row>
-    <row r="127" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
         <v>167</v>
       </c>
@@ -4009,7 +4009,7 @@
       <c r="F127" s="6"/>
       <c r="G127" s="6"/>
     </row>
-    <row r="128" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
         <v>168</v>
       </c>
@@ -4025,7 +4025,7 @@
       <c r="E128" s="6"/>
       <c r="F128" s="6"/>
     </row>
-    <row r="129" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
         <v>169</v>
       </c>
@@ -4042,7 +4042,7 @@
       <c r="F129" s="6"/>
       <c r="G129" s="6"/>
     </row>
-    <row r="130" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
         <v>170</v>
       </c>
@@ -4058,7 +4058,7 @@
       <c r="E130" s="6"/>
       <c r="F130" s="6"/>
     </row>
-    <row r="131" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
         <v>171</v>
       </c>
@@ -4075,7 +4075,7 @@
       <c r="F131" s="6"/>
       <c r="G131" s="6"/>
     </row>
-    <row r="132" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
         <v>172</v>
       </c>
@@ -4091,7 +4091,7 @@
       <c r="E132" s="6"/>
       <c r="F132" s="6"/>
     </row>
-    <row r="133" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="3">
         <v>173</v>
       </c>
@@ -4108,7 +4108,7 @@
       <c r="F133" s="6"/>
       <c r="G133" s="6"/>
     </row>
-    <row r="134" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
         <v>174</v>
       </c>
@@ -4124,7 +4124,7 @@
       <c r="E134" s="6"/>
       <c r="F134" s="6"/>
     </row>
-    <row r="135" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="3">
         <v>175</v>
       </c>
@@ -4141,7 +4141,7 @@
       <c r="F135" s="6"/>
       <c r="G135" s="6"/>
     </row>
-    <row r="136" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="3">
         <v>176</v>
       </c>
@@ -4157,7 +4157,7 @@
       <c r="E136" s="6"/>
       <c r="F136" s="6"/>
     </row>
-    <row r="137" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="3">
         <v>177</v>
       </c>
@@ -4174,7 +4174,7 @@
       <c r="F137" s="6"/>
       <c r="G137" s="6"/>
     </row>
-    <row r="138" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="3">
         <v>178</v>
       </c>
@@ -4190,7 +4190,7 @@
       <c r="E138" s="6"/>
       <c r="F138" s="6"/>
     </row>
-    <row r="139" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="3">
         <v>179</v>
       </c>
@@ -4207,7 +4207,7 @@
       <c r="F139" s="6"/>
       <c r="G139" s="6"/>
     </row>
-    <row r="140" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="3">
         <v>180</v>
       </c>
@@ -4223,7 +4223,7 @@
       <c r="E140" s="6"/>
       <c r="F140" s="6"/>
     </row>
-    <row r="141" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="3">
         <v>181</v>
       </c>
@@ -4240,7 +4240,7 @@
       <c r="F141" s="6"/>
       <c r="G141" s="6"/>
     </row>
-    <row r="142" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="3">
         <v>182</v>
       </c>
@@ -4256,7 +4256,7 @@
       <c r="E142" s="6"/>
       <c r="F142" s="6"/>
     </row>
-    <row r="143" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="3">
         <v>183</v>
       </c>
@@ -4273,7 +4273,7 @@
       <c r="F143" s="6"/>
       <c r="G143" s="6"/>
     </row>
-    <row r="144" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="3">
         <v>184</v>
       </c>
@@ -4289,7 +4289,7 @@
       <c r="E144" s="6"/>
       <c r="F144" s="6"/>
     </row>
-    <row r="145" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="3">
         <v>185</v>
       </c>
@@ -4306,7 +4306,7 @@
       <c r="F145" s="6"/>
       <c r="G145" s="6"/>
     </row>
-    <row r="146" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
         <v>186</v>
       </c>
@@ -4322,7 +4322,7 @@
       <c r="E146" s="6"/>
       <c r="F146" s="6"/>
     </row>
-    <row r="147" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
         <v>187</v>
       </c>
@@ -4339,7 +4339,7 @@
       <c r="F147" s="6"/>
       <c r="G147" s="6"/>
     </row>
-    <row r="148" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="3">
         <v>188</v>
       </c>
@@ -4355,7 +4355,7 @@
       <c r="E148" s="6"/>
       <c r="F148" s="6"/>
     </row>
-    <row r="149" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
         <v>189</v>
       </c>
@@ -4372,7 +4372,7 @@
       <c r="F149" s="6"/>
       <c r="G149" s="6"/>
     </row>
-    <row r="150" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="3">
         <v>190</v>
       </c>
@@ -4388,7 +4388,7 @@
       <c r="E150" s="6"/>
       <c r="F150" s="6"/>
     </row>
-    <row r="151" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="3">
         <v>191</v>
       </c>
@@ -4405,7 +4405,7 @@
       <c r="F151" s="6"/>
       <c r="G151" s="6"/>
     </row>
-    <row r="152" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="3">
         <v>192</v>
       </c>
@@ -4421,7 +4421,7 @@
       <c r="E152" s="6"/>
       <c r="F152" s="6"/>
     </row>
-    <row r="153" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="3">
         <v>193</v>
       </c>
@@ -4438,7 +4438,7 @@
       <c r="F153" s="6"/>
       <c r="G153" s="6"/>
     </row>
-    <row r="154" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="3">
         <v>194</v>
       </c>
@@ -4454,7 +4454,7 @@
       <c r="E154" s="6"/>
       <c r="F154" s="6"/>
     </row>
-    <row r="155" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="3">
         <v>195</v>
       </c>
@@ -4471,7 +4471,7 @@
       <c r="F155" s="6"/>
       <c r="G155" s="6"/>
     </row>
-    <row r="156" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="3">
         <v>196</v>
       </c>
@@ -4487,7 +4487,7 @@
       <c r="E156" s="6"/>
       <c r="F156" s="6"/>
     </row>
-    <row r="157" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="3">
         <v>197</v>
       </c>
@@ -4504,7 +4504,7 @@
       <c r="F157" s="6"/>
       <c r="G157" s="6"/>
     </row>
-    <row r="158" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="3">
         <v>198</v>
       </c>
@@ -4520,7 +4520,7 @@
       <c r="E158" s="6"/>
       <c r="F158" s="6"/>
     </row>
-    <row r="159" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="3">
         <v>199</v>
       </c>
@@ -4537,7 +4537,7 @@
       <c r="F159" s="6"/>
       <c r="G159" s="6"/>
     </row>
-    <row r="160" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="3">
         <v>200</v>
       </c>
@@ -4553,7 +4553,7 @@
       <c r="E160" s="6"/>
       <c r="F160" s="6"/>
     </row>
-    <row r="161" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="3">
         <v>201</v>
       </c>
@@ -4570,7 +4570,7 @@
       <c r="F161" s="6"/>
       <c r="G161" s="6"/>
     </row>
-    <row r="162" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="3">
         <v>202</v>
       </c>
@@ -4586,7 +4586,7 @@
       <c r="E162" s="6"/>
       <c r="F162" s="6"/>
     </row>
-    <row r="163" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="3">
         <v>203</v>
       </c>
@@ -4603,7 +4603,7 @@
       <c r="F163" s="6"/>
       <c r="G163" s="6"/>
     </row>
-    <row r="164" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="3">
         <v>204</v>
       </c>
@@ -4619,7 +4619,7 @@
       <c r="E164" s="6"/>
       <c r="F164" s="6"/>
     </row>
-    <row r="165" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="3">
         <v>205</v>
       </c>
@@ -4636,7 +4636,7 @@
       <c r="F165" s="6"/>
       <c r="G165" s="6"/>
     </row>
-    <row r="166" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="3">
         <v>206</v>
       </c>
@@ -4652,7 +4652,7 @@
       <c r="E166" s="6"/>
       <c r="F166" s="6"/>
     </row>
-    <row r="167" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="3">
         <v>207</v>
       </c>
@@ -4669,7 +4669,7 @@
       <c r="F167" s="6"/>
       <c r="G167" s="6"/>
     </row>
-    <row r="168" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="3">
         <v>208</v>
       </c>
@@ -4685,7 +4685,7 @@
       <c r="E168" s="6"/>
       <c r="F168" s="6"/>
     </row>
-    <row r="169" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="3">
         <v>209</v>
       </c>
@@ -4702,7 +4702,7 @@
       <c r="F169" s="6"/>
       <c r="G169" s="6"/>
     </row>
-    <row r="170" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="3">
         <v>210</v>
       </c>
@@ -4718,7 +4718,7 @@
       <c r="E170" s="6"/>
       <c r="F170" s="6"/>
     </row>
-    <row r="171" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="3">
         <v>211</v>
       </c>
@@ -4735,7 +4735,7 @@
       <c r="F171" s="6"/>
       <c r="G171" s="6"/>
     </row>
-    <row r="172" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="3">
         <v>212</v>
       </c>
@@ -4751,7 +4751,7 @@
       <c r="E172" s="6"/>
       <c r="F172" s="6"/>
     </row>
-    <row r="173" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="3">
         <v>213</v>
       </c>
@@ -4768,7 +4768,7 @@
       <c r="F173" s="6"/>
       <c r="G173" s="6"/>
     </row>
-    <row r="174" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="3">
         <v>214</v>
       </c>
@@ -4784,7 +4784,7 @@
       <c r="E174" s="6"/>
       <c r="F174" s="6"/>
     </row>
-    <row r="175" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="3">
         <v>215</v>
       </c>
@@ -4801,7 +4801,7 @@
       <c r="F175" s="6"/>
       <c r="G175" s="6"/>
     </row>
-    <row r="176" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="3">
         <v>216</v>
       </c>
@@ -4817,7 +4817,7 @@
       <c r="E176" s="6"/>
       <c r="F176" s="6"/>
     </row>
-    <row r="177" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="3">
         <v>217</v>
       </c>
@@ -4834,7 +4834,7 @@
       <c r="F177" s="6"/>
       <c r="G177" s="6"/>
     </row>
-    <row r="178" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="3">
         <v>218</v>
       </c>
@@ -4850,7 +4850,7 @@
       <c r="E178" s="6"/>
       <c r="F178" s="6"/>
     </row>
-    <row r="179" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="3">
         <v>219</v>
       </c>
@@ -4867,7 +4867,7 @@
       <c r="F179" s="6"/>
       <c r="G179" s="6"/>
     </row>
-    <row r="180" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="3">
         <v>220</v>
       </c>
@@ -4883,7 +4883,7 @@
       <c r="E180" s="6"/>
       <c r="F180" s="6"/>
     </row>
-    <row r="181" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="3">
         <v>221</v>
       </c>
@@ -4900,7 +4900,7 @@
       <c r="F181" s="6"/>
       <c r="G181" s="6"/>
     </row>
-    <row r="182" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="3">
         <v>222</v>
       </c>
@@ -4916,7 +4916,7 @@
       <c r="E182" s="6"/>
       <c r="F182" s="6"/>
     </row>
-    <row r="183" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="3">
         <v>223</v>
       </c>
@@ -4933,7 +4933,7 @@
       <c r="F183" s="6"/>
       <c r="G183" s="6"/>
     </row>
-    <row r="184" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="3">
         <v>224</v>
       </c>
@@ -4949,7 +4949,7 @@
       <c r="E184" s="6"/>
       <c r="F184" s="6"/>
     </row>
-    <row r="185" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="3">
         <v>225</v>
       </c>
@@ -4966,7 +4966,7 @@
       <c r="F185" s="6"/>
       <c r="G185" s="6"/>
     </row>
-    <row r="186" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="3">
         <v>226</v>
       </c>
@@ -4982,7 +4982,7 @@
       <c r="E186" s="6"/>
       <c r="F186" s="6"/>
     </row>
-    <row r="187" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="3">
         <v>227</v>
       </c>
@@ -4999,7 +4999,7 @@
       <c r="F187" s="6"/>
       <c r="G187" s="6"/>
     </row>
-    <row r="188" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="3">
         <v>228</v>
       </c>
@@ -5015,7 +5015,7 @@
       <c r="E188" s="6"/>
       <c r="F188" s="6"/>
     </row>
-    <row r="189" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="3">
         <v>229</v>
       </c>
@@ -5032,7 +5032,7 @@
       <c r="F189" s="6"/>
       <c r="G189" s="6"/>
     </row>
-    <row r="190" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="3">
         <v>230</v>
       </c>
@@ -5048,7 +5048,7 @@
       <c r="E190" s="6"/>
       <c r="F190" s="6"/>
     </row>
-    <row r="191" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="3">
         <v>231</v>
       </c>
@@ -5065,7 +5065,7 @@
       <c r="F191" s="6"/>
       <c r="G191" s="6"/>
     </row>
-    <row r="192" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="3">
         <v>232</v>
       </c>
@@ -5081,7 +5081,7 @@
       <c r="E192" s="6"/>
       <c r="F192" s="6"/>
     </row>
-    <row r="193" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="3">
         <v>233</v>
       </c>
@@ -5098,7 +5098,7 @@
       <c r="F193" s="9"/>
       <c r="G193" s="9"/>
     </row>
-    <row r="194" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="3">
         <v>234</v>
       </c>
@@ -5115,7 +5115,7 @@
       <c r="F194" s="9"/>
       <c r="G194" s="8"/>
     </row>
-    <row r="195" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="3">
         <v>235</v>
       </c>
@@ -5132,7 +5132,7 @@
       <c r="F195" s="9"/>
       <c r="G195" s="9"/>
     </row>
-    <row r="196" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="3">
         <v>236</v>
       </c>
@@ -5149,7 +5149,7 @@
       <c r="F196" s="9"/>
       <c r="G196" s="8"/>
     </row>
-    <row r="197" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="3">
         <v>237</v>
       </c>
@@ -5166,7 +5166,7 @@
       <c r="F197" s="9"/>
       <c r="G197" s="9"/>
     </row>
-    <row r="198" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="3">
         <v>238</v>
       </c>
@@ -5183,7 +5183,7 @@
       <c r="F198" s="9"/>
       <c r="G198" s="8"/>
     </row>
-    <row r="199" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="3">
         <v>239</v>
       </c>
@@ -5200,7 +5200,7 @@
       <c r="F199" s="9"/>
       <c r="G199" s="9"/>
     </row>
-    <row r="200" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="3">
         <v>240</v>
       </c>
@@ -5217,7 +5217,7 @@
       <c r="F200" s="9"/>
       <c r="G200" s="8"/>
     </row>
-    <row r="201" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="3">
         <v>241</v>
       </c>
@@ -5234,7 +5234,7 @@
       <c r="F201" s="9"/>
       <c r="G201" s="9"/>
     </row>
-    <row r="202" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="3">
         <v>242</v>
       </c>
@@ -5251,7 +5251,7 @@
       <c r="F202" s="9"/>
       <c r="G202" s="8"/>
     </row>
-    <row r="203" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="3">
         <v>243</v>
       </c>
@@ -5268,7 +5268,7 @@
       <c r="F203" s="9"/>
       <c r="G203" s="9"/>
     </row>
-    <row r="204" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="3">
         <v>244</v>
       </c>
@@ -5285,7 +5285,7 @@
       <c r="F204" s="9"/>
       <c r="G204" s="8"/>
     </row>
-    <row r="205" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="3">
         <v>245</v>
       </c>
@@ -5302,7 +5302,7 @@
       <c r="F205" s="9"/>
       <c r="G205" s="9"/>
     </row>
-    <row r="206" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="3">
         <v>246</v>
       </c>
@@ -5319,7 +5319,7 @@
       <c r="F206" s="9"/>
       <c r="G206" s="8"/>
     </row>
-    <row r="207" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="3">
         <v>247</v>
       </c>
@@ -5336,7 +5336,7 @@
       <c r="F207" s="9"/>
       <c r="G207" s="9"/>
     </row>
-    <row r="208" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="3">
         <v>248</v>
       </c>
@@ -5353,7 +5353,7 @@
       <c r="F208" s="9"/>
       <c r="G208" s="8"/>
     </row>
-    <row r="209" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="3">
         <v>249</v>
       </c>
@@ -5370,7 +5370,7 @@
       <c r="F209" s="9"/>
       <c r="G209" s="9"/>
     </row>
-    <row r="210" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="3">
         <v>250</v>
       </c>
@@ -5387,7 +5387,7 @@
       <c r="F210" s="9"/>
       <c r="G210" s="8"/>
     </row>
-    <row r="211" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="3">
         <v>251</v>
       </c>
@@ -5404,7 +5404,7 @@
       <c r="F211" s="6"/>
       <c r="G211" s="6"/>
     </row>
-    <row r="212" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="3">
         <v>252</v>
       </c>
@@ -5420,7 +5420,7 @@
       <c r="E212" s="6"/>
       <c r="F212" s="6"/>
     </row>
-    <row r="213" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="3">
         <v>253</v>
       </c>
@@ -5437,7 +5437,7 @@
       <c r="F213" s="6"/>
       <c r="G213" s="6"/>
     </row>
-    <row r="214" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="3">
         <v>254</v>
       </c>
@@ -5453,7 +5453,7 @@
       <c r="E214" s="6"/>
       <c r="F214" s="6"/>
     </row>
-    <row r="215" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="3">
         <v>255</v>
       </c>
@@ -5470,7 +5470,7 @@
       <c r="F215" s="6"/>
       <c r="G215" s="6"/>
     </row>
-    <row r="216" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="3">
         <v>256</v>
       </c>
@@ -5486,7 +5486,7 @@
       <c r="E216" s="6"/>
       <c r="F216" s="6"/>
     </row>
-    <row r="217" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="3">
         <v>257</v>
       </c>
@@ -5503,7 +5503,7 @@
       <c r="F217" s="6"/>
       <c r="G217" s="6"/>
     </row>
-    <row r="218" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="3">
         <v>258</v>
       </c>
@@ -5519,7 +5519,7 @@
       <c r="E218" s="6"/>
       <c r="F218" s="6"/>
     </row>
-    <row r="219" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="3">
         <v>259</v>
       </c>
@@ -5536,7 +5536,7 @@
       <c r="F219" s="6"/>
       <c r="G219" s="6"/>
     </row>
-    <row r="220" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="3">
         <v>260</v>
       </c>
@@ -5552,7 +5552,7 @@
       <c r="E220" s="6"/>
       <c r="F220" s="6"/>
     </row>
-    <row r="221" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="3">
         <v>261</v>
       </c>
@@ -5569,7 +5569,7 @@
       <c r="F221" s="6"/>
       <c r="G221" s="6"/>
     </row>
-    <row r="222" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="3">
         <v>262</v>
       </c>
@@ -5585,7 +5585,7 @@
       <c r="E222" s="6"/>
       <c r="F222" s="6"/>
     </row>
-    <row r="223" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="3">
         <v>263</v>
       </c>
@@ -5602,7 +5602,7 @@
       <c r="F223" s="6"/>
       <c r="G223" s="6"/>
     </row>
-    <row r="224" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="3">
         <v>264</v>
       </c>
@@ -5618,7 +5618,7 @@
       <c r="E224" s="6"/>
       <c r="F224" s="6"/>
     </row>
-    <row r="225" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="3">
         <v>265</v>
       </c>
@@ -5635,7 +5635,7 @@
       <c r="F225" s="6"/>
       <c r="G225" s="6"/>
     </row>
-    <row r="226" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="3">
         <v>266</v>
       </c>
@@ -5651,7 +5651,7 @@
       <c r="E226" s="6"/>
       <c r="F226" s="6"/>
     </row>
-    <row r="227" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="3">
         <v>267</v>
       </c>
@@ -5668,7 +5668,7 @@
       <c r="F227" s="6"/>
       <c r="G227" s="6"/>
     </row>
-    <row r="228" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="3">
         <v>268</v>
       </c>
@@ -5684,7 +5684,7 @@
       <c r="E228" s="6"/>
       <c r="F228" s="6"/>
     </row>
-    <row r="229" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="3">
         <v>269</v>
       </c>
@@ -5701,7 +5701,7 @@
       <c r="F229" s="6"/>
       <c r="G229" s="6"/>
     </row>
-    <row r="230" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="3">
         <v>270</v>
       </c>
@@ -5717,7 +5717,7 @@
       <c r="E230" s="6"/>
       <c r="F230" s="6"/>
     </row>
-    <row r="231" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="3">
         <v>271</v>
       </c>
@@ -5734,7 +5734,7 @@
       <c r="F231" s="6"/>
       <c r="G231" s="6"/>
     </row>
-    <row r="232" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="3">
         <v>272</v>
       </c>
@@ -5750,7 +5750,7 @@
       <c r="E232" s="6"/>
       <c r="F232" s="6"/>
     </row>
-    <row r="233" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="3">
         <v>273</v>
       </c>
@@ -5767,7 +5767,7 @@
       <c r="F233" s="6"/>
       <c r="G233" s="6"/>
     </row>
-    <row r="234" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="3">
         <v>274</v>
       </c>
@@ -5783,7 +5783,7 @@
       <c r="E234" s="6"/>
       <c r="F234" s="6"/>
     </row>
-    <row r="235" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="3">
         <v>275</v>
       </c>
@@ -5800,7 +5800,7 @@
       <c r="F235" s="6"/>
       <c r="G235" s="6"/>
     </row>
-    <row r="236" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="3">
         <v>276</v>
       </c>
@@ -5816,7 +5816,7 @@
       <c r="E236" s="6"/>
       <c r="F236" s="6"/>
     </row>
-    <row r="237" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="3">
         <v>277</v>
       </c>
@@ -5833,7 +5833,7 @@
       <c r="F237" s="6"/>
       <c r="G237" s="6"/>
     </row>
-    <row r="238" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="3">
         <v>278</v>
       </c>
@@ -5849,7 +5849,7 @@
       <c r="E238" s="6"/>
       <c r="F238" s="6"/>
     </row>
-    <row r="239" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="3">
         <v>279</v>
       </c>
@@ -5866,7 +5866,7 @@
       <c r="F239" s="6"/>
       <c r="G239" s="6"/>
     </row>
-    <row r="240" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="3">
         <v>280</v>
       </c>
@@ -5882,7 +5882,7 @@
       <c r="E240" s="6"/>
       <c r="F240" s="6"/>
     </row>
-    <row r="241" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="3">
         <v>281</v>
       </c>
@@ -5899,7 +5899,7 @@
       <c r="F241" s="6"/>
       <c r="G241" s="6"/>
     </row>
-    <row r="242" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="3">
         <v>282</v>
       </c>
@@ -5915,7 +5915,7 @@
       <c r="E242" s="6"/>
       <c r="F242" s="6"/>
     </row>
-    <row r="243" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="3">
         <v>283</v>
       </c>
@@ -5932,7 +5932,7 @@
       <c r="F243" s="6"/>
       <c r="G243" s="6"/>
     </row>
-    <row r="244" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="3">
         <v>284</v>
       </c>
@@ -5948,7 +5948,7 @@
       <c r="E244" s="6"/>
       <c r="F244" s="6"/>
     </row>
-    <row r="245" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="3">
         <v>285</v>
       </c>
@@ -5965,7 +5965,7 @@
       <c r="F245" s="6"/>
       <c r="G245" s="6"/>
     </row>
-    <row r="246" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="3">
         <v>286</v>
       </c>
@@ -5981,7 +5981,7 @@
       <c r="E246" s="6"/>
       <c r="F246" s="6"/>
     </row>
-    <row r="247" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="3">
         <v>287</v>
       </c>
@@ -5998,7 +5998,7 @@
       <c r="F247" s="6"/>
       <c r="G247" s="6"/>
     </row>
-    <row r="248" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="3">
         <v>288</v>
       </c>
@@ -6014,7 +6014,7 @@
       <c r="E248" s="6"/>
       <c r="F248" s="6"/>
     </row>
-    <row r="249" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="3">
         <v>289</v>
       </c>
@@ -6031,7 +6031,7 @@
       <c r="F249" s="6"/>
       <c r="G249" s="6"/>
     </row>
-    <row r="250" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="3">
         <v>290</v>
       </c>
@@ -6047,7 +6047,7 @@
       <c r="E250" s="6"/>
       <c r="F250" s="6"/>
     </row>
-    <row r="251" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="3">
         <v>291</v>
       </c>
@@ -6064,7 +6064,7 @@
       <c r="F251" s="6"/>
       <c r="G251" s="6"/>
     </row>
-    <row r="252" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="3">
         <v>292</v>
       </c>
@@ -6080,7 +6080,7 @@
       <c r="E252" s="6"/>
       <c r="F252" s="6"/>
     </row>
-    <row r="253" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="3">
         <v>293</v>
       </c>
@@ -6097,7 +6097,7 @@
       <c r="F253" s="6"/>
       <c r="G253" s="6"/>
     </row>
-    <row r="254" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="3">
         <v>294</v>
       </c>
@@ -6113,7 +6113,7 @@
       <c r="E254" s="6"/>
       <c r="F254" s="6"/>
     </row>
-    <row r="255" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="3">
         <v>295</v>
       </c>
@@ -6130,7 +6130,7 @@
       <c r="F255" s="6"/>
       <c r="G255" s="6"/>
     </row>
-    <row r="256" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="3">
         <v>296</v>
       </c>
@@ -6146,7 +6146,7 @@
       <c r="E256" s="6"/>
       <c r="F256" s="6"/>
     </row>
-    <row r="257" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="3">
         <v>297</v>
       </c>
@@ -6163,7 +6163,7 @@
       <c r="F257" s="6"/>
       <c r="G257" s="6"/>
     </row>
-    <row r="258" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="3">
         <v>298</v>
       </c>
@@ -6179,7 +6179,7 @@
       <c r="E258" s="6"/>
       <c r="F258" s="6"/>
     </row>
-    <row r="259" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="3">
         <v>299</v>
       </c>
@@ -6196,7 +6196,7 @@
       <c r="F259" s="6"/>
       <c r="G259" s="6"/>
     </row>
-    <row r="260" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="3">
         <v>300</v>
       </c>
@@ -6212,7 +6212,7 @@
       <c r="E260" s="6"/>
       <c r="F260" s="6"/>
     </row>
-    <row r="261" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="3">
         <v>301</v>
       </c>
@@ -6229,7 +6229,7 @@
       <c r="F261" s="6"/>
       <c r="G261" s="6"/>
     </row>
-    <row r="262" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="3">
         <v>302</v>
       </c>
@@ -6245,7 +6245,7 @@
       <c r="E262" s="6"/>
       <c r="F262" s="6"/>
     </row>
-    <row r="263" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="3">
         <v>303</v>
       </c>
@@ -6262,7 +6262,7 @@
       <c r="F263" s="6"/>
       <c r="G263" s="6"/>
     </row>
-    <row r="264" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="3">
         <v>304</v>
       </c>
@@ -6278,7 +6278,7 @@
       <c r="E264" s="6"/>
       <c r="F264" s="6"/>
     </row>
-    <row r="265" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="3">
         <v>305</v>
       </c>
@@ -6295,7 +6295,7 @@
       <c r="F265" s="6"/>
       <c r="G265" s="6"/>
     </row>
-    <row r="266" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="3">
         <v>306</v>
       </c>
@@ -6311,7 +6311,7 @@
       <c r="E266" s="6"/>
       <c r="F266" s="6"/>
     </row>
-    <row r="267" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="3">
         <v>307</v>
       </c>
@@ -6328,7 +6328,7 @@
       <c r="F267" s="6"/>
       <c r="G267" s="6"/>
     </row>
-    <row r="268" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="3">
         <v>308</v>
       </c>
@@ -6344,7 +6344,7 @@
       <c r="E268" s="6"/>
       <c r="F268" s="6"/>
     </row>
-    <row r="269" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="3">
         <v>309</v>
       </c>
@@ -6361,7 +6361,7 @@
       <c r="F269" s="6"/>
       <c r="G269" s="6"/>
     </row>
-    <row r="270" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="3">
         <v>310</v>
       </c>
@@ -6377,7 +6377,7 @@
       <c r="E270" s="6"/>
       <c r="F270" s="6"/>
     </row>
-    <row r="271" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="3">
         <v>311</v>
       </c>
@@ -6394,7 +6394,7 @@
       <c r="F271" s="6"/>
       <c r="G271" s="6"/>
     </row>
-    <row r="272" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="3">
         <v>312</v>
       </c>
@@ -6410,7 +6410,7 @@
       <c r="E272" s="6"/>
       <c r="F272" s="6"/>
     </row>
-    <row r="273" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="3">
         <v>313</v>
       </c>
@@ -6427,19 +6427,15 @@
       <c r="F273" s="6"/>
       <c r="G273" s="6"/>
     </row>
-    <row r="274" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A274" s="3">
-        <v>314</v>
-      </c>
+    <row r="274" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A274" s="3"/>
       <c r="B274" s="4"/>
       <c r="C274" s="5"/>
       <c r="E274" s="6"/>
       <c r="F274" s="6"/>
     </row>
-    <row r="275" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A275" s="3">
-        <v>315</v>
-      </c>
+    <row r="275" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A275" s="3"/>
       <c r="B275" s="4"/>
       <c r="C275" s="5"/>
       <c r="D275" s="6"/>
@@ -6447,19 +6443,15 @@
       <c r="F275" s="6"/>
       <c r="G275" s="6"/>
     </row>
-    <row r="276" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A276" s="3">
-        <v>316</v>
-      </c>
+    <row r="276" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A276" s="3"/>
       <c r="B276" s="4"/>
       <c r="C276" s="5"/>
       <c r="E276" s="6"/>
       <c r="F276" s="6"/>
     </row>
-    <row r="277" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A277" s="3">
-        <v>317</v>
-      </c>
+    <row r="277" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A277" s="3"/>
       <c r="B277" s="4"/>
       <c r="C277" s="5"/>
       <c r="D277" s="6"/>
@@ -6467,19 +6459,15 @@
       <c r="F277" s="6"/>
       <c r="G277" s="6"/>
     </row>
-    <row r="278" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A278" s="3">
-        <v>318</v>
-      </c>
+    <row r="278" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A278" s="3"/>
       <c r="B278" s="4"/>
       <c r="C278" s="5"/>
       <c r="E278" s="6"/>
       <c r="F278" s="6"/>
     </row>
-    <row r="279" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A279" s="3">
-        <v>319</v>
-      </c>
+    <row r="279" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A279" s="3"/>
       <c r="B279" s="4"/>
       <c r="C279" s="5"/>
       <c r="D279" s="6"/>
@@ -6487,19 +6475,15 @@
       <c r="F279" s="6"/>
       <c r="G279" s="6"/>
     </row>
-    <row r="280" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A280" s="3">
-        <v>320</v>
-      </c>
+    <row r="280" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A280" s="3"/>
       <c r="B280" s="4"/>
       <c r="C280" s="5"/>
       <c r="E280" s="6"/>
       <c r="F280" s="6"/>
     </row>
-    <row r="281" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A281" s="3">
-        <v>321</v>
-      </c>
+    <row r="281" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A281" s="3"/>
       <c r="B281" s="4"/>
       <c r="C281" s="5"/>
       <c r="D281" s="6"/>
@@ -6507,19 +6491,15 @@
       <c r="F281" s="6"/>
       <c r="G281" s="6"/>
     </row>
-    <row r="282" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A282" s="3">
-        <v>322</v>
-      </c>
+    <row r="282" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A282" s="3"/>
       <c r="B282" s="4"/>
       <c r="C282" s="5"/>
       <c r="E282" s="6"/>
       <c r="F282" s="6"/>
     </row>
-    <row r="283" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A283" s="3">
-        <v>323</v>
-      </c>
+    <row r="283" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A283" s="3"/>
       <c r="B283" s="4"/>
       <c r="C283" s="5"/>
       <c r="D283" s="6"/>
@@ -6527,19 +6507,15 @@
       <c r="F283" s="6"/>
       <c r="G283" s="6"/>
     </row>
-    <row r="284" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A284" s="3">
-        <v>324</v>
-      </c>
+    <row r="284" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A284" s="3"/>
       <c r="B284" s="4"/>
       <c r="C284" s="5"/>
       <c r="E284" s="6"/>
       <c r="F284" s="6"/>
     </row>
-    <row r="285" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A285" s="3">
-        <v>325</v>
-      </c>
+    <row r="285" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A285" s="3"/>
       <c r="B285" s="4"/>
       <c r="C285" s="5"/>
       <c r="D285" s="6"/>
@@ -6547,19 +6523,15 @@
       <c r="F285" s="6"/>
       <c r="G285" s="6"/>
     </row>
-    <row r="286" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A286" s="3">
-        <v>326</v>
-      </c>
+    <row r="286" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A286" s="3"/>
       <c r="B286" s="4"/>
       <c r="C286" s="5"/>
       <c r="E286" s="6"/>
       <c r="F286" s="6"/>
     </row>
-    <row r="287" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A287" s="3">
-        <v>327</v>
-      </c>
+    <row r="287" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A287" s="3"/>
       <c r="B287" s="4"/>
       <c r="C287" s="5"/>
       <c r="D287" s="6"/>
@@ -6567,19 +6539,15 @@
       <c r="F287" s="6"/>
       <c r="G287" s="6"/>
     </row>
-    <row r="288" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A288" s="3">
-        <v>328</v>
-      </c>
+    <row r="288" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A288" s="3"/>
       <c r="B288" s="4"/>
       <c r="C288" s="5"/>
       <c r="E288" s="6"/>
       <c r="F288" s="6"/>
     </row>
-    <row r="289" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A289" s="3">
-        <v>329</v>
-      </c>
+    <row r="289" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A289" s="3"/>
       <c r="B289" s="4"/>
       <c r="C289" s="5"/>
       <c r="D289" s="6"/>
@@ -6587,19 +6555,15 @@
       <c r="F289" s="6"/>
       <c r="G289" s="6"/>
     </row>
-    <row r="290" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A290" s="3">
-        <v>330</v>
-      </c>
+    <row r="290" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A290" s="3"/>
       <c r="B290" s="4"/>
       <c r="C290" s="5"/>
       <c r="E290" s="6"/>
       <c r="F290" s="6"/>
     </row>
-    <row r="291" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A291" s="3">
-        <v>331</v>
-      </c>
+    <row r="291" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A291" s="3"/>
       <c r="B291" s="4"/>
       <c r="C291" s="5"/>
       <c r="D291" s="6"/>
@@ -6607,19 +6571,15 @@
       <c r="F291" s="6"/>
       <c r="G291" s="6"/>
     </row>
-    <row r="292" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A292" s="3">
-        <v>332</v>
-      </c>
+    <row r="292" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A292" s="3"/>
       <c r="B292" s="4"/>
       <c r="C292" s="5"/>
       <c r="E292" s="6"/>
       <c r="F292" s="6"/>
     </row>
-    <row r="293" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A293" s="3">
-        <v>333</v>
-      </c>
+    <row r="293" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A293" s="3"/>
       <c r="B293" s="4"/>
       <c r="C293" s="5"/>
       <c r="D293" s="6"/>
@@ -6627,19 +6587,15 @@
       <c r="F293" s="6"/>
       <c r="G293" s="6"/>
     </row>
-    <row r="294" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A294" s="3">
-        <v>334</v>
-      </c>
+    <row r="294" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A294" s="3"/>
       <c r="B294" s="4"/>
       <c r="C294" s="5"/>
       <c r="E294" s="6"/>
       <c r="F294" s="6"/>
     </row>
-    <row r="295" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A295" s="3">
-        <v>335</v>
-      </c>
+    <row r="295" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A295" s="3"/>
       <c r="B295" s="4"/>
       <c r="C295" s="5"/>
       <c r="D295" s="6"/>
@@ -6647,19 +6603,15 @@
       <c r="F295" s="6"/>
       <c r="G295" s="6"/>
     </row>
-    <row r="296" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A296" s="3">
-        <v>336</v>
-      </c>
+    <row r="296" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A296" s="3"/>
       <c r="B296" s="4"/>
       <c r="C296" s="5"/>
       <c r="E296" s="6"/>
       <c r="F296" s="6"/>
     </row>
-    <row r="297" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A297" s="3">
-        <v>337</v>
-      </c>
+    <row r="297" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A297" s="3"/>
       <c r="B297" s="4"/>
       <c r="C297" s="5"/>
       <c r="D297" s="6"/>
@@ -6667,19 +6619,15 @@
       <c r="F297" s="6"/>
       <c r="G297" s="6"/>
     </row>
-    <row r="298" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A298" s="3">
-        <v>338</v>
-      </c>
+    <row r="298" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A298" s="3"/>
       <c r="B298" s="4"/>
       <c r="C298" s="5"/>
       <c r="E298" s="6"/>
       <c r="F298" s="6"/>
     </row>
-    <row r="299" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A299" s="3">
-        <v>339</v>
-      </c>
+    <row r="299" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A299" s="3"/>
       <c r="B299" s="4"/>
       <c r="C299" s="5"/>
       <c r="D299" s="6"/>
@@ -6687,19 +6635,15 @@
       <c r="F299" s="6"/>
       <c r="G299" s="6"/>
     </row>
-    <row r="300" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A300" s="3">
-        <v>340</v>
-      </c>
+    <row r="300" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A300" s="3"/>
       <c r="B300" s="4"/>
       <c r="C300" s="5"/>
       <c r="E300" s="6"/>
       <c r="F300" s="6"/>
     </row>
-    <row r="301" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A301" s="3">
-        <v>341</v>
-      </c>
+    <row r="301" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A301" s="3"/>
       <c r="B301" s="4"/>
       <c r="C301" s="5"/>
       <c r="D301" s="6"/>
@@ -6707,19 +6651,15 @@
       <c r="F301" s="6"/>
       <c r="G301" s="6"/>
     </row>
-    <row r="302" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A302" s="3">
-        <v>342</v>
-      </c>
+    <row r="302" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A302" s="3"/>
       <c r="B302" s="4"/>
       <c r="C302" s="5"/>
       <c r="E302" s="6"/>
       <c r="F302" s="6"/>
     </row>
-    <row r="303" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A303" s="3">
-        <v>343</v>
-      </c>
+    <row r="303" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A303" s="3"/>
       <c r="B303" s="4"/>
       <c r="C303" s="5"/>
       <c r="D303" s="6"/>
@@ -6727,19 +6667,15 @@
       <c r="F303" s="6"/>
       <c r="G303" s="6"/>
     </row>
-    <row r="304" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A304" s="3">
-        <v>344</v>
-      </c>
+    <row r="304" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A304" s="3"/>
       <c r="B304" s="4"/>
       <c r="C304" s="5"/>
       <c r="E304" s="6"/>
       <c r="F304" s="6"/>
     </row>
-    <row r="305" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A305" s="3">
-        <v>345</v>
-      </c>
+    <row r="305" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A305" s="3"/>
       <c r="B305" s="4"/>
       <c r="C305" s="5"/>
       <c r="D305" s="6"/>
@@ -6747,19 +6683,15 @@
       <c r="F305" s="6"/>
       <c r="G305" s="6"/>
     </row>
-    <row r="306" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A306" s="3">
-        <v>346</v>
-      </c>
+    <row r="306" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A306" s="3"/>
       <c r="B306" s="4"/>
       <c r="C306" s="5"/>
       <c r="E306" s="6"/>
       <c r="F306" s="6"/>
     </row>
-    <row r="307" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A307" s="3">
-        <v>347</v>
-      </c>
+    <row r="307" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A307" s="3"/>
       <c r="B307" s="4"/>
       <c r="C307" s="5"/>
       <c r="D307" s="6"/>
@@ -6767,19 +6699,15 @@
       <c r="F307" s="6"/>
       <c r="G307" s="6"/>
     </row>
-    <row r="308" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A308" s="3">
-        <v>348</v>
-      </c>
+    <row r="308" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A308" s="3"/>
       <c r="B308" s="4"/>
       <c r="C308" s="5"/>
       <c r="E308" s="6"/>
       <c r="F308" s="6"/>
     </row>
-    <row r="309" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A309" s="3">
-        <v>349</v>
-      </c>
+    <row r="309" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A309" s="3"/>
       <c r="B309" s="4"/>
       <c r="C309" s="5"/>
       <c r="D309" s="6"/>
@@ -6787,19 +6715,15 @@
       <c r="F309" s="6"/>
       <c r="G309" s="6"/>
     </row>
-    <row r="310" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A310" s="3">
-        <v>350</v>
-      </c>
+    <row r="310" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A310" s="3"/>
       <c r="B310" s="4"/>
       <c r="C310" s="5"/>
       <c r="E310" s="6"/>
       <c r="F310" s="6"/>
     </row>
-    <row r="311" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A311" s="3">
-        <v>351</v>
-      </c>
+    <row r="311" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A311" s="3"/>
       <c r="B311" s="4"/>
       <c r="C311" s="5"/>
       <c r="D311" s="6"/>
@@ -6807,19 +6731,15 @@
       <c r="F311" s="6"/>
       <c r="G311" s="6"/>
     </row>
-    <row r="312" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A312" s="3">
-        <v>352</v>
-      </c>
+    <row r="312" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A312" s="3"/>
       <c r="B312" s="4"/>
       <c r="C312" s="5"/>
       <c r="E312" s="6"/>
       <c r="F312" s="6"/>
     </row>
-    <row r="313" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A313" s="3">
-        <v>353</v>
-      </c>
+    <row r="313" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A313" s="3"/>
       <c r="B313" s="4"/>
       <c r="C313" s="5"/>
       <c r="D313" s="6"/>
@@ -6827,19 +6747,15 @@
       <c r="F313" s="6"/>
       <c r="G313" s="6"/>
     </row>
-    <row r="314" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A314" s="3">
-        <v>354</v>
-      </c>
+    <row r="314" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A314" s="3"/>
       <c r="B314" s="4"/>
       <c r="C314" s="5"/>
       <c r="E314" s="6"/>
       <c r="F314" s="6"/>
     </row>
-    <row r="315" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A315" s="3">
-        <v>355</v>
-      </c>
+    <row r="315" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A315" s="3"/>
       <c r="B315" s="4"/>
       <c r="C315" s="5"/>
       <c r="D315" s="6"/>
@@ -6847,19 +6763,15 @@
       <c r="F315" s="6"/>
       <c r="G315" s="6"/>
     </row>
-    <row r="316" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A316" s="3">
-        <v>356</v>
-      </c>
+    <row r="316" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A316" s="3"/>
       <c r="B316" s="4"/>
       <c r="C316" s="5"/>
       <c r="E316" s="6"/>
       <c r="F316" s="6"/>
     </row>
-    <row r="317" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A317" s="3">
-        <v>357</v>
-      </c>
+    <row r="317" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A317" s="3"/>
       <c r="B317" s="4"/>
       <c r="C317" s="5"/>
       <c r="D317" s="6"/>
@@ -6867,19 +6779,15 @@
       <c r="F317" s="6"/>
       <c r="G317" s="6"/>
     </row>
-    <row r="318" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A318" s="3">
-        <v>358</v>
-      </c>
+    <row r="318" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A318" s="3"/>
       <c r="B318" s="4"/>
       <c r="C318" s="5"/>
       <c r="E318" s="6"/>
       <c r="F318" s="6"/>
     </row>
-    <row r="319" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A319" s="3">
-        <v>359</v>
-      </c>
+    <row r="319" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A319" s="3"/>
       <c r="B319" s="4"/>
       <c r="C319" s="5"/>
       <c r="D319" s="6"/>
@@ -6887,19 +6795,15 @@
       <c r="F319" s="6"/>
       <c r="G319" s="6"/>
     </row>
-    <row r="320" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A320" s="3">
-        <v>360</v>
-      </c>
+    <row r="320" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A320" s="3"/>
       <c r="B320" s="4"/>
       <c r="C320" s="5"/>
       <c r="E320" s="6"/>
       <c r="F320" s="6"/>
     </row>
-    <row r="321" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A321" s="3">
-        <v>361</v>
-      </c>
+    <row r="321" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A321" s="3"/>
       <c r="B321" s="4"/>
       <c r="C321" s="5"/>
       <c r="D321" s="6"/>
@@ -6907,19 +6811,15 @@
       <c r="F321" s="6"/>
       <c r="G321" s="6"/>
     </row>
-    <row r="322" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A322" s="3">
-        <v>362</v>
-      </c>
+    <row r="322" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A322" s="3"/>
       <c r="B322" s="4"/>
       <c r="C322" s="5"/>
       <c r="E322" s="6"/>
       <c r="F322" s="6"/>
     </row>
-    <row r="323" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A323" s="3">
-        <v>363</v>
-      </c>
+    <row r="323" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A323" s="3"/>
       <c r="B323" s="4"/>
       <c r="C323" s="5"/>
       <c r="D323" s="6"/>
@@ -6927,19 +6827,15 @@
       <c r="F323" s="6"/>
       <c r="G323" s="6"/>
     </row>
-    <row r="324" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A324" s="3">
-        <v>364</v>
-      </c>
+    <row r="324" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A324" s="3"/>
       <c r="B324" s="4"/>
       <c r="C324" s="5"/>
       <c r="E324" s="6"/>
       <c r="F324" s="6"/>
     </row>
-    <row r="325" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A325" s="3">
-        <v>365</v>
-      </c>
+    <row r="325" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A325" s="3"/>
       <c r="B325" s="4"/>
       <c r="C325" s="5"/>
       <c r="D325" s="6"/>
@@ -6947,19 +6843,15 @@
       <c r="F325" s="6"/>
       <c r="G325" s="6"/>
     </row>
-    <row r="326" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A326" s="3">
-        <v>366</v>
-      </c>
+    <row r="326" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A326" s="3"/>
       <c r="B326" s="4"/>
       <c r="C326" s="5"/>
       <c r="E326" s="6"/>
       <c r="F326" s="6"/>
     </row>
-    <row r="327" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A327" s="3">
-        <v>367</v>
-      </c>
+    <row r="327" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A327" s="3"/>
       <c r="B327" s="4"/>
       <c r="C327" s="5"/>
       <c r="D327" s="6"/>
@@ -6967,19 +6859,15 @@
       <c r="F327" s="6"/>
       <c r="G327" s="6"/>
     </row>
-    <row r="328" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A328" s="3">
-        <v>368</v>
-      </c>
+    <row r="328" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A328" s="3"/>
       <c r="B328" s="4"/>
       <c r="C328" s="5"/>
       <c r="E328" s="6"/>
       <c r="F328" s="6"/>
     </row>
-    <row r="329" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A329" s="3">
-        <v>369</v>
-      </c>
+    <row r="329" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A329" s="3"/>
       <c r="B329" s="4"/>
       <c r="C329" s="5"/>
       <c r="D329" s="6"/>
@@ -6987,19 +6875,15 @@
       <c r="F329" s="6"/>
       <c r="G329" s="6"/>
     </row>
-    <row r="330" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A330" s="3">
-        <v>370</v>
-      </c>
+    <row r="330" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A330" s="3"/>
       <c r="B330" s="4"/>
       <c r="C330" s="5"/>
       <c r="E330" s="6"/>
       <c r="F330" s="6"/>
     </row>
-    <row r="331" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A331" s="3">
-        <v>371</v>
-      </c>
+    <row r="331" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A331" s="3"/>
       <c r="B331" s="4"/>
       <c r="C331" s="5"/>
       <c r="D331" s="6"/>
@@ -7007,19 +6891,15 @@
       <c r="F331" s="6"/>
       <c r="G331" s="6"/>
     </row>
-    <row r="332" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A332" s="3">
-        <v>372</v>
-      </c>
+    <row r="332" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A332" s="3"/>
       <c r="B332" s="4"/>
       <c r="C332" s="5"/>
       <c r="E332" s="6"/>
       <c r="F332" s="6"/>
     </row>
-    <row r="333" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A333" s="3">
-        <v>373</v>
-      </c>
+    <row r="333" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A333" s="3"/>
       <c r="B333" s="4"/>
       <c r="C333" s="5"/>
       <c r="D333" s="6"/>
@@ -7027,19 +6907,15 @@
       <c r="F333" s="6"/>
       <c r="G333" s="6"/>
     </row>
-    <row r="334" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A334" s="3">
-        <v>374</v>
-      </c>
+    <row r="334" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A334" s="3"/>
       <c r="B334" s="4"/>
       <c r="C334" s="5"/>
       <c r="E334" s="6"/>
       <c r="F334" s="6"/>
     </row>
-    <row r="335" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A335" s="3">
-        <v>375</v>
-      </c>
+    <row r="335" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A335" s="3"/>
       <c r="B335" s="4"/>
       <c r="C335" s="5"/>
       <c r="D335" s="6"/>
@@ -7047,19 +6923,15 @@
       <c r="F335" s="6"/>
       <c r="G335" s="6"/>
     </row>
-    <row r="336" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A336" s="3">
-        <v>376</v>
-      </c>
+    <row r="336" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A336" s="3"/>
       <c r="B336" s="4"/>
       <c r="C336" s="5"/>
       <c r="E336" s="6"/>
       <c r="F336" s="6"/>
     </row>
-    <row r="337" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A337" s="3">
-        <v>377</v>
-      </c>
+    <row r="337" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A337" s="3"/>
       <c r="B337" s="4"/>
       <c r="C337" s="5"/>
       <c r="D337" s="6"/>
@@ -7067,19 +6939,15 @@
       <c r="F337" s="6"/>
       <c r="G337" s="6"/>
     </row>
-    <row r="338" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A338" s="3">
-        <v>378</v>
-      </c>
+    <row r="338" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A338" s="3"/>
       <c r="B338" s="4"/>
       <c r="C338" s="5"/>
       <c r="E338" s="6"/>
       <c r="F338" s="6"/>
     </row>
-    <row r="339" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A339" s="3">
-        <v>379</v>
-      </c>
+    <row r="339" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A339" s="3"/>
       <c r="B339" s="4"/>
       <c r="C339" s="5"/>
       <c r="D339" s="6"/>
@@ -7087,19 +6955,15 @@
       <c r="F339" s="6"/>
       <c r="G339" s="6"/>
     </row>
-    <row r="340" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A340" s="3">
-        <v>380</v>
-      </c>
+    <row r="340" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A340" s="3"/>
       <c r="B340" s="4"/>
       <c r="C340" s="5"/>
       <c r="E340" s="6"/>
       <c r="F340" s="6"/>
     </row>
-    <row r="341" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A341" s="3">
-        <v>381</v>
-      </c>
+    <row r="341" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A341" s="3"/>
       <c r="B341" s="4"/>
       <c r="C341" s="5"/>
       <c r="D341" s="6"/>
@@ -7107,19 +6971,15 @@
       <c r="F341" s="6"/>
       <c r="G341" s="6"/>
     </row>
-    <row r="342" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A342" s="3">
-        <v>382</v>
-      </c>
+    <row r="342" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A342" s="3"/>
       <c r="B342" s="4"/>
       <c r="C342" s="5"/>
       <c r="E342" s="6"/>
       <c r="F342" s="6"/>
     </row>
-    <row r="343" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A343" s="3">
-        <v>383</v>
-      </c>
+    <row r="343" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A343" s="3"/>
       <c r="B343" s="4"/>
       <c r="C343" s="5"/>
       <c r="D343" s="6"/>
@@ -7127,19 +6987,15 @@
       <c r="F343" s="6"/>
       <c r="G343" s="6"/>
     </row>
-    <row r="344" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A344" s="3">
-        <v>384</v>
-      </c>
+    <row r="344" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A344" s="3"/>
       <c r="B344" s="4"/>
       <c r="C344" s="5"/>
       <c r="E344" s="6"/>
       <c r="F344" s="6"/>
     </row>
-    <row r="345" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A345" s="3">
-        <v>385</v>
-      </c>
+    <row r="345" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A345" s="3"/>
       <c r="B345" s="4"/>
       <c r="C345" s="5"/>
       <c r="D345" s="6"/>
@@ -7147,19 +7003,15 @@
       <c r="F345" s="6"/>
       <c r="G345" s="6"/>
     </row>
-    <row r="346" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A346" s="3">
-        <v>386</v>
-      </c>
+    <row r="346" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A346" s="3"/>
       <c r="B346" s="4"/>
       <c r="C346" s="5"/>
       <c r="E346" s="6"/>
       <c r="F346" s="6"/>
     </row>
-    <row r="347" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A347" s="3">
-        <v>387</v>
-      </c>
+    <row r="347" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A347" s="3"/>
       <c r="B347" s="4"/>
       <c r="C347" s="5"/>
       <c r="D347" s="6"/>
@@ -7167,19 +7019,15 @@
       <c r="F347" s="6"/>
       <c r="G347" s="6"/>
     </row>
-    <row r="348" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A348" s="3">
-        <v>388</v>
-      </c>
+    <row r="348" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A348" s="3"/>
       <c r="B348" s="4"/>
       <c r="C348" s="5"/>
       <c r="E348" s="6"/>
       <c r="F348" s="6"/>
     </row>
-    <row r="349" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A349" s="3">
-        <v>389</v>
-      </c>
+    <row r="349" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A349" s="3"/>
       <c r="B349" s="4"/>
       <c r="C349" s="5"/>
       <c r="D349" s="6"/>
@@ -7187,19 +7035,15 @@
       <c r="F349" s="6"/>
       <c r="G349" s="6"/>
     </row>
-    <row r="350" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A350" s="3">
-        <v>390</v>
-      </c>
+    <row r="350" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A350" s="3"/>
       <c r="B350" s="4"/>
       <c r="C350" s="5"/>
       <c r="E350" s="6"/>
       <c r="F350" s="6"/>
     </row>
-    <row r="351" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A351" s="3">
-        <v>391</v>
-      </c>
+    <row r="351" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A351" s="3"/>
       <c r="B351" s="4"/>
       <c r="C351" s="5"/>
       <c r="D351" s="6"/>
@@ -7207,19 +7051,15 @@
       <c r="F351" s="6"/>
       <c r="G351" s="6"/>
     </row>
-    <row r="352" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A352" s="3">
-        <v>392</v>
-      </c>
+    <row r="352" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A352" s="3"/>
       <c r="B352" s="4"/>
       <c r="C352" s="5"/>
       <c r="E352" s="6"/>
       <c r="F352" s="6"/>
     </row>
-    <row r="353" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A353" s="3">
-        <v>393</v>
-      </c>
+    <row r="353" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A353" s="3"/>
       <c r="B353" s="4"/>
       <c r="C353" s="5"/>
       <c r="D353" s="6"/>
@@ -7227,19 +7067,15 @@
       <c r="F353" s="6"/>
       <c r="G353" s="6"/>
     </row>
-    <row r="354" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A354" s="3">
-        <v>394</v>
-      </c>
+    <row r="354" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A354" s="3"/>
       <c r="B354" s="4"/>
       <c r="C354" s="5"/>
       <c r="E354" s="6"/>
       <c r="F354" s="6"/>
     </row>
-    <row r="355" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A355" s="3">
-        <v>395</v>
-      </c>
+    <row r="355" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A355" s="3"/>
       <c r="B355" s="4"/>
       <c r="C355" s="5"/>
       <c r="D355" s="6"/>
@@ -7247,19 +7083,15 @@
       <c r="F355" s="6"/>
       <c r="G355" s="6"/>
     </row>
-    <row r="356" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A356" s="3">
-        <v>396</v>
-      </c>
+    <row r="356" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A356" s="3"/>
       <c r="B356" s="4"/>
       <c r="C356" s="5"/>
       <c r="E356" s="6"/>
       <c r="F356" s="6"/>
     </row>
-    <row r="357" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A357" s="3">
-        <v>397</v>
-      </c>
+    <row r="357" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A357" s="3"/>
       <c r="B357" s="4"/>
       <c r="C357" s="5"/>
       <c r="D357" s="6"/>
@@ -7267,19 +7099,15 @@
       <c r="F357" s="6"/>
       <c r="G357" s="6"/>
     </row>
-    <row r="358" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A358" s="3">
-        <v>398</v>
-      </c>
+    <row r="358" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A358" s="3"/>
       <c r="B358" s="4"/>
       <c r="C358" s="5"/>
       <c r="E358" s="6"/>
       <c r="F358" s="6"/>
     </row>
-    <row r="359" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A359" s="3">
-        <v>399</v>
-      </c>
+    <row r="359" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A359" s="3"/>
       <c r="B359" s="4"/>
       <c r="C359" s="5"/>
       <c r="D359" s="6"/>
@@ -7287,19 +7115,15 @@
       <c r="F359" s="6"/>
       <c r="G359" s="6"/>
     </row>
-    <row r="360" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A360" s="3">
-        <v>400</v>
-      </c>
+    <row r="360" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A360" s="3"/>
       <c r="B360" s="4"/>
       <c r="C360" s="5"/>
       <c r="E360" s="6"/>
       <c r="F360" s="6"/>
     </row>
-    <row r="361" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A361" s="3">
-        <v>401</v>
-      </c>
+    <row r="361" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A361" s="3"/>
       <c r="B361" s="4"/>
       <c r="C361" s="5"/>
       <c r="D361" s="6"/>
@@ -7307,19 +7131,15 @@
       <c r="F361" s="6"/>
       <c r="G361" s="6"/>
     </row>
-    <row r="362" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A362" s="3">
-        <v>402</v>
-      </c>
+    <row r="362" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A362" s="3"/>
       <c r="B362" s="4"/>
       <c r="C362" s="5"/>
       <c r="E362" s="6"/>
       <c r="F362" s="6"/>
     </row>
-    <row r="363" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A363" s="3">
-        <v>403</v>
-      </c>
+    <row r="363" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A363" s="3"/>
       <c r="B363" s="4"/>
       <c r="C363" s="5"/>
       <c r="D363" s="6"/>
@@ -7327,19 +7147,15 @@
       <c r="F363" s="6"/>
       <c r="G363" s="6"/>
     </row>
-    <row r="364" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A364" s="3">
-        <v>404</v>
-      </c>
+    <row r="364" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A364" s="3"/>
       <c r="B364" s="4"/>
       <c r="C364" s="5"/>
       <c r="E364" s="6"/>
       <c r="F364" s="6"/>
     </row>
-    <row r="365" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A365" s="3">
-        <v>405</v>
-      </c>
+    <row r="365" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A365" s="3"/>
       <c r="B365" s="4"/>
       <c r="C365" s="5"/>
       <c r="D365" s="6"/>
@@ -7347,19 +7163,15 @@
       <c r="F365" s="6"/>
       <c r="G365" s="6"/>
     </row>
-    <row r="366" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A366" s="3">
-        <v>406</v>
-      </c>
+    <row r="366" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A366" s="3"/>
       <c r="B366" s="4"/>
       <c r="C366" s="5"/>
       <c r="E366" s="6"/>
       <c r="F366" s="6"/>
     </row>
-    <row r="367" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A367" s="3">
-        <v>407</v>
-      </c>
+    <row r="367" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A367" s="3"/>
       <c r="B367" s="4"/>
       <c r="C367" s="5"/>
       <c r="D367" s="6"/>
@@ -7367,19 +7179,15 @@
       <c r="F367" s="6"/>
       <c r="G367" s="6"/>
     </row>
-    <row r="368" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A368" s="3">
-        <v>408</v>
-      </c>
+    <row r="368" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A368" s="3"/>
       <c r="B368" s="4"/>
       <c r="C368" s="5"/>
       <c r="E368" s="6"/>
       <c r="F368" s="6"/>
     </row>
-    <row r="369" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A369" s="3">
-        <v>409</v>
-      </c>
+    <row r="369" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A369" s="3"/>
       <c r="B369" s="4"/>
       <c r="C369" s="5"/>
       <c r="D369" s="6"/>
@@ -7387,19 +7195,15 @@
       <c r="F369" s="6"/>
       <c r="G369" s="6"/>
     </row>
-    <row r="370" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A370" s="3">
-        <v>410</v>
-      </c>
+    <row r="370" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A370" s="3"/>
       <c r="B370" s="4"/>
       <c r="C370" s="5"/>
       <c r="E370" s="6"/>
       <c r="F370" s="6"/>
     </row>
-    <row r="371" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A371" s="3">
-        <v>411</v>
-      </c>
+    <row r="371" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A371" s="3"/>
       <c r="B371" s="4"/>
       <c r="C371" s="5"/>
       <c r="D371" s="6"/>
@@ -7407,19 +7211,15 @@
       <c r="F371" s="6"/>
       <c r="G371" s="6"/>
     </row>
-    <row r="372" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A372" s="3">
-        <v>412</v>
-      </c>
+    <row r="372" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A372" s="3"/>
       <c r="B372" s="4"/>
       <c r="C372" s="5"/>
       <c r="E372" s="6"/>
       <c r="F372" s="6"/>
     </row>
-    <row r="373" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A373" s="3">
-        <v>413</v>
-      </c>
+    <row r="373" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A373" s="3"/>
       <c r="B373" s="4"/>
       <c r="C373" s="5"/>
       <c r="D373" s="6"/>
@@ -7427,19 +7227,15 @@
       <c r="F373" s="6"/>
       <c r="G373" s="6"/>
     </row>
-    <row r="374" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A374" s="3">
-        <v>414</v>
-      </c>
+    <row r="374" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A374" s="3"/>
       <c r="B374" s="4"/>
       <c r="C374" s="5"/>
       <c r="E374" s="6"/>
       <c r="F374" s="6"/>
     </row>
-    <row r="375" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A375" s="3">
-        <v>415</v>
-      </c>
+    <row r="375" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A375" s="3"/>
       <c r="B375" s="4"/>
       <c r="C375" s="5"/>
       <c r="D375" s="6"/>
@@ -7447,19 +7243,15 @@
       <c r="F375" s="6"/>
       <c r="G375" s="6"/>
     </row>
-    <row r="376" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A376" s="3">
-        <v>416</v>
-      </c>
+    <row r="376" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A376" s="3"/>
       <c r="B376" s="4"/>
       <c r="C376" s="5"/>
       <c r="E376" s="6"/>
       <c r="F376" s="6"/>
     </row>
-    <row r="377" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A377" s="3">
-        <v>417</v>
-      </c>
+    <row r="377" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A377" s="3"/>
       <c r="B377" s="4"/>
       <c r="C377" s="5"/>
       <c r="D377" s="6"/>
@@ -7467,19 +7259,15 @@
       <c r="F377" s="6"/>
       <c r="G377" s="6"/>
     </row>
-    <row r="378" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A378" s="3">
-        <v>418</v>
-      </c>
+    <row r="378" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A378" s="3"/>
       <c r="B378" s="4"/>
       <c r="C378" s="5"/>
       <c r="E378" s="6"/>
       <c r="F378" s="6"/>
     </row>
-    <row r="379" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A379" s="3">
-        <v>419</v>
-      </c>
+    <row r="379" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A379" s="3"/>
       <c r="B379" s="4"/>
       <c r="C379" s="5"/>
       <c r="D379" s="6"/>
@@ -7487,19 +7275,15 @@
       <c r="F379" s="6"/>
       <c r="G379" s="6"/>
     </row>
-    <row r="380" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A380" s="3">
-        <v>420</v>
-      </c>
+    <row r="380" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A380" s="3"/>
       <c r="B380" s="4"/>
       <c r="C380" s="5"/>
       <c r="E380" s="6"/>
       <c r="F380" s="6"/>
     </row>
-    <row r="381" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A381" s="3">
-        <v>421</v>
-      </c>
+    <row r="381" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A381" s="3"/>
       <c r="B381" s="4"/>
       <c r="C381" s="5"/>
       <c r="D381" s="6"/>
@@ -7507,19 +7291,15 @@
       <c r="F381" s="6"/>
       <c r="G381" s="6"/>
     </row>
-    <row r="382" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A382" s="3">
-        <v>422</v>
-      </c>
+    <row r="382" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A382" s="3"/>
       <c r="B382" s="4"/>
       <c r="C382" s="5"/>
       <c r="E382" s="6"/>
       <c r="F382" s="6"/>
     </row>
-    <row r="383" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A383" s="3">
-        <v>423</v>
-      </c>
+    <row r="383" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A383" s="3"/>
       <c r="B383" s="4"/>
       <c r="C383" s="5"/>
       <c r="D383" s="6"/>
@@ -7527,19 +7307,15 @@
       <c r="F383" s="6"/>
       <c r="G383" s="6"/>
     </row>
-    <row r="384" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A384" s="3">
-        <v>424</v>
-      </c>
+    <row r="384" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A384" s="3"/>
       <c r="B384" s="4"/>
       <c r="C384" s="5"/>
       <c r="E384" s="6"/>
       <c r="F384" s="6"/>
     </row>
-    <row r="385" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A385" s="3">
-        <v>425</v>
-      </c>
+    <row r="385" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A385" s="3"/>
       <c r="B385" s="4"/>
       <c r="C385" s="5"/>
       <c r="D385" s="6"/>
@@ -7547,19 +7323,15 @@
       <c r="F385" s="6"/>
       <c r="G385" s="6"/>
     </row>
-    <row r="386" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A386" s="3">
-        <v>426</v>
-      </c>
+    <row r="386" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A386" s="3"/>
       <c r="B386" s="4"/>
       <c r="C386" s="5"/>
       <c r="E386" s="6"/>
       <c r="F386" s="6"/>
     </row>
-    <row r="387" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A387" s="3">
-        <v>427</v>
-      </c>
+    <row r="387" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A387" s="3"/>
       <c r="B387" s="4"/>
       <c r="C387" s="5"/>
       <c r="D387" s="6"/>
@@ -7567,19 +7339,15 @@
       <c r="F387" s="6"/>
       <c r="G387" s="6"/>
     </row>
-    <row r="388" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A388" s="3">
-        <v>428</v>
-      </c>
+    <row r="388" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A388" s="3"/>
       <c r="B388" s="4"/>
       <c r="C388" s="5"/>
       <c r="E388" s="6"/>
       <c r="F388" s="6"/>
     </row>
-    <row r="389" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A389" s="3">
-        <v>429</v>
-      </c>
+    <row r="389" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A389" s="3"/>
       <c r="B389" s="4"/>
       <c r="C389" s="5"/>
       <c r="D389" s="6"/>
@@ -7587,19 +7355,15 @@
       <c r="F389" s="6"/>
       <c r="G389" s="6"/>
     </row>
-    <row r="390" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A390" s="3">
-        <v>430</v>
-      </c>
+    <row r="390" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A390" s="3"/>
       <c r="B390" s="4"/>
       <c r="C390" s="5"/>
       <c r="E390" s="6"/>
       <c r="F390" s="6"/>
     </row>
-    <row r="391" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A391" s="3">
-        <v>431</v>
-      </c>
+    <row r="391" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A391" s="3"/>
       <c r="B391" s="4"/>
       <c r="C391" s="5"/>
       <c r="D391" s="6"/>
@@ -7607,19 +7371,15 @@
       <c r="F391" s="6"/>
       <c r="G391" s="6"/>
     </row>
-    <row r="392" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A392" s="3">
-        <v>432</v>
-      </c>
+    <row r="392" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A392" s="3"/>
       <c r="B392" s="4"/>
       <c r="C392" s="5"/>
       <c r="E392" s="6"/>
       <c r="F392" s="6"/>
     </row>
-    <row r="393" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A393" s="3">
-        <v>433</v>
-      </c>
+    <row r="393" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A393" s="3"/>
       <c r="B393" s="4"/>
       <c r="C393" s="5"/>
       <c r="D393" s="6"/>
@@ -7627,19 +7387,15 @@
       <c r="F393" s="6"/>
       <c r="G393" s="6"/>
     </row>
-    <row r="394" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A394" s="3">
-        <v>434</v>
-      </c>
+    <row r="394" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A394" s="3"/>
       <c r="B394" s="4"/>
       <c r="C394" s="5"/>
       <c r="E394" s="6"/>
       <c r="F394" s="6"/>
     </row>
-    <row r="395" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A395" s="3">
-        <v>435</v>
-      </c>
+    <row r="395" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A395" s="3"/>
       <c r="B395" s="4"/>
       <c r="C395" s="5"/>
       <c r="D395" s="6"/>
@@ -7647,19 +7403,15 @@
       <c r="F395" s="6"/>
       <c r="G395" s="6"/>
     </row>
-    <row r="396" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A396" s="3">
-        <v>436</v>
-      </c>
+    <row r="396" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A396" s="3"/>
       <c r="B396" s="4"/>
       <c r="C396" s="5"/>
       <c r="E396" s="6"/>
       <c r="F396" s="6"/>
     </row>
-    <row r="397" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A397" s="3">
-        <v>437</v>
-      </c>
+    <row r="397" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A397" s="3"/>
       <c r="B397" s="4"/>
       <c r="C397" s="5"/>
       <c r="D397" s="6"/>
@@ -7667,19 +7419,15 @@
       <c r="F397" s="6"/>
       <c r="G397" s="6"/>
     </row>
-    <row r="398" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A398" s="3">
-        <v>438</v>
-      </c>
+    <row r="398" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A398" s="3"/>
       <c r="B398" s="4"/>
       <c r="C398" s="5"/>
       <c r="E398" s="6"/>
       <c r="F398" s="6"/>
     </row>
-    <row r="399" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A399" s="3">
-        <v>439</v>
-      </c>
+    <row r="399" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A399" s="3"/>
       <c r="B399" s="4"/>
       <c r="C399" s="5"/>
       <c r="D399" s="6"/>
@@ -7687,19 +7435,15 @@
       <c r="F399" s="6"/>
       <c r="G399" s="6"/>
     </row>
-    <row r="400" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A400" s="3">
-        <v>440</v>
-      </c>
+    <row r="400" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A400" s="3"/>
       <c r="B400" s="4"/>
       <c r="C400" s="5"/>
       <c r="E400" s="6"/>
       <c r="F400" s="6"/>
     </row>
-    <row r="401" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A401" s="3">
-        <v>441</v>
-      </c>
+    <row r="401" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A401" s="3"/>
       <c r="B401" s="4"/>
       <c r="C401" s="5"/>
       <c r="D401" s="6"/>
@@ -7707,19 +7451,15 @@
       <c r="F401" s="6"/>
       <c r="G401" s="6"/>
     </row>
-    <row r="402" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A402" s="3">
-        <v>442</v>
-      </c>
+    <row r="402" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A402" s="3"/>
       <c r="B402" s="4"/>
       <c r="C402" s="5"/>
       <c r="E402" s="6"/>
       <c r="F402" s="6"/>
     </row>
-    <row r="403" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A403" s="3">
-        <v>443</v>
-      </c>
+    <row r="403" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A403" s="3"/>
       <c r="B403" s="4"/>
       <c r="C403" s="5"/>
       <c r="D403" s="6"/>
@@ -7727,19 +7467,15 @@
       <c r="F403" s="6"/>
       <c r="G403" s="6"/>
     </row>
-    <row r="404" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A404" s="3">
-        <v>444</v>
-      </c>
+    <row r="404" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A404" s="3"/>
       <c r="B404" s="4"/>
       <c r="C404" s="5"/>
       <c r="E404" s="6"/>
       <c r="F404" s="6"/>
     </row>
-    <row r="405" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A405" s="3">
-        <v>445</v>
-      </c>
+    <row r="405" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A405" s="3"/>
       <c r="B405" s="4"/>
       <c r="C405" s="5"/>
       <c r="D405" s="6"/>
@@ -7747,19 +7483,15 @@
       <c r="F405" s="6"/>
       <c r="G405" s="6"/>
     </row>
-    <row r="406" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A406" s="3">
-        <v>446</v>
-      </c>
+    <row r="406" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A406" s="3"/>
       <c r="B406" s="4"/>
       <c r="C406" s="5"/>
       <c r="E406" s="6"/>
       <c r="F406" s="6"/>
     </row>
-    <row r="407" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A407" s="3">
-        <v>447</v>
-      </c>
+    <row r="407" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A407" s="3"/>
       <c r="B407" s="4"/>
       <c r="C407" s="5"/>
       <c r="D407" s="6"/>
@@ -7767,19 +7499,15 @@
       <c r="F407" s="6"/>
       <c r="G407" s="6"/>
     </row>
-    <row r="408" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A408" s="3">
-        <v>448</v>
-      </c>
+    <row r="408" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A408" s="3"/>
       <c r="B408" s="4"/>
       <c r="C408" s="5"/>
       <c r="E408" s="6"/>
       <c r="F408" s="6"/>
     </row>
-    <row r="409" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A409" s="3">
-        <v>449</v>
-      </c>
+    <row r="409" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A409" s="3"/>
       <c r="B409" s="4"/>
       <c r="C409" s="5"/>
       <c r="D409" s="6"/>
@@ -7787,19 +7515,15 @@
       <c r="F409" s="6"/>
       <c r="G409" s="6"/>
     </row>
-    <row r="410" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A410" s="3">
-        <v>450</v>
-      </c>
+    <row r="410" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A410" s="3"/>
       <c r="B410" s="4"/>
       <c r="C410" s="5"/>
       <c r="E410" s="6"/>
       <c r="F410" s="6"/>
     </row>
-    <row r="411" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A411" s="3">
-        <v>451</v>
-      </c>
+    <row r="411" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A411" s="3"/>
       <c r="B411" s="4"/>
       <c r="C411" s="5"/>
       <c r="D411" s="6"/>
@@ -7807,19 +7531,15 @@
       <c r="F411" s="6"/>
       <c r="G411" s="6"/>
     </row>
-    <row r="412" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A412" s="3">
-        <v>452</v>
-      </c>
+    <row r="412" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A412" s="3"/>
       <c r="B412" s="4"/>
       <c r="C412" s="5"/>
       <c r="E412" s="6"/>
       <c r="F412" s="6"/>
     </row>
-    <row r="413" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A413" s="3">
-        <v>453</v>
-      </c>
+    <row r="413" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A413" s="3"/>
       <c r="B413" s="4"/>
       <c r="C413" s="5"/>
       <c r="D413" s="6"/>
@@ -7827,19 +7547,15 @@
       <c r="F413" s="6"/>
       <c r="G413" s="6"/>
     </row>
-    <row r="414" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A414" s="3">
-        <v>454</v>
-      </c>
+    <row r="414" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A414" s="3"/>
       <c r="B414" s="4"/>
       <c r="C414" s="5"/>
       <c r="E414" s="6"/>
       <c r="F414" s="6"/>
     </row>
-    <row r="415" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A415" s="3">
-        <v>455</v>
-      </c>
+    <row r="415" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A415" s="3"/>
       <c r="B415" s="4"/>
       <c r="C415" s="5"/>
       <c r="D415" s="6"/>
@@ -7847,19 +7563,15 @@
       <c r="F415" s="6"/>
       <c r="G415" s="6"/>
     </row>
-    <row r="416" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A416" s="3">
-        <v>456</v>
-      </c>
+    <row r="416" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A416" s="3"/>
       <c r="B416" s="4"/>
       <c r="C416" s="5"/>
       <c r="E416" s="6"/>
       <c r="F416" s="6"/>
     </row>
-    <row r="417" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A417" s="3">
-        <v>457</v>
-      </c>
+    <row r="417" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A417" s="3"/>
       <c r="B417" s="4"/>
       <c r="C417" s="5"/>
       <c r="D417" s="6"/>
@@ -7867,19 +7579,15 @@
       <c r="F417" s="6"/>
       <c r="G417" s="6"/>
     </row>
-    <row r="418" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A418" s="3">
-        <v>458</v>
-      </c>
+    <row r="418" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A418" s="3"/>
       <c r="B418" s="4"/>
       <c r="C418" s="5"/>
       <c r="E418" s="6"/>
       <c r="F418" s="6"/>
     </row>
-    <row r="419" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A419" s="3">
-        <v>459</v>
-      </c>
+    <row r="419" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A419" s="3"/>
       <c r="B419" s="4"/>
       <c r="C419" s="5"/>
       <c r="D419" s="6"/>
@@ -7887,19 +7595,15 @@
       <c r="F419" s="6"/>
       <c r="G419" s="6"/>
     </row>
-    <row r="420" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A420" s="3">
-        <v>460</v>
-      </c>
+    <row r="420" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A420" s="3"/>
       <c r="B420" s="4"/>
       <c r="C420" s="5"/>
       <c r="E420" s="6"/>
       <c r="F420" s="6"/>
     </row>
-    <row r="421" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A421" s="3">
-        <v>461</v>
-      </c>
+    <row r="421" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A421" s="3"/>
       <c r="B421" s="4"/>
       <c r="C421" s="5"/>
       <c r="D421" s="6"/>
@@ -7907,19 +7611,15 @@
       <c r="F421" s="6"/>
       <c r="G421" s="6"/>
     </row>
-    <row r="422" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A422" s="3">
-        <v>462</v>
-      </c>
+    <row r="422" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A422" s="3"/>
       <c r="B422" s="4"/>
       <c r="C422" s="5"/>
       <c r="E422" s="6"/>
       <c r="F422" s="6"/>
     </row>
-    <row r="423" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A423" s="3">
-        <v>463</v>
-      </c>
+    <row r="423" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A423" s="3"/>
       <c r="B423" s="4"/>
       <c r="C423" s="5"/>
       <c r="D423" s="6"/>
@@ -7927,19 +7627,15 @@
       <c r="F423" s="6"/>
       <c r="G423" s="6"/>
     </row>
-    <row r="424" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A424" s="3">
-        <v>464</v>
-      </c>
+    <row r="424" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A424" s="3"/>
       <c r="B424" s="4"/>
       <c r="C424" s="5"/>
       <c r="E424" s="6"/>
       <c r="F424" s="6"/>
     </row>
-    <row r="425" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A425" s="3">
-        <v>465</v>
-      </c>
+    <row r="425" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A425" s="3"/>
       <c r="B425" s="4"/>
       <c r="C425" s="5"/>
       <c r="D425" s="6"/>
@@ -7947,19 +7643,15 @@
       <c r="F425" s="6"/>
       <c r="G425" s="6"/>
     </row>
-    <row r="426" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A426" s="3">
-        <v>466</v>
-      </c>
+    <row r="426" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A426" s="3"/>
       <c r="B426" s="4"/>
       <c r="C426" s="5"/>
       <c r="E426" s="6"/>
       <c r="F426" s="6"/>
     </row>
-    <row r="427" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A427" s="3">
-        <v>467</v>
-      </c>
+    <row r="427" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A427" s="3"/>
       <c r="B427" s="4"/>
       <c r="C427" s="5"/>
       <c r="D427" s="6"/>
@@ -7967,19 +7659,15 @@
       <c r="F427" s="6"/>
       <c r="G427" s="6"/>
     </row>
-    <row r="428" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A428" s="3">
-        <v>468</v>
-      </c>
+    <row r="428" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A428" s="3"/>
       <c r="B428" s="4"/>
       <c r="C428" s="5"/>
       <c r="E428" s="6"/>
       <c r="F428" s="6"/>
     </row>
-    <row r="429" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A429" s="3">
-        <v>469</v>
-      </c>
+    <row r="429" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A429" s="3"/>
       <c r="B429" s="4"/>
       <c r="C429" s="5"/>
       <c r="D429" s="6"/>
@@ -7987,19 +7675,15 @@
       <c r="F429" s="6"/>
       <c r="G429" s="6"/>
     </row>
-    <row r="430" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A430" s="3">
-        <v>470</v>
-      </c>
+    <row r="430" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A430" s="3"/>
       <c r="B430" s="4"/>
       <c r="C430" s="5"/>
       <c r="E430" s="6"/>
       <c r="F430" s="6"/>
     </row>
-    <row r="431" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A431" s="3">
-        <v>471</v>
-      </c>
+    <row r="431" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A431" s="3"/>
       <c r="B431" s="4"/>
       <c r="C431" s="5"/>
       <c r="D431" s="6"/>
@@ -8007,19 +7691,15 @@
       <c r="F431" s="6"/>
       <c r="G431" s="6"/>
     </row>
-    <row r="432" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A432" s="3">
-        <v>472</v>
-      </c>
+    <row r="432" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A432" s="3"/>
       <c r="B432" s="4"/>
       <c r="C432" s="5"/>
       <c r="E432" s="6"/>
       <c r="F432" s="6"/>
     </row>
-    <row r="433" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A433" s="3">
-        <v>473</v>
-      </c>
+    <row r="433" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A433" s="3"/>
       <c r="B433" s="4"/>
       <c r="C433" s="5"/>
       <c r="D433" s="6"/>
@@ -8027,19 +7707,15 @@
       <c r="F433" s="6"/>
       <c r="G433" s="6"/>
     </row>
-    <row r="434" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A434" s="3">
-        <v>474</v>
-      </c>
+    <row r="434" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A434" s="3"/>
       <c r="B434" s="4"/>
       <c r="C434" s="5"/>
       <c r="E434" s="6"/>
       <c r="F434" s="6"/>
     </row>
-    <row r="435" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A435" s="3">
-        <v>475</v>
-      </c>
+    <row r="435" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A435" s="3"/>
       <c r="B435" s="4"/>
       <c r="C435" s="5"/>
       <c r="D435" s="6"/>
@@ -8047,19 +7723,15 @@
       <c r="F435" s="6"/>
       <c r="G435" s="6"/>
     </row>
-    <row r="436" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A436" s="3">
-        <v>476</v>
-      </c>
+    <row r="436" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A436" s="3"/>
       <c r="B436" s="4"/>
       <c r="C436" s="5"/>
       <c r="E436" s="6"/>
       <c r="F436" s="6"/>
     </row>
-    <row r="437" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A437" s="3">
-        <v>477</v>
-      </c>
+    <row r="437" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A437" s="3"/>
       <c r="B437" s="4"/>
       <c r="C437" s="5"/>
       <c r="D437" s="6"/>
@@ -8067,19 +7739,15 @@
       <c r="F437" s="6"/>
       <c r="G437" s="6"/>
     </row>
-    <row r="438" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A438" s="3">
-        <v>478</v>
-      </c>
+    <row r="438" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A438" s="3"/>
       <c r="B438" s="4"/>
       <c r="C438" s="5"/>
       <c r="E438" s="6"/>
       <c r="F438" s="6"/>
     </row>
-    <row r="439" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A439" s="3">
-        <v>479</v>
-      </c>
+    <row r="439" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A439" s="3"/>
       <c r="B439" s="4"/>
       <c r="C439" s="5"/>
       <c r="D439" s="6"/>
@@ -8087,19 +7755,15 @@
       <c r="F439" s="6"/>
       <c r="G439" s="6"/>
     </row>
-    <row r="440" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A440" s="3">
-        <v>480</v>
-      </c>
+    <row r="440" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A440" s="3"/>
       <c r="B440" s="4"/>
       <c r="C440" s="5"/>
       <c r="E440" s="6"/>
       <c r="F440" s="6"/>
     </row>
-    <row r="441" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A441" s="3">
-        <v>481</v>
-      </c>
+    <row r="441" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A441" s="3"/>
       <c r="B441" s="4"/>
       <c r="C441" s="5"/>
       <c r="D441" s="6"/>
@@ -8107,19 +7771,15 @@
       <c r="F441" s="6"/>
       <c r="G441" s="6"/>
     </row>
-    <row r="442" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A442" s="3">
-        <v>482</v>
-      </c>
+    <row r="442" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A442" s="3"/>
       <c r="B442" s="4"/>
       <c r="C442" s="5"/>
       <c r="E442" s="6"/>
       <c r="F442" s="6"/>
     </row>
-    <row r="443" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A443" s="3">
-        <v>483</v>
-      </c>
+    <row r="443" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A443" s="3"/>
       <c r="B443" s="4"/>
       <c r="C443" s="5"/>
       <c r="D443" s="6"/>
@@ -8127,19 +7787,15 @@
       <c r="F443" s="6"/>
       <c r="G443" s="6"/>
     </row>
-    <row r="444" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A444" s="3">
-        <v>484</v>
-      </c>
+    <row r="444" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A444" s="3"/>
       <c r="B444" s="4"/>
       <c r="C444" s="5"/>
       <c r="E444" s="6"/>
       <c r="F444" s="6"/>
     </row>
-    <row r="445" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A445" s="3">
-        <v>485</v>
-      </c>
+    <row r="445" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A445" s="3"/>
       <c r="B445" s="4"/>
       <c r="C445" s="5"/>
       <c r="D445" s="6"/>
@@ -8147,19 +7803,15 @@
       <c r="F445" s="6"/>
       <c r="G445" s="6"/>
     </row>
-    <row r="446" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A446" s="3">
-        <v>486</v>
-      </c>
+    <row r="446" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A446" s="3"/>
       <c r="B446" s="4"/>
       <c r="C446" s="5"/>
       <c r="E446" s="6"/>
       <c r="F446" s="6"/>
     </row>
-    <row r="447" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A447" s="3">
-        <v>487</v>
-      </c>
+    <row r="447" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A447" s="3"/>
       <c r="B447" s="4"/>
       <c r="C447" s="5"/>
       <c r="D447" s="6"/>
@@ -8167,19 +7819,15 @@
       <c r="F447" s="6"/>
       <c r="G447" s="6"/>
     </row>
-    <row r="448" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A448" s="3">
-        <v>488</v>
-      </c>
+    <row r="448" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A448" s="3"/>
       <c r="B448" s="4"/>
       <c r="C448" s="5"/>
       <c r="E448" s="6"/>
       <c r="F448" s="6"/>
     </row>
-    <row r="449" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A449" s="3">
-        <v>489</v>
-      </c>
+    <row r="449" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A449" s="3"/>
       <c r="B449" s="4"/>
       <c r="C449" s="5"/>
       <c r="D449" s="6"/>
@@ -8187,19 +7835,15 @@
       <c r="F449" s="6"/>
       <c r="G449" s="6"/>
     </row>
-    <row r="450" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A450" s="3">
-        <v>490</v>
-      </c>
+    <row r="450" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A450" s="3"/>
       <c r="B450" s="4"/>
       <c r="C450" s="5"/>
       <c r="E450" s="6"/>
       <c r="F450" s="6"/>
     </row>
-    <row r="451" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A451" s="3">
-        <v>491</v>
-      </c>
+    <row r="451" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A451" s="3"/>
       <c r="B451" s="4"/>
       <c r="C451" s="5"/>
       <c r="D451" s="6"/>
@@ -8207,19 +7851,15 @@
       <c r="F451" s="6"/>
       <c r="G451" s="6"/>
     </row>
-    <row r="452" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A452" s="3">
-        <v>492</v>
-      </c>
+    <row r="452" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A452" s="3"/>
       <c r="B452" s="4"/>
       <c r="C452" s="5"/>
       <c r="E452" s="6"/>
       <c r="F452" s="6"/>
     </row>
-    <row r="453" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A453" s="3">
-        <v>493</v>
-      </c>
+    <row r="453" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A453" s="3"/>
       <c r="B453" s="4"/>
       <c r="C453" s="5"/>
       <c r="D453" s="6"/>
@@ -8227,19 +7867,15 @@
       <c r="F453" s="6"/>
       <c r="G453" s="6"/>
     </row>
-    <row r="454" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A454" s="3">
-        <v>494</v>
-      </c>
+    <row r="454" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A454" s="3"/>
       <c r="B454" s="4"/>
       <c r="C454" s="5"/>
       <c r="E454" s="6"/>
       <c r="F454" s="6"/>
     </row>
-    <row r="455" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A455" s="3">
-        <v>495</v>
-      </c>
+    <row r="455" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A455" s="3"/>
       <c r="B455" s="4"/>
       <c r="C455" s="5"/>
       <c r="D455" s="6"/>
@@ -8247,19 +7883,15 @@
       <c r="F455" s="6"/>
       <c r="G455" s="6"/>
     </row>
-    <row r="456" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A456" s="3">
-        <v>496</v>
-      </c>
+    <row r="456" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A456" s="3"/>
       <c r="B456" s="4"/>
       <c r="C456" s="5"/>
       <c r="E456" s="6"/>
       <c r="F456" s="6"/>
     </row>
-    <row r="457" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A457" s="3">
-        <v>497</v>
-      </c>
+    <row r="457" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A457" s="3"/>
       <c r="B457" s="4"/>
       <c r="C457" s="5"/>
       <c r="D457" s="6"/>
@@ -8267,19 +7899,15 @@
       <c r="F457" s="6"/>
       <c r="G457" s="6"/>
     </row>
-    <row r="458" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A458" s="3">
-        <v>498</v>
-      </c>
+    <row r="458" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A458" s="3"/>
       <c r="B458" s="4"/>
       <c r="C458" s="5"/>
       <c r="E458" s="6"/>
       <c r="F458" s="6"/>
     </row>
-    <row r="459" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A459" s="3">
-        <v>499</v>
-      </c>
+    <row r="459" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A459" s="3"/>
       <c r="B459" s="4"/>
       <c r="C459" s="5"/>
       <c r="D459" s="6"/>
@@ -8287,19 +7915,15 @@
       <c r="F459" s="6"/>
       <c r="G459" s="6"/>
     </row>
-    <row r="460" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A460" s="3">
-        <v>500</v>
-      </c>
+    <row r="460" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A460" s="3"/>
       <c r="B460" s="4"/>
       <c r="C460" s="5"/>
       <c r="E460" s="6"/>
       <c r="F460" s="6"/>
     </row>
-    <row r="461" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A461" s="3">
-        <v>501</v>
-      </c>
+    <row r="461" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A461" s="3"/>
       <c r="B461" s="4"/>
       <c r="C461" s="5"/>
       <c r="D461" s="6"/>
@@ -8307,19 +7931,15 @@
       <c r="F461" s="6"/>
       <c r="G461" s="6"/>
     </row>
-    <row r="462" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A462" s="3">
-        <v>502</v>
-      </c>
+    <row r="462" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A462" s="3"/>
       <c r="B462" s="4"/>
       <c r="C462" s="5"/>
       <c r="E462" s="6"/>
       <c r="F462" s="6"/>
     </row>
-    <row r="463" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A463" s="3">
-        <v>503</v>
-      </c>
+    <row r="463" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A463" s="3"/>
       <c r="B463" s="4"/>
       <c r="C463" s="5"/>
       <c r="D463" s="6"/>
@@ -8327,19 +7947,15 @@
       <c r="F463" s="6"/>
       <c r="G463" s="6"/>
     </row>
-    <row r="464" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A464" s="3">
-        <v>504</v>
-      </c>
+    <row r="464" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A464" s="3"/>
       <c r="B464" s="4"/>
       <c r="C464" s="5"/>
       <c r="E464" s="6"/>
       <c r="F464" s="6"/>
     </row>
-    <row r="465" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A465" s="3">
-        <v>505</v>
-      </c>
+    <row r="465" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A465" s="3"/>
       <c r="B465" s="4"/>
       <c r="C465" s="5"/>
       <c r="D465" s="6"/>
@@ -8347,19 +7963,15 @@
       <c r="F465" s="6"/>
       <c r="G465" s="6"/>
     </row>
-    <row r="466" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A466" s="3">
-        <v>506</v>
-      </c>
+    <row r="466" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A466" s="3"/>
       <c r="B466" s="4"/>
       <c r="C466" s="5"/>
       <c r="E466" s="6"/>
       <c r="F466" s="6"/>
     </row>
-    <row r="467" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A467" s="3">
-        <v>507</v>
-      </c>
+    <row r="467" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A467" s="3"/>
       <c r="B467" s="4"/>
       <c r="C467" s="5"/>
       <c r="D467" s="6"/>
@@ -8367,19 +7979,15 @@
       <c r="F467" s="6"/>
       <c r="G467" s="6"/>
     </row>
-    <row r="468" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A468" s="3">
-        <v>508</v>
-      </c>
+    <row r="468" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A468" s="3"/>
       <c r="B468" s="4"/>
       <c r="C468" s="5"/>
       <c r="E468" s="6"/>
       <c r="F468" s="6"/>
     </row>
-    <row r="469" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A469" s="3">
-        <v>509</v>
-      </c>
+    <row r="469" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A469" s="3"/>
       <c r="B469" s="4"/>
       <c r="C469" s="5"/>
       <c r="D469" s="6"/>
@@ -8387,19 +7995,15 @@
       <c r="F469" s="6"/>
       <c r="G469" s="6"/>
     </row>
-    <row r="470" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A470" s="3">
-        <v>510</v>
-      </c>
+    <row r="470" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A470" s="3"/>
       <c r="B470" s="4"/>
       <c r="C470" s="5"/>
       <c r="E470" s="6"/>
       <c r="F470" s="6"/>
     </row>
-    <row r="471" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A471" s="3">
-        <v>511</v>
-      </c>
+    <row r="471" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A471" s="3"/>
       <c r="B471" s="4"/>
       <c r="C471" s="5"/>
       <c r="D471" s="6"/>
@@ -8407,19 +8011,15 @@
       <c r="F471" s="6"/>
       <c r="G471" s="6"/>
     </row>
-    <row r="472" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A472" s="3">
-        <v>512</v>
-      </c>
+    <row r="472" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A472" s="3"/>
       <c r="B472" s="4"/>
       <c r="C472" s="5"/>
       <c r="E472" s="6"/>
       <c r="F472" s="6"/>
     </row>
-    <row r="473" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A473" s="3">
-        <v>513</v>
-      </c>
+    <row r="473" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A473" s="3"/>
       <c r="B473" s="4"/>
       <c r="C473" s="5"/>
       <c r="D473" s="6"/>
@@ -8427,19 +8027,15 @@
       <c r="F473" s="6"/>
       <c r="G473" s="6"/>
     </row>
-    <row r="474" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A474" s="3">
-        <v>514</v>
-      </c>
+    <row r="474" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A474" s="3"/>
       <c r="B474" s="4"/>
       <c r="C474" s="5"/>
       <c r="E474" s="6"/>
       <c r="F474" s="6"/>
     </row>
-    <row r="475" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A475" s="3">
-        <v>515</v>
-      </c>
+    <row r="475" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A475" s="3"/>
       <c r="B475" s="4"/>
       <c r="C475" s="5"/>
       <c r="D475" s="6"/>
@@ -8447,19 +8043,15 @@
       <c r="F475" s="6"/>
       <c r="G475" s="6"/>
     </row>
-    <row r="476" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A476" s="3">
-        <v>516</v>
-      </c>
+    <row r="476" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A476" s="3"/>
       <c r="B476" s="4"/>
       <c r="C476" s="5"/>
       <c r="E476" s="6"/>
       <c r="F476" s="6"/>
     </row>
-    <row r="477" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A477" s="3">
-        <v>517</v>
-      </c>
+    <row r="477" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A477" s="3"/>
       <c r="B477" s="4"/>
       <c r="C477" s="5"/>
       <c r="D477" s="6"/>
@@ -8467,19 +8059,15 @@
       <c r="F477" s="6"/>
       <c r="G477" s="6"/>
     </row>
-    <row r="478" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A478" s="3">
-        <v>518</v>
-      </c>
+    <row r="478" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A478" s="3"/>
       <c r="B478" s="4"/>
       <c r="C478" s="5"/>
       <c r="E478" s="6"/>
       <c r="F478" s="6"/>
     </row>
-    <row r="479" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A479" s="3">
-        <v>519</v>
-      </c>
+    <row r="479" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A479" s="3"/>
       <c r="B479" s="4"/>
       <c r="C479" s="5"/>
       <c r="D479" s="6"/>
@@ -8487,19 +8075,15 @@
       <c r="F479" s="6"/>
       <c r="G479" s="6"/>
     </row>
-    <row r="480" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A480" s="3">
-        <v>520</v>
-      </c>
+    <row r="480" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A480" s="3"/>
       <c r="B480" s="4"/>
       <c r="C480" s="5"/>
       <c r="E480" s="6"/>
       <c r="F480" s="6"/>
     </row>
-    <row r="481" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A481" s="3">
-        <v>521</v>
-      </c>
+    <row r="481" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A481" s="3"/>
       <c r="B481" s="4"/>
       <c r="C481" s="5"/>
       <c r="D481" s="6"/>
@@ -8507,19 +8091,15 @@
       <c r="F481" s="6"/>
       <c r="G481" s="6"/>
     </row>
-    <row r="482" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A482" s="3">
-        <v>522</v>
-      </c>
+    <row r="482" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A482" s="3"/>
       <c r="B482" s="4"/>
       <c r="C482" s="5"/>
       <c r="E482" s="6"/>
       <c r="F482" s="6"/>
     </row>
-    <row r="483" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A483" s="3">
-        <v>523</v>
-      </c>
+    <row r="483" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A483" s="3"/>
       <c r="B483" s="4"/>
       <c r="C483" s="5"/>
       <c r="D483" s="6"/>
@@ -8527,19 +8107,15 @@
       <c r="F483" s="6"/>
       <c r="G483" s="6"/>
     </row>
-    <row r="484" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A484" s="3">
-        <v>524</v>
-      </c>
+    <row r="484" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A484" s="3"/>
       <c r="B484" s="4"/>
       <c r="C484" s="5"/>
       <c r="E484" s="6"/>
       <c r="F484" s="6"/>
     </row>
-    <row r="485" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A485" s="3">
-        <v>525</v>
-      </c>
+    <row r="485" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A485" s="3"/>
       <c r="B485" s="4"/>
       <c r="C485" s="5"/>
       <c r="D485" s="6"/>
@@ -8547,19 +8123,15 @@
       <c r="F485" s="6"/>
       <c r="G485" s="6"/>
     </row>
-    <row r="486" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A486" s="3">
-        <v>526</v>
-      </c>
+    <row r="486" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A486" s="3"/>
       <c r="B486" s="4"/>
       <c r="C486" s="5"/>
       <c r="E486" s="6"/>
       <c r="F486" s="6"/>
     </row>
-    <row r="487" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A487" s="3">
-        <v>527</v>
-      </c>
+    <row r="487" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A487" s="3"/>
       <c r="B487" s="4"/>
       <c r="C487" s="5"/>
       <c r="D487" s="6"/>
@@ -8567,19 +8139,15 @@
       <c r="F487" s="6"/>
       <c r="G487" s="6"/>
     </row>
-    <row r="488" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A488" s="3">
-        <v>528</v>
-      </c>
+    <row r="488" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A488" s="3"/>
       <c r="B488" s="4"/>
       <c r="C488" s="5"/>
       <c r="E488" s="6"/>
       <c r="F488" s="6"/>
     </row>
-    <row r="489" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A489" s="3">
-        <v>529</v>
-      </c>
+    <row r="489" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A489" s="3"/>
       <c r="B489" s="4"/>
       <c r="C489" s="5"/>
       <c r="D489" s="6"/>
@@ -8587,19 +8155,15 @@
       <c r="F489" s="6"/>
       <c r="G489" s="6"/>
     </row>
-    <row r="490" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A490" s="3">
-        <v>530</v>
-      </c>
+    <row r="490" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A490" s="3"/>
       <c r="B490" s="4"/>
       <c r="C490" s="5"/>
       <c r="E490" s="6"/>
       <c r="F490" s="6"/>
     </row>
-    <row r="491" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A491" s="3">
-        <v>531</v>
-      </c>
+    <row r="491" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A491" s="3"/>
       <c r="B491" s="4"/>
       <c r="C491" s="5"/>
       <c r="D491" s="6"/>
@@ -8607,19 +8171,15 @@
       <c r="F491" s="6"/>
       <c r="G491" s="6"/>
     </row>
-    <row r="492" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A492" s="3">
-        <v>532</v>
-      </c>
+    <row r="492" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A492" s="3"/>
       <c r="B492" s="4"/>
       <c r="C492" s="5"/>
       <c r="E492" s="6"/>
       <c r="F492" s="6"/>
     </row>
-    <row r="493" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A493" s="3">
-        <v>533</v>
-      </c>
+    <row r="493" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A493" s="3"/>
       <c r="B493" s="4"/>
       <c r="C493" s="5"/>
       <c r="D493" s="6"/>
@@ -8627,19 +8187,15 @@
       <c r="F493" s="6"/>
       <c r="G493" s="6"/>
     </row>
-    <row r="494" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A494" s="3">
-        <v>534</v>
-      </c>
+    <row r="494" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A494" s="3"/>
       <c r="B494" s="4"/>
       <c r="C494" s="5"/>
       <c r="E494" s="6"/>
       <c r="F494" s="6"/>
     </row>
-    <row r="495" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A495" s="3">
-        <v>535</v>
-      </c>
+    <row r="495" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A495" s="3"/>
       <c r="B495" s="4"/>
       <c r="C495" s="5"/>
       <c r="D495" s="6"/>
@@ -8647,19 +8203,15 @@
       <c r="F495" s="6"/>
       <c r="G495" s="6"/>
     </row>
-    <row r="496" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A496" s="3">
-        <v>536</v>
-      </c>
+    <row r="496" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A496" s="3"/>
       <c r="B496" s="4"/>
       <c r="C496" s="5"/>
       <c r="E496" s="6"/>
       <c r="F496" s="6"/>
     </row>
-    <row r="497" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A497" s="3">
-        <v>537</v>
-      </c>
+    <row r="497" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A497" s="3"/>
       <c r="B497" s="4"/>
       <c r="C497" s="5"/>
       <c r="D497" s="6"/>
@@ -8667,19 +8219,15 @@
       <c r="F497" s="6"/>
       <c r="G497" s="6"/>
     </row>
-    <row r="498" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A498" s="3">
-        <v>538</v>
-      </c>
+    <row r="498" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A498" s="3"/>
       <c r="B498" s="4"/>
       <c r="C498" s="5"/>
       <c r="E498" s="6"/>
       <c r="F498" s="6"/>
     </row>
-    <row r="499" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A499" s="3">
-        <v>539</v>
-      </c>
+    <row r="499" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A499" s="3"/>
       <c r="B499" s="4"/>
       <c r="C499" s="5"/>
       <c r="D499" s="6"/>
@@ -8687,19 +8235,15 @@
       <c r="F499" s="6"/>
       <c r="G499" s="6"/>
     </row>
-    <row r="500" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A500" s="3">
-        <v>540</v>
-      </c>
+    <row r="500" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A500" s="3"/>
       <c r="B500" s="4"/>
       <c r="C500" s="5"/>
       <c r="E500" s="6"/>
       <c r="F500" s="6"/>
     </row>
-    <row r="501" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A501" s="3">
-        <v>541</v>
-      </c>
+    <row r="501" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A501" s="3"/>
       <c r="B501" s="4"/>
       <c r="C501" s="5"/>
       <c r="D501" s="6"/>
@@ -8707,19 +8251,15 @@
       <c r="F501" s="6"/>
       <c r="G501" s="6"/>
     </row>
-    <row r="502" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A502" s="3">
-        <v>542</v>
-      </c>
+    <row r="502" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A502" s="3"/>
       <c r="B502" s="4"/>
       <c r="C502" s="5"/>
       <c r="E502" s="6"/>
       <c r="F502" s="6"/>
     </row>
-    <row r="503" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A503" s="3">
-        <v>543</v>
-      </c>
+    <row r="503" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A503" s="3"/>
       <c r="B503" s="4"/>
       <c r="C503" s="5"/>
       <c r="D503" s="6"/>
@@ -8727,19 +8267,15 @@
       <c r="F503" s="6"/>
       <c r="G503" s="6"/>
     </row>
-    <row r="504" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A504" s="3">
-        <v>544</v>
-      </c>
+    <row r="504" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A504" s="3"/>
       <c r="B504" s="4"/>
       <c r="C504" s="5"/>
       <c r="E504" s="6"/>
       <c r="F504" s="6"/>
     </row>
-    <row r="505" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A505" s="3">
-        <v>545</v>
-      </c>
+    <row r="505" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A505" s="3"/>
       <c r="B505" s="4"/>
       <c r="C505" s="5"/>
       <c r="D505" s="6"/>
@@ -8747,19 +8283,15 @@
       <c r="F505" s="6"/>
       <c r="G505" s="6"/>
     </row>
-    <row r="506" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A506" s="3">
-        <v>546</v>
-      </c>
+    <row r="506" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A506" s="3"/>
       <c r="B506" s="4"/>
       <c r="C506" s="5"/>
       <c r="E506" s="6"/>
       <c r="F506" s="6"/>
     </row>
-    <row r="507" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A507" s="3">
-        <v>547</v>
-      </c>
+    <row r="507" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A507" s="3"/>
       <c r="B507" s="4"/>
       <c r="C507" s="5"/>
       <c r="D507" s="6"/>
@@ -8767,19 +8299,15 @@
       <c r="F507" s="6"/>
       <c r="G507" s="6"/>
     </row>
-    <row r="508" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A508" s="3">
-        <v>548</v>
-      </c>
+    <row r="508" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A508" s="3"/>
       <c r="B508" s="4"/>
       <c r="C508" s="5"/>
       <c r="E508" s="6"/>
       <c r="F508" s="6"/>
     </row>
-    <row r="509" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A509" s="3">
-        <v>549</v>
-      </c>
+    <row r="509" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A509" s="3"/>
       <c r="B509" s="4"/>
       <c r="C509" s="5"/>
       <c r="D509" s="6"/>
@@ -8787,19 +8315,15 @@
       <c r="F509" s="6"/>
       <c r="G509" s="6"/>
     </row>
-    <row r="510" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A510" s="3">
-        <v>550</v>
-      </c>
+    <row r="510" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A510" s="3"/>
       <c r="B510" s="4"/>
       <c r="C510" s="5"/>
       <c r="E510" s="6"/>
       <c r="F510" s="6"/>
     </row>
-    <row r="511" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A511" s="3">
-        <v>551</v>
-      </c>
+    <row r="511" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A511" s="3"/>
       <c r="B511" s="4"/>
       <c r="C511" s="5"/>
       <c r="D511" s="6"/>
@@ -8807,19 +8331,15 @@
       <c r="F511" s="6"/>
       <c r="G511" s="6"/>
     </row>
-    <row r="512" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A512" s="3">
-        <v>552</v>
-      </c>
+    <row r="512" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A512" s="3"/>
       <c r="B512" s="4"/>
       <c r="C512" s="5"/>
       <c r="E512" s="6"/>
       <c r="F512" s="6"/>
     </row>
-    <row r="513" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A513" s="3">
-        <v>553</v>
-      </c>
+    <row r="513" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A513" s="3"/>
       <c r="B513" s="4"/>
       <c r="C513" s="5"/>
       <c r="D513" s="6"/>
@@ -8827,19 +8347,15 @@
       <c r="F513" s="6"/>
       <c r="G513" s="6"/>
     </row>
-    <row r="514" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A514" s="3">
-        <v>554</v>
-      </c>
+    <row r="514" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A514" s="3"/>
       <c r="B514" s="4"/>
       <c r="C514" s="5"/>
       <c r="E514" s="6"/>
       <c r="F514" s="6"/>
     </row>
-    <row r="515" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A515" s="3">
-        <v>555</v>
-      </c>
+    <row r="515" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A515" s="3"/>
       <c r="B515" s="4"/>
       <c r="C515" s="5"/>
       <c r="D515" s="6"/>
@@ -8847,19 +8363,15 @@
       <c r="F515" s="6"/>
       <c r="G515" s="6"/>
     </row>
-    <row r="516" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A516" s="3">
-        <v>556</v>
-      </c>
+    <row r="516" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A516" s="3"/>
       <c r="B516" s="4"/>
       <c r="C516" s="5"/>
       <c r="E516" s="6"/>
       <c r="F516" s="6"/>
     </row>
-    <row r="517" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A517" s="3">
-        <v>557</v>
-      </c>
+    <row r="517" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A517" s="3"/>
       <c r="B517" s="4"/>
       <c r="C517" s="5"/>
       <c r="D517" s="6"/>
@@ -8867,19 +8379,15 @@
       <c r="F517" s="6"/>
       <c r="G517" s="6"/>
     </row>
-    <row r="518" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A518" s="3">
-        <v>558</v>
-      </c>
+    <row r="518" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A518" s="3"/>
       <c r="B518" s="4"/>
       <c r="C518" s="5"/>
       <c r="E518" s="6"/>
       <c r="F518" s="6"/>
     </row>
-    <row r="519" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A519" s="3">
-        <v>559</v>
-      </c>
+    <row r="519" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A519" s="3"/>
       <c r="B519" s="4"/>
       <c r="C519" s="5"/>
       <c r="D519" s="6"/>
@@ -8887,19 +8395,15 @@
       <c r="F519" s="6"/>
       <c r="G519" s="6"/>
     </row>
-    <row r="520" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A520" s="3">
-        <v>560</v>
-      </c>
+    <row r="520" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A520" s="3"/>
       <c r="B520" s="4"/>
       <c r="C520" s="5"/>
       <c r="E520" s="6"/>
       <c r="F520" s="6"/>
     </row>
-    <row r="521" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A521" s="3">
-        <v>561</v>
-      </c>
+    <row r="521" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A521" s="3"/>
       <c r="B521" s="4"/>
       <c r="C521" s="5"/>
       <c r="D521" s="6"/>
@@ -8907,19 +8411,15 @@
       <c r="F521" s="6"/>
       <c r="G521" s="6"/>
     </row>
-    <row r="522" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A522" s="3">
-        <v>562</v>
-      </c>
+    <row r="522" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A522" s="3"/>
       <c r="B522" s="4"/>
       <c r="C522" s="5"/>
       <c r="E522" s="6"/>
       <c r="F522" s="6"/>
     </row>
-    <row r="523" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A523" s="3">
-        <v>563</v>
-      </c>
+    <row r="523" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A523" s="3"/>
       <c r="B523" s="4"/>
       <c r="C523" s="5"/>
       <c r="D523" s="6"/>
@@ -8927,19 +8427,15 @@
       <c r="F523" s="6"/>
       <c r="G523" s="6"/>
     </row>
-    <row r="524" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A524" s="3">
-        <v>564</v>
-      </c>
+    <row r="524" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A524" s="3"/>
       <c r="B524" s="4"/>
       <c r="C524" s="5"/>
       <c r="E524" s="6"/>
       <c r="F524" s="6"/>
     </row>
-    <row r="525" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A525" s="3">
-        <v>565</v>
-      </c>
+    <row r="525" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A525" s="3"/>
       <c r="B525" s="4"/>
       <c r="C525" s="5"/>
       <c r="D525" s="6"/>
@@ -8947,19 +8443,15 @@
       <c r="F525" s="6"/>
       <c r="G525" s="6"/>
     </row>
-    <row r="526" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A526" s="3">
-        <v>566</v>
-      </c>
+    <row r="526" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A526" s="3"/>
       <c r="B526" s="4"/>
       <c r="C526" s="5"/>
       <c r="E526" s="6"/>
       <c r="F526" s="6"/>
     </row>
-    <row r="527" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A527" s="3">
-        <v>567</v>
-      </c>
+    <row r="527" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A527" s="3"/>
       <c r="B527" s="4"/>
       <c r="C527" s="5"/>
       <c r="D527" s="6"/>
@@ -8967,19 +8459,15 @@
       <c r="F527" s="6"/>
       <c r="G527" s="6"/>
     </row>
-    <row r="528" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A528" s="3">
-        <v>568</v>
-      </c>
+    <row r="528" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A528" s="3"/>
       <c r="B528" s="4"/>
       <c r="C528" s="5"/>
       <c r="E528" s="6"/>
       <c r="F528" s="6"/>
     </row>
-    <row r="529" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A529" s="3">
-        <v>569</v>
-      </c>
+    <row r="529" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A529" s="3"/>
       <c r="B529" s="4"/>
       <c r="C529" s="5"/>
       <c r="D529" s="6"/>
@@ -8987,19 +8475,15 @@
       <c r="F529" s="6"/>
       <c r="G529" s="6"/>
     </row>
-    <row r="530" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A530" s="3">
-        <v>570</v>
-      </c>
+    <row r="530" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A530" s="3"/>
       <c r="B530" s="4"/>
       <c r="C530" s="5"/>
       <c r="E530" s="6"/>
       <c r="F530" s="6"/>
     </row>
-    <row r="531" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A531" s="3">
-        <v>571</v>
-      </c>
+    <row r="531" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A531" s="3"/>
       <c r="B531" s="4"/>
       <c r="C531" s="5"/>
       <c r="D531" s="6"/>
@@ -9007,19 +8491,15 @@
       <c r="F531" s="6"/>
       <c r="G531" s="6"/>
     </row>
-    <row r="532" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A532" s="3">
-        <v>572</v>
-      </c>
+    <row r="532" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A532" s="3"/>
       <c r="B532" s="4"/>
       <c r="C532" s="5"/>
       <c r="E532" s="6"/>
       <c r="F532" s="6"/>
     </row>
-    <row r="533" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A533" s="3">
-        <v>573</v>
-      </c>
+    <row r="533" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A533" s="3"/>
       <c r="B533" s="4"/>
       <c r="C533" s="5"/>
       <c r="D533" s="6"/>
@@ -9027,19 +8507,15 @@
       <c r="F533" s="6"/>
       <c r="G533" s="6"/>
     </row>
-    <row r="534" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A534" s="3">
-        <v>574</v>
-      </c>
+    <row r="534" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A534" s="3"/>
       <c r="B534" s="4"/>
       <c r="C534" s="5"/>
       <c r="E534" s="6"/>
       <c r="F534" s="6"/>
     </row>
-    <row r="535" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A535" s="3">
-        <v>575</v>
-      </c>
+    <row r="535" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A535" s="3"/>
       <c r="B535" s="4"/>
       <c r="C535" s="5"/>
       <c r="D535" s="6"/>
@@ -9047,19 +8523,15 @@
       <c r="F535" s="6"/>
       <c r="G535" s="6"/>
     </row>
-    <row r="536" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A536" s="3">
-        <v>576</v>
-      </c>
+    <row r="536" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A536" s="3"/>
       <c r="B536" s="4"/>
       <c r="C536" s="5"/>
       <c r="E536" s="6"/>
       <c r="F536" s="6"/>
     </row>
-    <row r="537" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A537" s="3">
-        <v>577</v>
-      </c>
+    <row r="537" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A537" s="3"/>
       <c r="B537" s="4"/>
       <c r="C537" s="5"/>
       <c r="D537" s="6"/>
@@ -9067,19 +8539,15 @@
       <c r="F537" s="6"/>
       <c r="G537" s="6"/>
     </row>
-    <row r="538" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A538" s="3">
-        <v>578</v>
-      </c>
+    <row r="538" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A538" s="3"/>
       <c r="B538" s="4"/>
       <c r="C538" s="5"/>
       <c r="E538" s="6"/>
       <c r="F538" s="6"/>
     </row>
-    <row r="539" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A539" s="3">
-        <v>579</v>
-      </c>
+    <row r="539" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A539" s="3"/>
       <c r="B539" s="4"/>
       <c r="C539" s="5"/>
       <c r="D539" s="6"/>
@@ -9087,19 +8555,15 @@
       <c r="F539" s="6"/>
       <c r="G539" s="6"/>
     </row>
-    <row r="540" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A540" s="3">
-        <v>580</v>
-      </c>
+    <row r="540" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A540" s="3"/>
       <c r="B540" s="4"/>
       <c r="C540" s="5"/>
       <c r="E540" s="6"/>
       <c r="F540" s="6"/>
     </row>
-    <row r="541" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A541" s="3">
-        <v>581</v>
-      </c>
+    <row r="541" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A541" s="3"/>
       <c r="B541" s="4"/>
       <c r="C541" s="5"/>
       <c r="D541" s="6"/>
@@ -9107,19 +8571,15 @@
       <c r="F541" s="6"/>
       <c r="G541" s="6"/>
     </row>
-    <row r="542" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A542" s="3">
-        <v>582</v>
-      </c>
+    <row r="542" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A542" s="3"/>
       <c r="B542" s="4"/>
       <c r="C542" s="5"/>
       <c r="E542" s="6"/>
       <c r="F542" s="6"/>
     </row>
-    <row r="543" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A543" s="3">
-        <v>583</v>
-      </c>
+    <row r="543" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A543" s="3"/>
       <c r="B543" s="4"/>
       <c r="C543" s="5"/>
       <c r="D543" s="6"/>
@@ -9127,19 +8587,15 @@
       <c r="F543" s="6"/>
       <c r="G543" s="6"/>
     </row>
-    <row r="544" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A544" s="3">
-        <v>584</v>
-      </c>
+    <row r="544" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A544" s="3"/>
       <c r="B544" s="4"/>
       <c r="C544" s="5"/>
       <c r="E544" s="6"/>
       <c r="F544" s="6"/>
     </row>
-    <row r="545" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A545" s="3">
-        <v>585</v>
-      </c>
+    <row r="545" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A545" s="3"/>
       <c r="B545" s="4"/>
       <c r="C545" s="5"/>
       <c r="D545" s="6"/>
@@ -9147,19 +8603,15 @@
       <c r="F545" s="6"/>
       <c r="G545" s="6"/>
     </row>
-    <row r="546" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A546" s="3">
-        <v>586</v>
-      </c>
+    <row r="546" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A546" s="3"/>
       <c r="B546" s="4"/>
       <c r="C546" s="5"/>
       <c r="E546" s="6"/>
       <c r="F546" s="6"/>
     </row>
-    <row r="547" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A547" s="3">
-        <v>587</v>
-      </c>
+    <row r="547" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A547" s="3"/>
       <c r="B547" s="4"/>
       <c r="C547" s="5"/>
       <c r="D547" s="6"/>
@@ -9167,19 +8619,15 @@
       <c r="F547" s="6"/>
       <c r="G547" s="6"/>
     </row>
-    <row r="548" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A548" s="3">
-        <v>588</v>
-      </c>
+    <row r="548" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A548" s="3"/>
       <c r="B548" s="4"/>
       <c r="C548" s="5"/>
       <c r="E548" s="6"/>
       <c r="F548" s="6"/>
     </row>
-    <row r="549" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A549" s="3">
-        <v>589</v>
-      </c>
+    <row r="549" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A549" s="3"/>
       <c r="B549" s="4"/>
       <c r="C549" s="5"/>
       <c r="D549" s="6"/>
@@ -9187,19 +8635,15 @@
       <c r="F549" s="6"/>
       <c r="G549" s="6"/>
     </row>
-    <row r="550" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A550" s="3">
-        <v>590</v>
-      </c>
+    <row r="550" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A550" s="3"/>
       <c r="B550" s="4"/>
       <c r="C550" s="5"/>
       <c r="E550" s="6"/>
       <c r="F550" s="6"/>
     </row>
-    <row r="551" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A551" s="3">
-        <v>591</v>
-      </c>
+    <row r="551" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A551" s="3"/>
       <c r="B551" s="4"/>
       <c r="C551" s="5"/>
       <c r="D551" s="6"/>
@@ -9207,19 +8651,15 @@
       <c r="F551" s="6"/>
       <c r="G551" s="6"/>
     </row>
-    <row r="552" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A552" s="3">
-        <v>592</v>
-      </c>
+    <row r="552" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A552" s="3"/>
       <c r="B552" s="4"/>
       <c r="C552" s="5"/>
       <c r="E552" s="6"/>
       <c r="F552" s="6"/>
     </row>
-    <row r="553" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A553" s="3">
-        <v>593</v>
-      </c>
+    <row r="553" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A553" s="3"/>
       <c r="B553" s="4"/>
       <c r="C553" s="5"/>
       <c r="D553" s="6"/>
@@ -9227,19 +8667,15 @@
       <c r="F553" s="6"/>
       <c r="G553" s="6"/>
     </row>
-    <row r="554" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A554" s="3">
-        <v>594</v>
-      </c>
+    <row r="554" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A554" s="3"/>
       <c r="B554" s="4"/>
       <c r="C554" s="5"/>
       <c r="E554" s="6"/>
       <c r="F554" s="6"/>
     </row>
-    <row r="555" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A555" s="3">
-        <v>595</v>
-      </c>
+    <row r="555" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A555" s="3"/>
       <c r="B555" s="4"/>
       <c r="C555" s="5"/>
       <c r="D555" s="6"/>
@@ -9247,19 +8683,15 @@
       <c r="F555" s="6"/>
       <c r="G555" s="6"/>
     </row>
-    <row r="556" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A556" s="3">
-        <v>596</v>
-      </c>
+    <row r="556" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A556" s="3"/>
       <c r="B556" s="4"/>
       <c r="C556" s="5"/>
       <c r="E556" s="6"/>
       <c r="F556" s="6"/>
     </row>
-    <row r="557" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A557" s="3">
-        <v>597</v>
-      </c>
+    <row r="557" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A557" s="3"/>
       <c r="B557" s="4"/>
       <c r="C557" s="5"/>
       <c r="D557" s="6"/>
@@ -9267,19 +8699,15 @@
       <c r="F557" s="6"/>
       <c r="G557" s="6"/>
     </row>
-    <row r="558" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A558" s="3">
-        <v>598</v>
-      </c>
+    <row r="558" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A558" s="3"/>
       <c r="B558" s="4"/>
       <c r="C558" s="5"/>
       <c r="E558" s="6"/>
       <c r="F558" s="6"/>
     </row>
-    <row r="559" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A559" s="3">
-        <v>599</v>
-      </c>
+    <row r="559" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A559" s="3"/>
       <c r="B559" s="4"/>
       <c r="C559" s="5"/>
       <c r="D559" s="6"/>
@@ -9287,19 +8715,15 @@
       <c r="F559" s="6"/>
       <c r="G559" s="6"/>
     </row>
-    <row r="560" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A560" s="3">
-        <v>600</v>
-      </c>
+    <row r="560" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A560" s="3"/>
       <c r="B560" s="4"/>
       <c r="C560" s="5"/>
       <c r="E560" s="6"/>
       <c r="F560" s="6"/>
     </row>
-    <row r="561" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A561" s="3">
-        <v>601</v>
-      </c>
+    <row r="561" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A561" s="3"/>
       <c r="B561" s="4"/>
       <c r="C561" s="5"/>
       <c r="D561" s="6"/>
@@ -9307,19 +8731,15 @@
       <c r="F561" s="6"/>
       <c r="G561" s="6"/>
     </row>
-    <row r="562" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A562" s="3">
-        <v>602</v>
-      </c>
+    <row r="562" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A562" s="3"/>
       <c r="B562" s="4"/>
       <c r="C562" s="5"/>
       <c r="E562" s="6"/>
       <c r="F562" s="6"/>
     </row>
-    <row r="563" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A563" s="3">
-        <v>603</v>
-      </c>
+    <row r="563" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A563" s="3"/>
       <c r="B563" s="4"/>
       <c r="C563" s="5"/>
       <c r="D563" s="6"/>
@@ -9327,19 +8747,15 @@
       <c r="F563" s="6"/>
       <c r="G563" s="6"/>
     </row>
-    <row r="564" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A564" s="3">
-        <v>604</v>
-      </c>
+    <row r="564" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A564" s="3"/>
       <c r="B564" s="4"/>
       <c r="C564" s="5"/>
       <c r="E564" s="6"/>
       <c r="F564" s="6"/>
     </row>
-    <row r="565" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A565" s="3">
-        <v>605</v>
-      </c>
+    <row r="565" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A565" s="3"/>
       <c r="B565" s="4"/>
       <c r="C565" s="5"/>
       <c r="D565" s="6"/>
@@ -9347,19 +8763,15 @@
       <c r="F565" s="6"/>
       <c r="G565" s="6"/>
     </row>
-    <row r="566" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A566" s="3">
-        <v>606</v>
-      </c>
+    <row r="566" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A566" s="3"/>
       <c r="B566" s="4"/>
       <c r="C566" s="5"/>
       <c r="E566" s="6"/>
       <c r="F566" s="6"/>
     </row>
-    <row r="567" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A567" s="3">
-        <v>607</v>
-      </c>
+    <row r="567" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A567" s="3"/>
       <c r="B567" s="4"/>
       <c r="C567" s="5"/>
       <c r="D567" s="6"/>
@@ -9367,19 +8779,15 @@
       <c r="F567" s="6"/>
       <c r="G567" s="6"/>
     </row>
-    <row r="568" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A568" s="3">
-        <v>608</v>
-      </c>
+    <row r="568" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A568" s="3"/>
       <c r="B568" s="4"/>
       <c r="C568" s="5"/>
       <c r="E568" s="6"/>
       <c r="F568" s="6"/>
     </row>
-    <row r="569" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A569" s="3">
-        <v>609</v>
-      </c>
+    <row r="569" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A569" s="3"/>
       <c r="B569" s="4"/>
       <c r="C569" s="5"/>
       <c r="D569" s="6"/>
@@ -9387,19 +8795,15 @@
       <c r="F569" s="6"/>
       <c r="G569" s="6"/>
     </row>
-    <row r="570" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A570" s="3">
-        <v>610</v>
-      </c>
+    <row r="570" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A570" s="3"/>
       <c r="B570" s="4"/>
       <c r="C570" s="5"/>
       <c r="E570" s="6"/>
       <c r="F570" s="6"/>
     </row>
-    <row r="571" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A571" s="3">
-        <v>611</v>
-      </c>
+    <row r="571" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A571" s="3"/>
       <c r="B571" s="4"/>
       <c r="C571" s="5"/>
       <c r="D571" s="6"/>
@@ -9407,19 +8811,15 @@
       <c r="F571" s="6"/>
       <c r="G571" s="6"/>
     </row>
-    <row r="572" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A572" s="3">
-        <v>612</v>
-      </c>
+    <row r="572" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A572" s="3"/>
       <c r="B572" s="4"/>
       <c r="C572" s="5"/>
       <c r="E572" s="6"/>
       <c r="F572" s="6"/>
     </row>
-    <row r="573" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A573" s="3">
-        <v>613</v>
-      </c>
+    <row r="573" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A573" s="3"/>
       <c r="B573" s="4"/>
       <c r="C573" s="5"/>
       <c r="D573" s="6"/>
@@ -9427,19 +8827,15 @@
       <c r="F573" s="6"/>
       <c r="G573" s="6"/>
     </row>
-    <row r="574" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A574" s="3">
-        <v>614</v>
-      </c>
+    <row r="574" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A574" s="3"/>
       <c r="B574" s="4"/>
       <c r="C574" s="5"/>
       <c r="E574" s="6"/>
       <c r="F574" s="6"/>
     </row>
-    <row r="575" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A575" s="3">
-        <v>615</v>
-      </c>
+    <row r="575" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A575" s="3"/>
       <c r="B575" s="4"/>
       <c r="C575" s="5"/>
       <c r="D575" s="6"/>
@@ -9447,19 +8843,15 @@
       <c r="F575" s="6"/>
       <c r="G575" s="6"/>
     </row>
-    <row r="576" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A576" s="3">
-        <v>616</v>
-      </c>
+    <row r="576" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A576" s="3"/>
       <c r="B576" s="4"/>
       <c r="C576" s="5"/>
       <c r="E576" s="6"/>
       <c r="F576" s="6"/>
     </row>
-    <row r="577" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A577" s="3">
-        <v>617</v>
-      </c>
+    <row r="577" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A577" s="3"/>
       <c r="B577" s="4"/>
       <c r="C577" s="5"/>
       <c r="D577" s="6"/>
@@ -9467,19 +8859,15 @@
       <c r="F577" s="6"/>
       <c r="G577" s="6"/>
     </row>
-    <row r="578" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A578" s="3">
-        <v>618</v>
-      </c>
+    <row r="578" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A578" s="3"/>
       <c r="B578" s="4"/>
       <c r="C578" s="5"/>
       <c r="E578" s="6"/>
       <c r="F578" s="6"/>
     </row>
-    <row r="579" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A579" s="3">
-        <v>619</v>
-      </c>
+    <row r="579" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A579" s="3"/>
       <c r="B579" s="4"/>
       <c r="C579" s="5"/>
       <c r="D579" s="6"/>
@@ -9487,19 +8875,15 @@
       <c r="F579" s="6"/>
       <c r="G579" s="6"/>
     </row>
-    <row r="580" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A580" s="3">
-        <v>620</v>
-      </c>
+    <row r="580" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A580" s="3"/>
       <c r="B580" s="4"/>
       <c r="C580" s="5"/>
       <c r="E580" s="6"/>
       <c r="F580" s="6"/>
     </row>
-    <row r="581" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A581" s="3">
-        <v>621</v>
-      </c>
+    <row r="581" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A581" s="3"/>
       <c r="B581" s="4"/>
       <c r="C581" s="5"/>
       <c r="D581" s="6"/>
@@ -9507,19 +8891,15 @@
       <c r="F581" s="6"/>
       <c r="G581" s="6"/>
     </row>
-    <row r="582" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A582" s="3">
-        <v>622</v>
-      </c>
+    <row r="582" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A582" s="3"/>
       <c r="B582" s="4"/>
       <c r="C582" s="5"/>
       <c r="E582" s="6"/>
       <c r="F582" s="6"/>
     </row>
-    <row r="583" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A583" s="3">
-        <v>623</v>
-      </c>
+    <row r="583" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A583" s="3"/>
       <c r="B583" s="4"/>
       <c r="C583" s="5"/>
       <c r="D583" s="6"/>
@@ -9527,19 +8907,15 @@
       <c r="F583" s="6"/>
       <c r="G583" s="6"/>
     </row>
-    <row r="584" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A584" s="3">
-        <v>624</v>
-      </c>
+    <row r="584" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A584" s="3"/>
       <c r="B584" s="4"/>
       <c r="C584" s="5"/>
       <c r="E584" s="6"/>
       <c r="F584" s="6"/>
     </row>
-    <row r="585" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A585" s="3">
-        <v>625</v>
-      </c>
+    <row r="585" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A585" s="3"/>
       <c r="B585" s="4"/>
       <c r="C585" s="5"/>
       <c r="D585" s="6"/>
@@ -9547,19 +8923,15 @@
       <c r="F585" s="6"/>
       <c r="G585" s="6"/>
     </row>
-    <row r="586" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A586" s="3">
-        <v>626</v>
-      </c>
+    <row r="586" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A586" s="3"/>
       <c r="B586" s="4"/>
       <c r="C586" s="5"/>
       <c r="E586" s="6"/>
       <c r="F586" s="6"/>
     </row>
-    <row r="587" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A587" s="3">
-        <v>627</v>
-      </c>
+    <row r="587" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A587" s="3"/>
       <c r="B587" s="4"/>
       <c r="C587" s="5"/>
       <c r="D587" s="6"/>
@@ -9567,19 +8939,15 @@
       <c r="F587" s="6"/>
       <c r="G587" s="6"/>
     </row>
-    <row r="588" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A588" s="3">
-        <v>628</v>
-      </c>
+    <row r="588" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A588" s="3"/>
       <c r="B588" s="4"/>
       <c r="C588" s="5"/>
       <c r="E588" s="6"/>
       <c r="F588" s="6"/>
     </row>
-    <row r="589" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A589" s="3">
-        <v>629</v>
-      </c>
+    <row r="589" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A589" s="3"/>
       <c r="B589" s="4"/>
       <c r="C589" s="5"/>
       <c r="D589" s="6"/>
@@ -9587,19 +8955,15 @@
       <c r="F589" s="6"/>
       <c r="G589" s="6"/>
     </row>
-    <row r="590" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A590" s="3">
-        <v>630</v>
-      </c>
+    <row r="590" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A590" s="3"/>
       <c r="B590" s="4"/>
       <c r="C590" s="5"/>
       <c r="E590" s="6"/>
       <c r="F590" s="6"/>
     </row>
-    <row r="591" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A591" s="3">
-        <v>631</v>
-      </c>
+    <row r="591" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A591" s="3"/>
       <c r="B591" s="4"/>
       <c r="C591" s="5"/>
       <c r="D591" s="6"/>
@@ -9607,19 +8971,15 @@
       <c r="F591" s="6"/>
       <c r="G591" s="6"/>
     </row>
-    <row r="592" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A592" s="3">
-        <v>632</v>
-      </c>
+    <row r="592" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A592" s="3"/>
       <c r="B592" s="4"/>
       <c r="C592" s="5"/>
       <c r="E592" s="6"/>
       <c r="F592" s="6"/>
     </row>
-    <row r="593" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A593" s="3">
-        <v>633</v>
-      </c>
+    <row r="593" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A593" s="3"/>
       <c r="B593" s="4"/>
       <c r="C593" s="5"/>
       <c r="D593" s="6"/>
@@ -9627,19 +8987,15 @@
       <c r="F593" s="6"/>
       <c r="G593" s="6"/>
     </row>
-    <row r="594" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A594" s="3">
-        <v>634</v>
-      </c>
+    <row r="594" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A594" s="3"/>
       <c r="B594" s="4"/>
       <c r="C594" s="5"/>
       <c r="E594" s="6"/>
       <c r="F594" s="6"/>
     </row>
-    <row r="595" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A595" s="3">
-        <v>635</v>
-      </c>
+    <row r="595" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A595" s="3"/>
       <c r="B595" s="4"/>
       <c r="C595" s="5"/>
       <c r="D595" s="6"/>
@@ -9647,19 +9003,15 @@
       <c r="F595" s="6"/>
       <c r="G595" s="6"/>
     </row>
-    <row r="596" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A596" s="3">
-        <v>636</v>
-      </c>
+    <row r="596" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A596" s="3"/>
       <c r="B596" s="4"/>
       <c r="C596" s="5"/>
       <c r="E596" s="6"/>
       <c r="F596" s="6"/>
     </row>
-    <row r="597" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A597" s="3">
-        <v>637</v>
-      </c>
+    <row r="597" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A597" s="3"/>
       <c r="B597" s="4"/>
       <c r="C597" s="5"/>
       <c r="D597" s="6"/>
@@ -9667,19 +9019,15 @@
       <c r="F597" s="6"/>
       <c r="G597" s="6"/>
     </row>
-    <row r="598" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A598" s="3">
-        <v>638</v>
-      </c>
+    <row r="598" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A598" s="3"/>
       <c r="B598" s="4"/>
       <c r="C598" s="5"/>
       <c r="E598" s="6"/>
       <c r="F598" s="6"/>
     </row>
-    <row r="599" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A599" s="3">
-        <v>639</v>
-      </c>
+    <row r="599" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A599" s="3"/>
       <c r="B599" s="4"/>
       <c r="C599" s="5"/>
       <c r="D599" s="6"/>
@@ -9687,19 +9035,15 @@
       <c r="F599" s="6"/>
       <c r="G599" s="6"/>
     </row>
-    <row r="600" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A600" s="3">
-        <v>640</v>
-      </c>
+    <row r="600" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A600" s="3"/>
       <c r="B600" s="4"/>
       <c r="C600" s="5"/>
       <c r="E600" s="6"/>
       <c r="F600" s="6"/>
     </row>
-    <row r="601" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A601" s="3">
-        <v>641</v>
-      </c>
+    <row r="601" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A601" s="3"/>
       <c r="B601" s="4"/>
       <c r="C601" s="5"/>
       <c r="D601" s="6"/>
@@ -9707,19 +9051,15 @@
       <c r="F601" s="6"/>
       <c r="G601" s="6"/>
     </row>
-    <row r="602" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A602" s="3">
-        <v>642</v>
-      </c>
+    <row r="602" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A602" s="3"/>
       <c r="B602" s="4"/>
       <c r="C602" s="5"/>
       <c r="E602" s="6"/>
       <c r="F602" s="6"/>
     </row>
-    <row r="603" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A603" s="3">
-        <v>643</v>
-      </c>
+    <row r="603" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A603" s="3"/>
       <c r="B603" s="4"/>
       <c r="C603" s="5"/>
       <c r="D603" s="6"/>
@@ -9727,19 +9067,15 @@
       <c r="F603" s="6"/>
       <c r="G603" s="6"/>
     </row>
-    <row r="604" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A604" s="3">
-        <v>644</v>
-      </c>
+    <row r="604" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A604" s="3"/>
       <c r="B604" s="4"/>
       <c r="C604" s="5"/>
       <c r="E604" s="6"/>
       <c r="F604" s="6"/>
     </row>
-    <row r="605" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A605" s="3">
-        <v>645</v>
-      </c>
+    <row r="605" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A605" s="3"/>
       <c r="B605" s="4"/>
       <c r="C605" s="5"/>
       <c r="D605" s="6"/>
@@ -9747,19 +9083,15 @@
       <c r="F605" s="6"/>
       <c r="G605" s="6"/>
     </row>
-    <row r="606" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A606" s="3">
-        <v>646</v>
-      </c>
+    <row r="606" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A606" s="3"/>
       <c r="B606" s="4"/>
       <c r="C606" s="5"/>
       <c r="E606" s="6"/>
       <c r="F606" s="6"/>
     </row>
-    <row r="607" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A607" s="3">
-        <v>647</v>
-      </c>
+    <row r="607" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A607" s="3"/>
       <c r="B607" s="4"/>
       <c r="C607" s="5"/>
       <c r="D607" s="6"/>
@@ -9767,19 +9099,15 @@
       <c r="F607" s="6"/>
       <c r="G607" s="6"/>
     </row>
-    <row r="608" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A608" s="3">
-        <v>648</v>
-      </c>
+    <row r="608" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A608" s="3"/>
       <c r="B608" s="4"/>
       <c r="C608" s="5"/>
       <c r="E608" s="6"/>
       <c r="F608" s="6"/>
     </row>
-    <row r="609" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A609" s="3">
-        <v>649</v>
-      </c>
+    <row r="609" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A609" s="3"/>
       <c r="B609" s="4"/>
       <c r="C609" s="5"/>
       <c r="D609" s="6"/>
@@ -9787,19 +9115,15 @@
       <c r="F609" s="6"/>
       <c r="G609" s="6"/>
     </row>
-    <row r="610" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A610" s="3">
-        <v>650</v>
-      </c>
+    <row r="610" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A610" s="3"/>
       <c r="B610" s="4"/>
       <c r="C610" s="5"/>
       <c r="E610" s="6"/>
       <c r="F610" s="6"/>
     </row>
-    <row r="611" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A611" s="3">
-        <v>651</v>
-      </c>
+    <row r="611" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A611" s="3"/>
       <c r="B611" s="4"/>
       <c r="C611" s="5"/>
       <c r="D611" s="6"/>
@@ -9807,19 +9131,15 @@
       <c r="F611" s="6"/>
       <c r="G611" s="6"/>
     </row>
-    <row r="612" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A612" s="3">
-        <v>652</v>
-      </c>
+    <row r="612" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A612" s="3"/>
       <c r="B612" s="4"/>
       <c r="C612" s="5"/>
       <c r="E612" s="6"/>
       <c r="F612" s="6"/>
     </row>
-    <row r="613" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A613" s="3">
-        <v>653</v>
-      </c>
+    <row r="613" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A613" s="3"/>
       <c r="B613" s="4"/>
       <c r="C613" s="5"/>
       <c r="D613" s="6"/>
@@ -9827,19 +9147,15 @@
       <c r="F613" s="6"/>
       <c r="G613" s="6"/>
     </row>
-    <row r="614" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A614" s="3">
-        <v>654</v>
-      </c>
+    <row r="614" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A614" s="3"/>
       <c r="B614" s="4"/>
       <c r="C614" s="5"/>
       <c r="E614" s="6"/>
       <c r="F614" s="6"/>
     </row>
-    <row r="615" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A615" s="3">
-        <v>655</v>
-      </c>
+    <row r="615" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A615" s="3"/>
       <c r="B615" s="4"/>
       <c r="C615" s="5"/>
       <c r="D615" s="6"/>
@@ -9847,19 +9163,15 @@
       <c r="F615" s="6"/>
       <c r="G615" s="6"/>
     </row>
-    <row r="616" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A616" s="3">
-        <v>656</v>
-      </c>
+    <row r="616" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A616" s="3"/>
       <c r="B616" s="4"/>
       <c r="C616" s="5"/>
       <c r="E616" s="6"/>
       <c r="F616" s="6"/>
     </row>
-    <row r="617" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A617" s="3">
-        <v>657</v>
-      </c>
+    <row r="617" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A617" s="3"/>
       <c r="B617" s="4"/>
       <c r="C617" s="5"/>
       <c r="D617" s="6"/>
@@ -9867,19 +9179,15 @@
       <c r="F617" s="6"/>
       <c r="G617" s="6"/>
     </row>
-    <row r="618" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A618" s="3">
-        <v>658</v>
-      </c>
+    <row r="618" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A618" s="3"/>
       <c r="B618" s="4"/>
       <c r="C618" s="5"/>
       <c r="E618" s="6"/>
       <c r="F618" s="6"/>
     </row>
-    <row r="619" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A619" s="3">
-        <v>659</v>
-      </c>
+    <row r="619" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A619" s="3"/>
       <c r="B619" s="4"/>
       <c r="C619" s="5"/>
       <c r="D619" s="6"/>
@@ -9887,19 +9195,15 @@
       <c r="F619" s="6"/>
       <c r="G619" s="6"/>
     </row>
-    <row r="620" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A620" s="3">
-        <v>660</v>
-      </c>
+    <row r="620" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A620" s="3"/>
       <c r="B620" s="4"/>
       <c r="C620" s="5"/>
       <c r="E620" s="6"/>
       <c r="F620" s="6"/>
     </row>
-    <row r="621" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A621" s="3">
-        <v>661</v>
-      </c>
+    <row r="621" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A621" s="3"/>
       <c r="B621" s="4"/>
       <c r="C621" s="5"/>
       <c r="D621" s="6"/>
@@ -9907,19 +9211,15 @@
       <c r="F621" s="6"/>
       <c r="G621" s="6"/>
     </row>
-    <row r="622" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A622" s="3">
-        <v>662</v>
-      </c>
+    <row r="622" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A622" s="3"/>
       <c r="B622" s="4"/>
       <c r="C622" s="5"/>
       <c r="E622" s="6"/>
       <c r="F622" s="6"/>
     </row>
-    <row r="623" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A623" s="3">
-        <v>663</v>
-      </c>
+    <row r="623" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A623" s="3"/>
       <c r="B623" s="4"/>
       <c r="C623" s="5"/>
       <c r="D623" s="6"/>
@@ -9927,19 +9227,15 @@
       <c r="F623" s="6"/>
       <c r="G623" s="6"/>
     </row>
-    <row r="624" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A624" s="3">
-        <v>664</v>
-      </c>
+    <row r="624" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A624" s="3"/>
       <c r="B624" s="4"/>
       <c r="C624" s="5"/>
       <c r="E624" s="6"/>
       <c r="F624" s="6"/>
     </row>
-    <row r="625" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A625" s="3">
-        <v>665</v>
-      </c>
+    <row r="625" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A625" s="3"/>
       <c r="B625" s="4"/>
       <c r="C625" s="5"/>
       <c r="D625" s="6"/>
@@ -9947,19 +9243,15 @@
       <c r="F625" s="6"/>
       <c r="G625" s="6"/>
     </row>
-    <row r="626" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A626" s="3">
-        <v>666</v>
-      </c>
+    <row r="626" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A626" s="3"/>
       <c r="B626" s="4"/>
       <c r="C626" s="5"/>
       <c r="E626" s="6"/>
       <c r="F626" s="6"/>
     </row>
-    <row r="627" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A627" s="3">
-        <v>667</v>
-      </c>
+    <row r="627" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A627" s="3"/>
       <c r="B627" s="4"/>
       <c r="C627" s="5"/>
       <c r="D627" s="6"/>
@@ -9967,19 +9259,15 @@
       <c r="F627" s="6"/>
       <c r="G627" s="6"/>
     </row>
-    <row r="628" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A628" s="3">
-        <v>668</v>
-      </c>
+    <row r="628" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A628" s="3"/>
       <c r="B628" s="4"/>
       <c r="C628" s="5"/>
       <c r="E628" s="6"/>
       <c r="F628" s="6"/>
     </row>
-    <row r="629" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A629" s="3">
-        <v>669</v>
-      </c>
+    <row r="629" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A629" s="3"/>
       <c r="B629" s="4"/>
       <c r="C629" s="5"/>
       <c r="D629" s="6"/>
@@ -9987,19 +9275,15 @@
       <c r="F629" s="6"/>
       <c r="G629" s="6"/>
     </row>
-    <row r="630" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A630" s="3">
-        <v>670</v>
-      </c>
+    <row r="630" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A630" s="3"/>
       <c r="B630" s="4"/>
       <c r="C630" s="5"/>
       <c r="E630" s="6"/>
       <c r="F630" s="6"/>
     </row>
-    <row r="631" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A631" s="3">
-        <v>671</v>
-      </c>
+    <row r="631" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A631" s="3"/>
       <c r="B631" s="4"/>
       <c r="C631" s="5"/>
       <c r="D631" s="6"/>
@@ -10007,19 +9291,15 @@
       <c r="F631" s="6"/>
       <c r="G631" s="6"/>
     </row>
-    <row r="632" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A632" s="3">
-        <v>672</v>
-      </c>
+    <row r="632" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A632" s="3"/>
       <c r="B632" s="4"/>
       <c r="C632" s="5"/>
       <c r="E632" s="6"/>
       <c r="F632" s="6"/>
     </row>
-    <row r="633" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A633" s="3">
-        <v>673</v>
-      </c>
+    <row r="633" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A633" s="3"/>
       <c r="B633" s="4"/>
       <c r="C633" s="5"/>
       <c r="D633" s="6"/>
@@ -10027,19 +9307,15 @@
       <c r="F633" s="6"/>
       <c r="G633" s="6"/>
     </row>
-    <row r="634" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A634" s="3">
-        <v>674</v>
-      </c>
+    <row r="634" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A634" s="3"/>
       <c r="B634" s="4"/>
       <c r="C634" s="5"/>
       <c r="E634" s="6"/>
       <c r="F634" s="6"/>
     </row>
-    <row r="635" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A635" s="3">
-        <v>675</v>
-      </c>
+    <row r="635" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A635" s="3"/>
       <c r="B635" s="4"/>
       <c r="C635" s="5"/>
       <c r="D635" s="6"/>
@@ -10047,19 +9323,15 @@
       <c r="F635" s="6"/>
       <c r="G635" s="6"/>
     </row>
-    <row r="636" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A636" s="3">
-        <v>676</v>
-      </c>
+    <row r="636" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A636" s="3"/>
       <c r="B636" s="4"/>
       <c r="C636" s="5"/>
       <c r="E636" s="6"/>
       <c r="F636" s="6"/>
     </row>
-    <row r="637" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A637" s="3">
-        <v>677</v>
-      </c>
+    <row r="637" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A637" s="3"/>
       <c r="B637" s="4"/>
       <c r="C637" s="5"/>
       <c r="D637" s="6"/>
@@ -10067,19 +9339,15 @@
       <c r="F637" s="6"/>
       <c r="G637" s="6"/>
     </row>
-    <row r="638" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A638" s="3">
-        <v>678</v>
-      </c>
+    <row r="638" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A638" s="3"/>
       <c r="B638" s="4"/>
       <c r="C638" s="5"/>
       <c r="E638" s="6"/>
       <c r="F638" s="6"/>
     </row>
-    <row r="639" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A639" s="3">
-        <v>679</v>
-      </c>
+    <row r="639" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A639" s="3"/>
       <c r="B639" s="4"/>
       <c r="C639" s="5"/>
       <c r="D639" s="6"/>
@@ -10087,19 +9355,15 @@
       <c r="F639" s="6"/>
       <c r="G639" s="6"/>
     </row>
-    <row r="640" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A640" s="3">
-        <v>680</v>
-      </c>
+    <row r="640" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A640" s="3"/>
       <c r="B640" s="4"/>
       <c r="C640" s="5"/>
       <c r="E640" s="6"/>
       <c r="F640" s="6"/>
     </row>
-    <row r="641" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A641" s="3">
-        <v>681</v>
-      </c>
+    <row r="641" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A641" s="3"/>
       <c r="B641" s="4"/>
       <c r="C641" s="5"/>
       <c r="D641" s="6"/>
@@ -10107,19 +9371,15 @@
       <c r="F641" s="6"/>
       <c r="G641" s="6"/>
     </row>
-    <row r="642" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A642" s="3">
-        <v>682</v>
-      </c>
+    <row r="642" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A642" s="3"/>
       <c r="B642" s="4"/>
       <c r="C642" s="5"/>
       <c r="E642" s="6"/>
       <c r="F642" s="6"/>
     </row>
-    <row r="643" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A643" s="3">
-        <v>683</v>
-      </c>
+    <row r="643" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A643" s="3"/>
       <c r="B643" s="4"/>
       <c r="C643" s="5"/>
       <c r="D643" s="6"/>
@@ -10127,19 +9387,15 @@
       <c r="F643" s="6"/>
       <c r="G643" s="6"/>
     </row>
-    <row r="644" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A644" s="3">
-        <v>684</v>
-      </c>
+    <row r="644" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A644" s="3"/>
       <c r="B644" s="4"/>
       <c r="C644" s="5"/>
       <c r="E644" s="6"/>
       <c r="F644" s="6"/>
     </row>
-    <row r="645" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A645" s="3">
-        <v>685</v>
-      </c>
+    <row r="645" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A645" s="3"/>
       <c r="B645" s="4"/>
       <c r="C645" s="5"/>
       <c r="D645" s="6"/>
@@ -10147,19 +9403,15 @@
       <c r="F645" s="6"/>
       <c r="G645" s="6"/>
     </row>
-    <row r="646" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A646" s="3">
-        <v>686</v>
-      </c>
+    <row r="646" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A646" s="3"/>
       <c r="B646" s="4"/>
       <c r="C646" s="5"/>
       <c r="E646" s="6"/>
       <c r="F646" s="6"/>
     </row>
-    <row r="647" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A647" s="3">
-        <v>687</v>
-      </c>
+    <row r="647" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A647" s="3"/>
       <c r="B647" s="4"/>
       <c r="C647" s="5"/>
       <c r="D647" s="6"/>
@@ -10167,19 +9419,15 @@
       <c r="F647" s="6"/>
       <c r="G647" s="6"/>
     </row>
-    <row r="648" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A648" s="3">
-        <v>688</v>
-      </c>
+    <row r="648" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A648" s="3"/>
       <c r="B648" s="4"/>
       <c r="C648" s="5"/>
       <c r="E648" s="6"/>
       <c r="F648" s="6"/>
     </row>
-    <row r="649" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A649" s="3">
-        <v>689</v>
-      </c>
+    <row r="649" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A649" s="3"/>
       <c r="B649" s="4"/>
       <c r="C649" s="5"/>
       <c r="D649" s="6"/>
@@ -10187,19 +9435,15 @@
       <c r="F649" s="6"/>
       <c r="G649" s="6"/>
     </row>
-    <row r="650" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A650" s="3">
-        <v>690</v>
-      </c>
+    <row r="650" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A650" s="3"/>
       <c r="B650" s="4"/>
       <c r="C650" s="5"/>
       <c r="E650" s="6"/>
       <c r="F650" s="6"/>
     </row>
-    <row r="651" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A651" s="3">
-        <v>691</v>
-      </c>
+    <row r="651" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A651" s="3"/>
       <c r="B651" s="4"/>
       <c r="C651" s="5"/>
       <c r="D651" s="6"/>
@@ -10207,19 +9451,15 @@
       <c r="F651" s="6"/>
       <c r="G651" s="6"/>
     </row>
-    <row r="652" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A652" s="3">
-        <v>692</v>
-      </c>
+    <row r="652" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A652" s="3"/>
       <c r="B652" s="4"/>
       <c r="C652" s="5"/>
       <c r="E652" s="6"/>
       <c r="F652" s="6"/>
     </row>
-    <row r="653" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A653" s="3">
-        <v>693</v>
-      </c>
+    <row r="653" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A653" s="3"/>
       <c r="B653" s="4"/>
       <c r="C653" s="5"/>
       <c r="D653" s="6"/>
@@ -10227,19 +9467,15 @@
       <c r="F653" s="6"/>
       <c r="G653" s="6"/>
     </row>
-    <row r="654" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A654" s="3">
-        <v>694</v>
-      </c>
+    <row r="654" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A654" s="3"/>
       <c r="B654" s="4"/>
       <c r="C654" s="5"/>
       <c r="E654" s="6"/>
       <c r="F654" s="6"/>
     </row>
-    <row r="655" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A655" s="3">
-        <v>695</v>
-      </c>
+    <row r="655" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A655" s="3"/>
       <c r="B655" s="4"/>
       <c r="C655" s="5"/>
       <c r="D655" s="6"/>
@@ -10247,19 +9483,15 @@
       <c r="F655" s="6"/>
       <c r="G655" s="6"/>
     </row>
-    <row r="656" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A656" s="3">
-        <v>696</v>
-      </c>
+    <row r="656" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A656" s="3"/>
       <c r="B656" s="4"/>
       <c r="C656" s="5"/>
       <c r="E656" s="6"/>
       <c r="F656" s="6"/>
     </row>
-    <row r="657" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A657" s="3">
-        <v>697</v>
-      </c>
+    <row r="657" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A657" s="3"/>
       <c r="B657" s="4"/>
       <c r="C657" s="5"/>
       <c r="D657" s="6"/>
@@ -10267,19 +9499,15 @@
       <c r="F657" s="6"/>
       <c r="G657" s="6"/>
     </row>
-    <row r="658" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A658" s="3">
-        <v>698</v>
-      </c>
+    <row r="658" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A658" s="3"/>
       <c r="B658" s="4"/>
       <c r="C658" s="5"/>
       <c r="E658" s="6"/>
       <c r="F658" s="6"/>
     </row>
-    <row r="659" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A659" s="3">
-        <v>699</v>
-      </c>
+    <row r="659" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A659" s="3"/>
       <c r="B659" s="4"/>
       <c r="C659" s="5"/>
       <c r="D659" s="6"/>
@@ -10287,19 +9515,15 @@
       <c r="F659" s="6"/>
       <c r="G659" s="6"/>
     </row>
-    <row r="660" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A660" s="3">
-        <v>700</v>
-      </c>
+    <row r="660" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A660" s="3"/>
       <c r="B660" s="4"/>
       <c r="C660" s="5"/>
       <c r="E660" s="6"/>
       <c r="F660" s="6"/>
     </row>
-    <row r="661" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A661" s="3">
-        <v>701</v>
-      </c>
+    <row r="661" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A661" s="3"/>
       <c r="B661" s="4"/>
       <c r="C661" s="5"/>
       <c r="D661" s="6"/>
@@ -10307,19 +9531,15 @@
       <c r="F661" s="6"/>
       <c r="G661" s="6"/>
     </row>
-    <row r="662" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A662" s="3">
-        <v>702</v>
-      </c>
+    <row r="662" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A662" s="3"/>
       <c r="B662" s="4"/>
       <c r="C662" s="5"/>
       <c r="E662" s="6"/>
       <c r="F662" s="6"/>
     </row>
-    <row r="663" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A663" s="3">
-        <v>703</v>
-      </c>
+    <row r="663" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A663" s="3"/>
       <c r="B663" s="4"/>
       <c r="C663" s="5"/>
       <c r="D663" s="6"/>
@@ -10327,19 +9547,15 @@
       <c r="F663" s="6"/>
       <c r="G663" s="6"/>
     </row>
-    <row r="664" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A664" s="3">
-        <v>704</v>
-      </c>
+    <row r="664" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A664" s="3"/>
       <c r="B664" s="4"/>
       <c r="C664" s="5"/>
       <c r="E664" s="6"/>
       <c r="F664" s="6"/>
     </row>
-    <row r="665" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A665" s="3">
-        <v>705</v>
-      </c>
+    <row r="665" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A665" s="3"/>
       <c r="B665" s="4"/>
       <c r="C665" s="5"/>
       <c r="D665" s="6"/>
@@ -10347,19 +9563,15 @@
       <c r="F665" s="6"/>
       <c r="G665" s="6"/>
     </row>
-    <row r="666" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A666" s="3">
-        <v>706</v>
-      </c>
+    <row r="666" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A666" s="3"/>
       <c r="B666" s="4"/>
       <c r="C666" s="5"/>
       <c r="E666" s="6"/>
       <c r="F666" s="6"/>
     </row>
-    <row r="667" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A667" s="3">
-        <v>707</v>
-      </c>
+    <row r="667" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A667" s="3"/>
       <c r="B667" s="4"/>
       <c r="C667" s="5"/>
       <c r="D667" s="6"/>
@@ -10367,19 +9579,15 @@
       <c r="F667" s="6"/>
       <c r="G667" s="6"/>
     </row>
-    <row r="668" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A668" s="3">
-        <v>708</v>
-      </c>
+    <row r="668" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A668" s="3"/>
       <c r="B668" s="4"/>
       <c r="C668" s="5"/>
       <c r="E668" s="6"/>
       <c r="F668" s="6"/>
     </row>
-    <row r="669" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A669" s="3">
-        <v>709</v>
-      </c>
+    <row r="669" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A669" s="3"/>
       <c r="B669" s="4"/>
       <c r="C669" s="5"/>
       <c r="D669" s="6"/>
@@ -10387,19 +9595,15 @@
       <c r="F669" s="6"/>
       <c r="G669" s="6"/>
     </row>
-    <row r="670" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A670" s="3">
-        <v>710</v>
-      </c>
+    <row r="670" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A670" s="3"/>
       <c r="B670" s="4"/>
       <c r="C670" s="5"/>
       <c r="E670" s="6"/>
       <c r="F670" s="6"/>
     </row>
-    <row r="671" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A671" s="3">
-        <v>711</v>
-      </c>
+    <row r="671" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A671" s="3"/>
       <c r="B671" s="4"/>
       <c r="C671" s="5"/>
       <c r="D671" s="6"/>
@@ -10407,19 +9611,15 @@
       <c r="F671" s="6"/>
       <c r="G671" s="6"/>
     </row>
-    <row r="672" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A672" s="3">
-        <v>712</v>
-      </c>
+    <row r="672" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A672" s="3"/>
       <c r="B672" s="4"/>
       <c r="C672" s="5"/>
       <c r="E672" s="6"/>
       <c r="F672" s="6"/>
     </row>
-    <row r="673" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A673" s="3">
-        <v>713</v>
-      </c>
+    <row r="673" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A673" s="3"/>
       <c r="B673" s="4"/>
       <c r="C673" s="5"/>
       <c r="D673" s="6"/>
@@ -10427,19 +9627,15 @@
       <c r="F673" s="6"/>
       <c r="G673" s="6"/>
     </row>
-    <row r="674" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A674" s="3">
-        <v>714</v>
-      </c>
+    <row r="674" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A674" s="3"/>
       <c r="B674" s="4"/>
       <c r="C674" s="5"/>
       <c r="E674" s="6"/>
       <c r="F674" s="6"/>
     </row>
-    <row r="675" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A675" s="3">
-        <v>715</v>
-      </c>
+    <row r="675" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A675" s="3"/>
       <c r="B675" s="4"/>
       <c r="C675" s="5"/>
       <c r="D675" s="6"/>
@@ -10447,19 +9643,15 @@
       <c r="F675" s="6"/>
       <c r="G675" s="6"/>
     </row>
-    <row r="676" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A676" s="3">
-        <v>716</v>
-      </c>
+    <row r="676" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A676" s="3"/>
       <c r="B676" s="4"/>
       <c r="C676" s="5"/>
       <c r="E676" s="6"/>
       <c r="F676" s="6"/>
     </row>
-    <row r="677" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A677" s="3">
-        <v>717</v>
-      </c>
+    <row r="677" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A677" s="3"/>
       <c r="B677" s="4"/>
       <c r="C677" s="5"/>
       <c r="D677" s="6"/>
@@ -10467,19 +9659,15 @@
       <c r="F677" s="6"/>
       <c r="G677" s="6"/>
     </row>
-    <row r="678" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A678" s="3">
-        <v>718</v>
-      </c>
+    <row r="678" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A678" s="3"/>
       <c r="B678" s="4"/>
       <c r="C678" s="5"/>
       <c r="E678" s="6"/>
       <c r="F678" s="6"/>
     </row>
-    <row r="679" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A679" s="3">
-        <v>719</v>
-      </c>
+    <row r="679" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A679" s="3"/>
       <c r="B679" s="4"/>
       <c r="C679" s="5"/>
       <c r="D679" s="6"/>
@@ -10487,19 +9675,15 @@
       <c r="F679" s="6"/>
       <c r="G679" s="6"/>
     </row>
-    <row r="680" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A680" s="3">
-        <v>720</v>
-      </c>
+    <row r="680" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A680" s="3"/>
       <c r="B680" s="4"/>
       <c r="C680" s="5"/>
       <c r="E680" s="6"/>
       <c r="F680" s="6"/>
     </row>
-    <row r="681" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A681" s="3">
-        <v>721</v>
-      </c>
+    <row r="681" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A681" s="3"/>
       <c r="B681" s="4"/>
       <c r="C681" s="5"/>
       <c r="D681" s="6"/>
@@ -10507,19 +9691,15 @@
       <c r="F681" s="6"/>
       <c r="G681" s="6"/>
     </row>
-    <row r="682" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A682" s="3">
-        <v>722</v>
-      </c>
+    <row r="682" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A682" s="3"/>
       <c r="B682" s="4"/>
       <c r="C682" s="5"/>
       <c r="E682" s="6"/>
       <c r="F682" s="6"/>
     </row>
-    <row r="683" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A683" s="3">
-        <v>723</v>
-      </c>
+    <row r="683" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A683" s="3"/>
       <c r="B683" s="4"/>
       <c r="C683" s="5"/>
       <c r="D683" s="6"/>
@@ -10527,19 +9707,15 @@
       <c r="F683" s="6"/>
       <c r="G683" s="6"/>
     </row>
-    <row r="684" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A684" s="3">
-        <v>724</v>
-      </c>
+    <row r="684" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A684" s="3"/>
       <c r="B684" s="4"/>
       <c r="C684" s="5"/>
       <c r="E684" s="6"/>
       <c r="F684" s="6"/>
     </row>
-    <row r="685" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A685" s="3">
-        <v>725</v>
-      </c>
+    <row r="685" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A685" s="3"/>
       <c r="B685" s="4"/>
       <c r="C685" s="5"/>
       <c r="D685" s="6"/>
@@ -10547,19 +9723,15 @@
       <c r="F685" s="6"/>
       <c r="G685" s="6"/>
     </row>
-    <row r="686" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A686" s="3">
-        <v>726</v>
-      </c>
+    <row r="686" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A686" s="3"/>
       <c r="B686" s="4"/>
       <c r="C686" s="5"/>
       <c r="E686" s="6"/>
       <c r="F686" s="6"/>
     </row>
-    <row r="687" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A687" s="3">
-        <v>727</v>
-      </c>
+    <row r="687" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A687" s="3"/>
       <c r="B687" s="4"/>
       <c r="C687" s="5"/>
       <c r="D687" s="6"/>
@@ -10567,19 +9739,15 @@
       <c r="F687" s="6"/>
       <c r="G687" s="6"/>
     </row>
-    <row r="688" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A688" s="3">
-        <v>728</v>
-      </c>
+    <row r="688" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A688" s="3"/>
       <c r="B688" s="4"/>
       <c r="C688" s="5"/>
       <c r="E688" s="6"/>
       <c r="F688" s="6"/>
     </row>
-    <row r="689" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A689" s="3">
-        <v>729</v>
-      </c>
+    <row r="689" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A689" s="3"/>
       <c r="B689" s="4"/>
       <c r="C689" s="5"/>
       <c r="D689" s="6"/>
@@ -10587,19 +9755,15 @@
       <c r="F689" s="6"/>
       <c r="G689" s="6"/>
     </row>
-    <row r="690" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A690" s="3">
-        <v>730</v>
-      </c>
+    <row r="690" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A690" s="3"/>
       <c r="B690" s="4"/>
       <c r="C690" s="5"/>
       <c r="E690" s="6"/>
       <c r="F690" s="6"/>
     </row>
-    <row r="691" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A691" s="3">
-        <v>731</v>
-      </c>
+    <row r="691" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A691" s="3"/>
       <c r="B691" s="4"/>
       <c r="C691" s="5"/>
       <c r="D691" s="6"/>
@@ -10607,19 +9771,15 @@
       <c r="F691" s="6"/>
       <c r="G691" s="6"/>
     </row>
-    <row r="692" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A692" s="3">
-        <v>732</v>
-      </c>
+    <row r="692" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A692" s="3"/>
       <c r="B692" s="4"/>
       <c r="C692" s="5"/>
       <c r="E692" s="6"/>
       <c r="F692" s="6"/>
     </row>
-    <row r="693" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A693" s="3">
-        <v>733</v>
-      </c>
+    <row r="693" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A693" s="3"/>
       <c r="B693" s="4"/>
       <c r="C693" s="5"/>
       <c r="D693" s="6"/>
@@ -10627,19 +9787,15 @@
       <c r="F693" s="6"/>
       <c r="G693" s="6"/>
     </row>
-    <row r="694" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A694" s="3">
-        <v>734</v>
-      </c>
+    <row r="694" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A694" s="3"/>
       <c r="B694" s="4"/>
       <c r="C694" s="5"/>
       <c r="E694" s="6"/>
       <c r="F694" s="6"/>
     </row>
-    <row r="695" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A695" s="3">
-        <v>735</v>
-      </c>
+    <row r="695" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A695" s="3"/>
       <c r="B695" s="4"/>
       <c r="C695" s="5"/>
       <c r="D695" s="6"/>
@@ -10647,19 +9803,15 @@
       <c r="F695" s="6"/>
       <c r="G695" s="6"/>
     </row>
-    <row r="696" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A696" s="3">
-        <v>736</v>
-      </c>
+    <row r="696" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A696" s="3"/>
       <c r="B696" s="4"/>
       <c r="C696" s="5"/>
       <c r="E696" s="6"/>
       <c r="F696" s="6"/>
     </row>
-    <row r="697" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A697" s="3">
-        <v>737</v>
-      </c>
+    <row r="697" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A697" s="3"/>
       <c r="B697" s="4"/>
       <c r="C697" s="5"/>
       <c r="D697" s="6"/>
@@ -10667,19 +9819,15 @@
       <c r="F697" s="6"/>
       <c r="G697" s="6"/>
     </row>
-    <row r="698" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A698" s="3">
-        <v>738</v>
-      </c>
+    <row r="698" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A698" s="3"/>
       <c r="B698" s="4"/>
       <c r="C698" s="5"/>
       <c r="E698" s="6"/>
       <c r="F698" s="6"/>
     </row>
-    <row r="699" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A699" s="3">
-        <v>739</v>
-      </c>
+    <row r="699" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A699" s="3"/>
       <c r="B699" s="4"/>
       <c r="C699" s="5"/>
       <c r="D699" s="6"/>
@@ -10687,19 +9835,15 @@
       <c r="F699" s="6"/>
       <c r="G699" s="6"/>
     </row>
-    <row r="700" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A700" s="3">
-        <v>740</v>
-      </c>
+    <row r="700" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A700" s="3"/>
       <c r="B700" s="4"/>
       <c r="C700" s="5"/>
       <c r="E700" s="6"/>
       <c r="F700" s="6"/>
     </row>
-    <row r="701" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A701" s="3">
-        <v>741</v>
-      </c>
+    <row r="701" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A701" s="3"/>
       <c r="B701" s="4"/>
       <c r="C701" s="5"/>
       <c r="D701" s="6"/>
@@ -10707,19 +9851,15 @@
       <c r="F701" s="6"/>
       <c r="G701" s="6"/>
     </row>
-    <row r="702" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A702" s="3">
-        <v>742</v>
-      </c>
+    <row r="702" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A702" s="3"/>
       <c r="B702" s="4"/>
       <c r="C702" s="5"/>
       <c r="E702" s="6"/>
       <c r="F702" s="6"/>
     </row>
-    <row r="703" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A703" s="3">
-        <v>743</v>
-      </c>
+    <row r="703" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A703" s="3"/>
       <c r="B703" s="4"/>
       <c r="C703" s="5"/>
       <c r="D703" s="6"/>
@@ -10727,19 +9867,15 @@
       <c r="F703" s="6"/>
       <c r="G703" s="6"/>
     </row>
-    <row r="704" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A704" s="3">
-        <v>744</v>
-      </c>
+    <row r="704" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A704" s="3"/>
       <c r="B704" s="4"/>
       <c r="C704" s="5"/>
       <c r="E704" s="6"/>
       <c r="F704" s="6"/>
     </row>
-    <row r="705" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A705" s="3">
-        <v>745</v>
-      </c>
+    <row r="705" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A705" s="3"/>
       <c r="B705" s="4"/>
       <c r="C705" s="5"/>
       <c r="D705" s="6"/>
@@ -10747,19 +9883,15 @@
       <c r="F705" s="6"/>
       <c r="G705" s="6"/>
     </row>
-    <row r="706" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A706" s="3">
-        <v>746</v>
-      </c>
+    <row r="706" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A706" s="3"/>
       <c r="B706" s="4"/>
       <c r="C706" s="5"/>
       <c r="E706" s="6"/>
       <c r="F706" s="6"/>
     </row>
-    <row r="707" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A707" s="3">
-        <v>747</v>
-      </c>
+    <row r="707" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A707" s="3"/>
       <c r="B707" s="4"/>
       <c r="C707" s="5"/>
       <c r="D707" s="6"/>
@@ -10767,19 +9899,15 @@
       <c r="F707" s="6"/>
       <c r="G707" s="6"/>
     </row>
-    <row r="708" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A708" s="3">
-        <v>748</v>
-      </c>
+    <row r="708" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A708" s="3"/>
       <c r="B708" s="4"/>
       <c r="C708" s="5"/>
       <c r="E708" s="6"/>
       <c r="F708" s="6"/>
     </row>
-    <row r="709" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A709" s="3">
-        <v>749</v>
-      </c>
+    <row r="709" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A709" s="3"/>
       <c r="B709" s="4"/>
       <c r="C709" s="5"/>
       <c r="D709" s="6"/>
@@ -10787,19 +9915,15 @@
       <c r="F709" s="6"/>
       <c r="G709" s="6"/>
     </row>
-    <row r="710" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A710" s="3">
-        <v>750</v>
-      </c>
+    <row r="710" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A710" s="3"/>
       <c r="B710" s="4"/>
       <c r="C710" s="5"/>
       <c r="E710" s="6"/>
       <c r="F710" s="6"/>
     </row>
-    <row r="711" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A711" s="3">
-        <v>751</v>
-      </c>
+    <row r="711" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A711" s="3"/>
       <c r="B711" s="4"/>
       <c r="C711" s="5"/>
       <c r="D711" s="6"/>
@@ -10807,19 +9931,15 @@
       <c r="F711" s="6"/>
       <c r="G711" s="6"/>
     </row>
-    <row r="712" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A712" s="3">
-        <v>752</v>
-      </c>
+    <row r="712" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A712" s="3"/>
       <c r="B712" s="4"/>
       <c r="C712" s="5"/>
       <c r="E712" s="6"/>
       <c r="F712" s="6"/>
     </row>
-    <row r="713" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A713" s="3">
-        <v>753</v>
-      </c>
+    <row r="713" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A713" s="3"/>
       <c r="B713" s="4"/>
       <c r="C713" s="5"/>
       <c r="D713" s="6"/>
@@ -10827,19 +9947,15 @@
       <c r="F713" s="6"/>
       <c r="G713" s="6"/>
     </row>
-    <row r="714" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A714" s="3">
-        <v>754</v>
-      </c>
+    <row r="714" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A714" s="3"/>
       <c r="B714" s="4"/>
       <c r="C714" s="5"/>
       <c r="E714" s="6"/>
       <c r="F714" s="6"/>
     </row>
-    <row r="715" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A715" s="3">
-        <v>755</v>
-      </c>
+    <row r="715" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A715" s="3"/>
       <c r="B715" s="4"/>
       <c r="C715" s="5"/>
       <c r="D715" s="6"/>
@@ -10847,19 +9963,15 @@
       <c r="F715" s="6"/>
       <c r="G715" s="6"/>
     </row>
-    <row r="716" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A716" s="3">
-        <v>756</v>
-      </c>
+    <row r="716" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A716" s="3"/>
       <c r="B716" s="4"/>
       <c r="C716" s="5"/>
       <c r="E716" s="6"/>
       <c r="F716" s="6"/>
     </row>
-    <row r="717" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A717" s="3">
-        <v>757</v>
-      </c>
+    <row r="717" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A717" s="3"/>
       <c r="B717" s="4"/>
       <c r="C717" s="5"/>
       <c r="D717" s="6"/>
@@ -10867,19 +9979,15 @@
       <c r="F717" s="6"/>
       <c r="G717" s="6"/>
     </row>
-    <row r="718" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A718" s="3">
-        <v>758</v>
-      </c>
+    <row r="718" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A718" s="3"/>
       <c r="B718" s="4"/>
       <c r="C718" s="5"/>
       <c r="E718" s="6"/>
       <c r="F718" s="6"/>
     </row>
-    <row r="719" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A719" s="3">
-        <v>759</v>
-      </c>
+    <row r="719" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A719" s="3"/>
       <c r="B719" s="4"/>
       <c r="C719" s="5"/>
       <c r="D719" s="6"/>
@@ -10887,19 +9995,15 @@
       <c r="F719" s="6"/>
       <c r="G719" s="6"/>
     </row>
-    <row r="720" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A720" s="3">
-        <v>760</v>
-      </c>
+    <row r="720" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A720" s="3"/>
       <c r="B720" s="4"/>
       <c r="C720" s="5"/>
       <c r="E720" s="6"/>
       <c r="F720" s="6"/>
     </row>
-    <row r="721" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A721" s="3">
-        <v>761</v>
-      </c>
+    <row r="721" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A721" s="3"/>
       <c r="B721" s="4"/>
       <c r="C721" s="5"/>
       <c r="D721" s="6"/>
@@ -10907,19 +10011,15 @@
       <c r="F721" s="6"/>
       <c r="G721" s="6"/>
     </row>
-    <row r="722" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A722" s="3">
-        <v>762</v>
-      </c>
+    <row r="722" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A722" s="3"/>
       <c r="B722" s="4"/>
       <c r="C722" s="5"/>
       <c r="E722" s="6"/>
       <c r="F722" s="6"/>
     </row>
-    <row r="723" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A723" s="3">
-        <v>763</v>
-      </c>
+    <row r="723" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A723" s="3"/>
       <c r="B723" s="4"/>
       <c r="C723" s="5"/>
       <c r="D723" s="6"/>
@@ -10927,19 +10027,15 @@
       <c r="F723" s="6"/>
       <c r="G723" s="6"/>
     </row>
-    <row r="724" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A724" s="3">
-        <v>764</v>
-      </c>
+    <row r="724" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A724" s="3"/>
       <c r="B724" s="4"/>
       <c r="C724" s="5"/>
       <c r="E724" s="6"/>
       <c r="F724" s="6"/>
     </row>
-    <row r="725" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A725" s="3">
-        <v>765</v>
-      </c>
+    <row r="725" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A725" s="3"/>
       <c r="B725" s="4"/>
       <c r="C725" s="5"/>
       <c r="D725" s="6"/>
@@ -10947,19 +10043,15 @@
       <c r="F725" s="6"/>
       <c r="G725" s="6"/>
     </row>
-    <row r="726" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A726" s="3">
-        <v>766</v>
-      </c>
+    <row r="726" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A726" s="3"/>
       <c r="B726" s="4"/>
       <c r="C726" s="5"/>
       <c r="E726" s="6"/>
       <c r="F726" s="6"/>
     </row>
-    <row r="727" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A727" s="3">
-        <v>767</v>
-      </c>
+    <row r="727" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A727" s="3"/>
       <c r="B727" s="4"/>
       <c r="C727" s="5"/>
       <c r="D727" s="6"/>
@@ -10967,19 +10059,15 @@
       <c r="F727" s="6"/>
       <c r="G727" s="6"/>
     </row>
-    <row r="728" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A728" s="3">
-        <v>768</v>
-      </c>
+    <row r="728" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A728" s="3"/>
       <c r="B728" s="4"/>
       <c r="C728" s="5"/>
       <c r="E728" s="6"/>
       <c r="F728" s="6"/>
     </row>
-    <row r="729" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A729" s="3">
-        <v>769</v>
-      </c>
+    <row r="729" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A729" s="3"/>
       <c r="B729" s="4"/>
       <c r="C729" s="5"/>
       <c r="D729" s="6"/>
@@ -10987,19 +10075,15 @@
       <c r="F729" s="6"/>
       <c r="G729" s="6"/>
     </row>
-    <row r="730" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A730" s="3">
-        <v>770</v>
-      </c>
+    <row r="730" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A730" s="3"/>
       <c r="B730" s="4"/>
       <c r="C730" s="5"/>
       <c r="E730" s="6"/>
       <c r="F730" s="6"/>
     </row>
-    <row r="731" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A731" s="3">
-        <v>771</v>
-      </c>
+    <row r="731" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A731" s="3"/>
       <c r="B731" s="4"/>
       <c r="C731" s="5"/>
       <c r="D731" s="6"/>
@@ -11007,19 +10091,15 @@
       <c r="F731" s="6"/>
       <c r="G731" s="6"/>
     </row>
-    <row r="732" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A732" s="3">
-        <v>772</v>
-      </c>
+    <row r="732" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A732" s="3"/>
       <c r="B732" s="4"/>
       <c r="C732" s="5"/>
       <c r="E732" s="6"/>
       <c r="F732" s="6"/>
     </row>
-    <row r="733" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A733" s="3">
-        <v>773</v>
-      </c>
+    <row r="733" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A733" s="3"/>
       <c r="B733" s="4"/>
       <c r="C733" s="5"/>
       <c r="D733" s="6"/>
@@ -11027,19 +10107,15 @@
       <c r="F733" s="6"/>
       <c r="G733" s="6"/>
     </row>
-    <row r="734" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A734" s="3">
-        <v>774</v>
-      </c>
+    <row r="734" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A734" s="3"/>
       <c r="B734" s="4"/>
       <c r="C734" s="5"/>
       <c r="E734" s="6"/>
       <c r="F734" s="6"/>
     </row>
-    <row r="735" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A735" s="3">
-        <v>775</v>
-      </c>
+    <row r="735" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A735" s="3"/>
       <c r="B735" s="4"/>
       <c r="C735" s="5"/>
       <c r="D735" s="6"/>
@@ -11047,19 +10123,15 @@
       <c r="F735" s="6"/>
       <c r="G735" s="6"/>
     </row>
-    <row r="736" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A736" s="3">
-        <v>776</v>
-      </c>
+    <row r="736" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A736" s="3"/>
       <c r="B736" s="4"/>
       <c r="C736" s="5"/>
       <c r="E736" s="6"/>
       <c r="F736" s="6"/>
     </row>
-    <row r="737" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A737" s="3">
-        <v>777</v>
-      </c>
+    <row r="737" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A737" s="3"/>
       <c r="B737" s="4"/>
       <c r="C737" s="5"/>
       <c r="D737" s="6"/>
@@ -11067,19 +10139,15 @@
       <c r="F737" s="6"/>
       <c r="G737" s="6"/>
     </row>
-    <row r="738" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A738" s="3">
-        <v>778</v>
-      </c>
+    <row r="738" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A738" s="3"/>
       <c r="B738" s="4"/>
       <c r="C738" s="5"/>
       <c r="E738" s="6"/>
       <c r="F738" s="6"/>
     </row>
-    <row r="739" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A739" s="3">
-        <v>779</v>
-      </c>
+    <row r="739" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A739" s="3"/>
       <c r="B739" s="4"/>
       <c r="C739" s="5"/>
       <c r="D739" s="6"/>
@@ -11087,19 +10155,15 @@
       <c r="F739" s="6"/>
       <c r="G739" s="6"/>
     </row>
-    <row r="740" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A740" s="3">
-        <v>780</v>
-      </c>
+    <row r="740" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A740" s="3"/>
       <c r="B740" s="4"/>
       <c r="C740" s="5"/>
       <c r="E740" s="6"/>
       <c r="F740" s="6"/>
     </row>
-    <row r="741" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A741" s="3">
-        <v>781</v>
-      </c>
+    <row r="741" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A741" s="3"/>
       <c r="B741" s="4"/>
       <c r="C741" s="5"/>
       <c r="D741" s="6"/>
@@ -11107,19 +10171,15 @@
       <c r="F741" s="6"/>
       <c r="G741" s="6"/>
     </row>
-    <row r="742" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A742" s="3">
-        <v>782</v>
-      </c>
+    <row r="742" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A742" s="3"/>
       <c r="B742" s="4"/>
       <c r="C742" s="5"/>
       <c r="E742" s="6"/>
       <c r="F742" s="6"/>
     </row>
-    <row r="743" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A743" s="3">
-        <v>783</v>
-      </c>
+    <row r="743" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A743" s="3"/>
       <c r="B743" s="4"/>
       <c r="C743" s="5"/>
       <c r="D743" s="6"/>
@@ -11127,19 +10187,15 @@
       <c r="F743" s="6"/>
       <c r="G743" s="6"/>
     </row>
-    <row r="744" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A744" s="3">
-        <v>784</v>
-      </c>
+    <row r="744" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A744" s="3"/>
       <c r="B744" s="4"/>
       <c r="C744" s="5"/>
       <c r="E744" s="6"/>
       <c r="F744" s="6"/>
     </row>
-    <row r="745" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A745" s="3">
-        <v>785</v>
-      </c>
+    <row r="745" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A745" s="3"/>
       <c r="B745" s="4"/>
       <c r="C745" s="5"/>
       <c r="D745" s="6"/>
@@ -11147,19 +10203,15 @@
       <c r="F745" s="6"/>
       <c r="G745" s="6"/>
     </row>
-    <row r="746" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A746" s="3">
-        <v>786</v>
-      </c>
+    <row r="746" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A746" s="3"/>
       <c r="B746" s="4"/>
       <c r="C746" s="5"/>
       <c r="E746" s="6"/>
       <c r="F746" s="6"/>
     </row>
-    <row r="747" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A747" s="3">
-        <v>787</v>
-      </c>
+    <row r="747" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A747" s="3"/>
       <c r="B747" s="4"/>
       <c r="C747" s="5"/>
       <c r="D747" s="6"/>
@@ -11167,19 +10219,15 @@
       <c r="F747" s="6"/>
       <c r="G747" s="6"/>
     </row>
-    <row r="748" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A748" s="3">
-        <v>788</v>
-      </c>
+    <row r="748" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A748" s="3"/>
       <c r="B748" s="4"/>
       <c r="C748" s="5"/>
       <c r="E748" s="6"/>
       <c r="F748" s="6"/>
     </row>
-    <row r="749" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A749" s="3">
-        <v>789</v>
-      </c>
+    <row r="749" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A749" s="3"/>
       <c r="B749" s="4"/>
       <c r="C749" s="5"/>
       <c r="D749" s="6"/>
@@ -11187,19 +10235,15 @@
       <c r="F749" s="6"/>
       <c r="G749" s="6"/>
     </row>
-    <row r="750" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A750" s="3">
-        <v>790</v>
-      </c>
+    <row r="750" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A750" s="3"/>
       <c r="B750" s="4"/>
       <c r="C750" s="5"/>
       <c r="E750" s="6"/>
       <c r="F750" s="6"/>
     </row>
-    <row r="751" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A751" s="3">
-        <v>791</v>
-      </c>
+    <row r="751" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A751" s="3"/>
       <c r="B751" s="4"/>
       <c r="C751" s="5"/>
       <c r="D751" s="6"/>
@@ -11207,19 +10251,15 @@
       <c r="F751" s="6"/>
       <c r="G751" s="6"/>
     </row>
-    <row r="752" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A752" s="3">
-        <v>792</v>
-      </c>
+    <row r="752" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A752" s="3"/>
       <c r="B752" s="4"/>
       <c r="C752" s="5"/>
       <c r="E752" s="6"/>
       <c r="F752" s="6"/>
     </row>
-    <row r="753" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A753" s="3">
-        <v>793</v>
-      </c>
+    <row r="753" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A753" s="3"/>
       <c r="B753" s="4"/>
       <c r="C753" s="5"/>
       <c r="D753" s="6"/>
@@ -11227,19 +10267,15 @@
       <c r="F753" s="6"/>
       <c r="G753" s="6"/>
     </row>
-    <row r="754" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A754" s="3">
-        <v>794</v>
-      </c>
+    <row r="754" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A754" s="3"/>
       <c r="B754" s="4"/>
       <c r="C754" s="5"/>
       <c r="E754" s="6"/>
       <c r="F754" s="6"/>
     </row>
-    <row r="755" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A755" s="3">
-        <v>795</v>
-      </c>
+    <row r="755" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A755" s="3"/>
       <c r="B755" s="4"/>
       <c r="C755" s="5"/>
       <c r="D755" s="6"/>
@@ -11247,19 +10283,15 @@
       <c r="F755" s="6"/>
       <c r="G755" s="6"/>
     </row>
-    <row r="756" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A756" s="3">
-        <v>796</v>
-      </c>
+    <row r="756" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A756" s="3"/>
       <c r="B756" s="4"/>
       <c r="C756" s="5"/>
       <c r="E756" s="6"/>
       <c r="F756" s="6"/>
     </row>
-    <row r="757" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A757" s="3">
-        <v>797</v>
-      </c>
+    <row r="757" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A757" s="3"/>
       <c r="B757" s="4"/>
       <c r="C757" s="5"/>
       <c r="D757" s="6"/>
@@ -11267,19 +10299,15 @@
       <c r="F757" s="6"/>
       <c r="G757" s="6"/>
     </row>
-    <row r="758" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A758" s="3">
-        <v>798</v>
-      </c>
+    <row r="758" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A758" s="3"/>
       <c r="B758" s="4"/>
       <c r="C758" s="5"/>
       <c r="E758" s="6"/>
       <c r="F758" s="6"/>
     </row>
-    <row r="759" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A759" s="3">
-        <v>799</v>
-      </c>
+    <row r="759" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A759" s="3"/>
       <c r="B759" s="4"/>
       <c r="C759" s="5"/>
       <c r="D759" s="6"/>
@@ -11287,19 +10315,15 @@
       <c r="F759" s="6"/>
       <c r="G759" s="6"/>
     </row>
-    <row r="760" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A760" s="3">
-        <v>800</v>
-      </c>
+    <row r="760" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A760" s="3"/>
       <c r="B760" s="4"/>
       <c r="C760" s="5"/>
       <c r="E760" s="6"/>
       <c r="F760" s="6"/>
     </row>
-    <row r="761" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A761" s="3">
-        <v>801</v>
-      </c>
+    <row r="761" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A761" s="3"/>
       <c r="B761" s="4"/>
       <c r="C761" s="5"/>
       <c r="D761" s="6"/>
@@ -11307,19 +10331,15 @@
       <c r="F761" s="6"/>
       <c r="G761" s="6"/>
     </row>
-    <row r="762" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A762" s="3">
-        <v>802</v>
-      </c>
+    <row r="762" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A762" s="3"/>
       <c r="B762" s="4"/>
       <c r="C762" s="5"/>
       <c r="E762" s="6"/>
       <c r="F762" s="6"/>
     </row>
-    <row r="763" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A763" s="3">
-        <v>803</v>
-      </c>
+    <row r="763" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A763" s="3"/>
       <c r="B763" s="4"/>
       <c r="C763" s="5"/>
       <c r="D763" s="6"/>
@@ -11327,19 +10347,15 @@
       <c r="F763" s="6"/>
       <c r="G763" s="6"/>
     </row>
-    <row r="764" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A764" s="3">
-        <v>804</v>
-      </c>
+    <row r="764" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A764" s="3"/>
       <c r="B764" s="4"/>
       <c r="C764" s="5"/>
       <c r="E764" s="6"/>
       <c r="F764" s="6"/>
     </row>
-    <row r="765" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A765" s="3">
-        <v>805</v>
-      </c>
+    <row r="765" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A765" s="3"/>
       <c r="B765" s="4"/>
       <c r="C765" s="5"/>
       <c r="D765" s="6"/>
@@ -11347,19 +10363,15 @@
       <c r="F765" s="6"/>
       <c r="G765" s="6"/>
     </row>
-    <row r="766" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A766" s="3">
-        <v>806</v>
-      </c>
+    <row r="766" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A766" s="3"/>
       <c r="B766" s="4"/>
       <c r="C766" s="5"/>
       <c r="E766" s="6"/>
       <c r="F766" s="6"/>
     </row>
-    <row r="767" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A767" s="3">
-        <v>807</v>
-      </c>
+    <row r="767" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A767" s="3"/>
       <c r="B767" s="4"/>
       <c r="C767" s="5"/>
       <c r="D767" s="6"/>
@@ -11367,19 +10379,15 @@
       <c r="F767" s="6"/>
       <c r="G767" s="6"/>
     </row>
-    <row r="768" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A768" s="3">
-        <v>808</v>
-      </c>
+    <row r="768" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A768" s="3"/>
       <c r="B768" s="4"/>
       <c r="C768" s="5"/>
       <c r="E768" s="6"/>
       <c r="F768" s="6"/>
     </row>
-    <row r="769" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A769" s="3">
-        <v>809</v>
-      </c>
+    <row r="769" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A769" s="3"/>
       <c r="B769" s="4"/>
       <c r="C769" s="5"/>
       <c r="D769" s="6"/>
@@ -11387,19 +10395,15 @@
       <c r="F769" s="6"/>
       <c r="G769" s="6"/>
     </row>
-    <row r="770" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A770" s="3">
-        <v>810</v>
-      </c>
+    <row r="770" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A770" s="3"/>
       <c r="B770" s="4"/>
       <c r="C770" s="5"/>
       <c r="E770" s="6"/>
       <c r="F770" s="6"/>
     </row>
-    <row r="771" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A771" s="3">
-        <v>811</v>
-      </c>
+    <row r="771" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A771" s="3"/>
       <c r="B771" s="4"/>
       <c r="C771" s="5"/>
       <c r="D771" s="6"/>
@@ -11407,19 +10411,15 @@
       <c r="F771" s="6"/>
       <c r="G771" s="6"/>
     </row>
-    <row r="772" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A772" s="3">
-        <v>812</v>
-      </c>
+    <row r="772" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A772" s="3"/>
       <c r="B772" s="4"/>
       <c r="C772" s="5"/>
       <c r="E772" s="6"/>
       <c r="F772" s="6"/>
     </row>
-    <row r="773" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A773" s="3">
-        <v>813</v>
-      </c>
+    <row r="773" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A773" s="3"/>
       <c r="B773" s="4"/>
       <c r="C773" s="5"/>
       <c r="D773" s="6"/>
@@ -11427,19 +10427,15 @@
       <c r="F773" s="6"/>
       <c r="G773" s="6"/>
     </row>
-    <row r="774" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A774" s="3">
-        <v>814</v>
-      </c>
+    <row r="774" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A774" s="3"/>
       <c r="B774" s="4"/>
       <c r="C774" s="5"/>
       <c r="E774" s="6"/>
       <c r="F774" s="6"/>
     </row>
-    <row r="775" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A775" s="3">
-        <v>815</v>
-      </c>
+    <row r="775" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A775" s="3"/>
       <c r="B775" s="4"/>
       <c r="C775" s="5"/>
       <c r="D775" s="6"/>
@@ -11447,19 +10443,15 @@
       <c r="F775" s="6"/>
       <c r="G775" s="6"/>
     </row>
-    <row r="776" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A776" s="3">
-        <v>816</v>
-      </c>
+    <row r="776" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A776" s="3"/>
       <c r="B776" s="4"/>
       <c r="C776" s="5"/>
       <c r="E776" s="6"/>
       <c r="F776" s="6"/>
     </row>
-    <row r="777" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A777" s="3">
-        <v>817</v>
-      </c>
+    <row r="777" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A777" s="3"/>
       <c r="B777" s="4"/>
       <c r="C777" s="5"/>
       <c r="D777" s="6"/>
@@ -11467,19 +10459,15 @@
       <c r="F777" s="6"/>
       <c r="G777" s="6"/>
     </row>
-    <row r="778" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A778" s="3">
-        <v>818</v>
-      </c>
+    <row r="778" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A778" s="3"/>
       <c r="B778" s="4"/>
       <c r="C778" s="5"/>
       <c r="E778" s="6"/>
       <c r="F778" s="6"/>
     </row>
-    <row r="779" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A779" s="3">
-        <v>819</v>
-      </c>
+    <row r="779" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A779" s="3"/>
       <c r="B779" s="4"/>
       <c r="C779" s="5"/>
       <c r="D779" s="6"/>
@@ -11487,19 +10475,15 @@
       <c r="F779" s="6"/>
       <c r="G779" s="6"/>
     </row>
-    <row r="780" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A780" s="3">
-        <v>820</v>
-      </c>
+    <row r="780" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A780" s="3"/>
       <c r="B780" s="4"/>
       <c r="C780" s="5"/>
       <c r="E780" s="6"/>
       <c r="F780" s="6"/>
     </row>
-    <row r="781" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A781" s="3">
-        <v>821</v>
-      </c>
+    <row r="781" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A781" s="3"/>
       <c r="B781" s="4"/>
       <c r="C781" s="5"/>
       <c r="D781" s="6"/>
@@ -11507,19 +10491,15 @@
       <c r="F781" s="6"/>
       <c r="G781" s="6"/>
     </row>
-    <row r="782" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A782" s="3">
-        <v>822</v>
-      </c>
+    <row r="782" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A782" s="3"/>
       <c r="B782" s="4"/>
       <c r="C782" s="5"/>
       <c r="E782" s="6"/>
       <c r="F782" s="6"/>
     </row>
-    <row r="783" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A783" s="3">
-        <v>823</v>
-      </c>
+    <row r="783" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A783" s="3"/>
       <c r="B783" s="4"/>
       <c r="C783" s="5"/>
       <c r="D783" s="6"/>
@@ -11527,19 +10507,15 @@
       <c r="F783" s="6"/>
       <c r="G783" s="6"/>
     </row>
-    <row r="784" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A784" s="3">
-        <v>824</v>
-      </c>
+    <row r="784" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A784" s="3"/>
       <c r="B784" s="4"/>
       <c r="C784" s="5"/>
       <c r="E784" s="6"/>
       <c r="F784" s="6"/>
     </row>
-    <row r="785" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A785" s="3">
-        <v>825</v>
-      </c>
+    <row r="785" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A785" s="3"/>
       <c r="B785" s="4"/>
       <c r="C785" s="5"/>
       <c r="D785" s="6"/>
@@ -11547,19 +10523,15 @@
       <c r="F785" s="6"/>
       <c r="G785" s="6"/>
     </row>
-    <row r="786" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A786" s="3">
-        <v>826</v>
-      </c>
+    <row r="786" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A786" s="3"/>
       <c r="B786" s="4"/>
       <c r="C786" s="5"/>
       <c r="E786" s="6"/>
       <c r="F786" s="6"/>
     </row>
-    <row r="787" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A787" s="3">
-        <v>827</v>
-      </c>
+    <row r="787" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A787" s="3"/>
       <c r="B787" s="4"/>
       <c r="C787" s="5"/>
       <c r="D787" s="6"/>
@@ -11567,19 +10539,15 @@
       <c r="F787" s="6"/>
       <c r="G787" s="6"/>
     </row>
-    <row r="788" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A788" s="3">
-        <v>828</v>
-      </c>
+    <row r="788" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A788" s="3"/>
       <c r="B788" s="4"/>
       <c r="C788" s="5"/>
       <c r="E788" s="6"/>
       <c r="F788" s="6"/>
     </row>
-    <row r="789" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A789" s="3">
-        <v>829</v>
-      </c>
+    <row r="789" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A789" s="3"/>
       <c r="B789" s="4"/>
       <c r="C789" s="5"/>
       <c r="D789" s="6"/>
@@ -11587,19 +10555,15 @@
       <c r="F789" s="6"/>
       <c r="G789" s="6"/>
     </row>
-    <row r="790" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A790" s="3">
-        <v>830</v>
-      </c>
+    <row r="790" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A790" s="3"/>
       <c r="B790" s="4"/>
       <c r="C790" s="5"/>
       <c r="E790" s="6"/>
       <c r="F790" s="6"/>
     </row>
-    <row r="791" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A791" s="3">
-        <v>831</v>
-      </c>
+    <row r="791" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A791" s="3"/>
       <c r="B791" s="4"/>
       <c r="C791" s="5"/>
       <c r="D791" s="6"/>
@@ -11607,19 +10571,15 @@
       <c r="F791" s="6"/>
       <c r="G791" s="6"/>
     </row>
-    <row r="792" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A792" s="3">
-        <v>832</v>
-      </c>
+    <row r="792" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A792" s="3"/>
       <c r="B792" s="4"/>
       <c r="C792" s="5"/>
       <c r="E792" s="6"/>
       <c r="F792" s="6"/>
     </row>
-    <row r="793" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A793" s="3">
-        <v>833</v>
-      </c>
+    <row r="793" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A793" s="3"/>
       <c r="B793" s="4"/>
       <c r="C793" s="5"/>
       <c r="D793" s="6"/>
@@ -11627,19 +10587,15 @@
       <c r="F793" s="6"/>
       <c r="G793" s="6"/>
     </row>
-    <row r="794" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A794" s="3">
-        <v>834</v>
-      </c>
+    <row r="794" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A794" s="3"/>
       <c r="B794" s="4"/>
       <c r="C794" s="5"/>
       <c r="E794" s="6"/>
       <c r="F794" s="6"/>
     </row>
-    <row r="795" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A795" s="3">
-        <v>835</v>
-      </c>
+    <row r="795" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A795" s="3"/>
       <c r="B795" s="4"/>
       <c r="C795" s="5"/>
       <c r="D795" s="6"/>
@@ -11647,19 +10603,15 @@
       <c r="F795" s="6"/>
       <c r="G795" s="6"/>
     </row>
-    <row r="796" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A796" s="3">
-        <v>836</v>
-      </c>
+    <row r="796" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A796" s="3"/>
       <c r="B796" s="4"/>
       <c r="C796" s="5"/>
       <c r="E796" s="6"/>
       <c r="F796" s="6"/>
     </row>
-    <row r="797" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A797" s="3">
-        <v>837</v>
-      </c>
+    <row r="797" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A797" s="3"/>
       <c r="B797" s="4"/>
       <c r="C797" s="5"/>
       <c r="D797" s="6"/>
@@ -11667,184 +10619,178 @@
       <c r="F797" s="6"/>
       <c r="G797" s="6"/>
     </row>
-    <row r="798" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A798" s="3">
-        <v>838</v>
-      </c>
+    <row r="798" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A798" s="3"/>
       <c r="B798" s="4"/>
       <c r="C798" s="5"/>
       <c r="E798" s="6"/>
       <c r="F798" s="6"/>
     </row>
-    <row r="799" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A799" s="3">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="800" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A800" s="3">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A799" s="3"/>
+    </row>
+    <row r="800" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A800" s="3"/>
+    </row>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="3" alignment="center"/>
   <conditionalFormatting sqref="C1:C1048576">
